--- a/backend/objetos.xlsx
+++ b/backend/objetos.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leozed92-my.sharepoint.com/personal/leozed_leozed92_onmicrosoft_com/Documents/Aplicativos/App GAD SESAU/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{C24DD8E0-50BB-40E4-B648-E8FAFBB74FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2DEEE6D-2F43-435C-AC8E-A5B307752751}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{C24DD8E0-50BB-40E4-B648-E8FAFBB74FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8264AC03-D859-4ED8-9F5A-032729C3647F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{92D8D400-3915-4B7A-B5E9-ACA32B0E4BC3}"/>
+    <workbookView xWindow="810" yWindow="2055" windowWidth="21600" windowHeight="11190" xr2:uid="{92D8D400-3915-4B7A-B5E9-ACA32B0E4BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="objetos" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">objetos!$A$1:$C$249</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="475">
   <si>
     <t>objeto</t>
   </si>
@@ -696,9 +699,6 @@
     <t>Contratação de empresa especializada em prestação de serviços de manutenção preventiva e corretiva, de forma continua, com fornecimento e reposição de peças, acessórios e componentes eletrônicos dos Sistemas de Climatização, de expansão indireta CHILLER com capacidade de 150 TR e 9,92 TR e de expansão direta através Condicionador de Ar Tipo Self Contained com Condensador a Ar Remoto de 7,5 TR, conforme dados técnicos em anexo, para atender o Hospital de Base Dr. Ary Pinheiro, por um período de 12 (doze) meses.</t>
   </si>
   <si>
-    <t>EMERGENCIAL</t>
-  </si>
-  <si>
     <t>0036.010175/2025-84</t>
   </si>
   <si>
@@ -717,9 +717,6 @@
     <t>Contratação de manutenção corretiva dos equipamentos Arco Cirúrgicos da marca VMI disponíveis na unidade Hospital de Base Dr. Ary Pinheiro</t>
   </si>
   <si>
-    <t>Licitatório - SRP</t>
-  </si>
-  <si>
     <t>Contratação, por Registro de Preço, de empresa(s) especializada(s) na prestação de serviços de Estudo Prévio/Análise, Adequação, Manutenção, Limpeza e Desinfecção em poços tubulares para atender às necessidades das unidades Laboratório Central de Saúde Pública - LACEN, Centro de Reabilitação de Rondônia - CERO, Assistência Médica Intensiva - AMI, Centro de Medicina Tropical de Rondônia - CEMETRON, Hospital Retaguarda de Rondônia - HRRO, Hospital Regional Cacoal - HRC, Hospital São Francisco do Guaporé - HRSFG, Hospital Regional de Extrema - HRE e Laboratório de Fronteira de Rondônia - LAFRON, por um período de 1 (um) ano, nos moldes da Lei Federal n.º 14.133 de 1º Abril de 2021.</t>
   </si>
   <si>
@@ -1465,6 +1462,9 @@
   </si>
   <si>
     <t>PRESERVAÇÃO DE ÓRGÃOS E CÓRNEAS</t>
+  </si>
+  <si>
+    <t>Licitatório SRP</t>
   </si>
 </sst>
 </file>
@@ -1506,9 +1506,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1850,7 +1851,7 @@
   <dimension ref="A1:C249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C25" sqref="C25:C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,37 +3012,37 @@
         <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>219</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>219</v>
+      </c>
+      <c r="B106" t="s">
         <v>220</v>
       </c>
-      <c r="B106" t="s">
-        <v>221</v>
-      </c>
       <c r="C106" t="s">
-        <v>219</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s">
         <v>222</v>
       </c>
-      <c r="B107" t="s">
-        <v>223</v>
-      </c>
       <c r="C107" t="s">
-        <v>219</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>223</v>
+      </c>
+      <c r="B108" t="s">
         <v>224</v>
-      </c>
-      <c r="B108" t="s">
-        <v>225</v>
       </c>
       <c r="C108" t="s">
         <v>59</v>
@@ -3054,8 +3055,8 @@
       <c r="B109" t="s">
         <v>29</v>
       </c>
-      <c r="C109" t="s">
-        <v>226</v>
+      <c r="C109" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3065,8 +3066,8 @@
       <c r="B110" t="s">
         <v>65</v>
       </c>
-      <c r="C110" t="s">
-        <v>226</v>
+      <c r="C110" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3076,8 +3077,8 @@
       <c r="B111" t="s">
         <v>67</v>
       </c>
-      <c r="C111" t="s">
-        <v>226</v>
+      <c r="C111" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3087,8 +3088,8 @@
       <c r="B112" t="s">
         <v>87</v>
       </c>
-      <c r="C112" t="s">
-        <v>226</v>
+      <c r="C112" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3098,8 +3099,8 @@
       <c r="B113" t="s">
         <v>96</v>
       </c>
-      <c r="C113" t="s">
-        <v>226</v>
+      <c r="C113" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3109,8 +3110,8 @@
       <c r="B114" t="s">
         <v>106</v>
       </c>
-      <c r="C114" t="s">
-        <v>226</v>
+      <c r="C114" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3120,8 +3121,8 @@
       <c r="B115" t="s">
         <v>134</v>
       </c>
-      <c r="C115" t="s">
-        <v>226</v>
+      <c r="C115" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3131,8 +3132,8 @@
       <c r="B116" t="s">
         <v>140</v>
       </c>
-      <c r="C116" t="s">
-        <v>226</v>
+      <c r="C116" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3142,8 +3143,8 @@
       <c r="B117" t="s">
         <v>142</v>
       </c>
-      <c r="C117" t="s">
-        <v>226</v>
+      <c r="C117" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3153,8 +3154,8 @@
       <c r="B118" t="s">
         <v>147</v>
       </c>
-      <c r="C118" t="s">
-        <v>226</v>
+      <c r="C118" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3164,8 +3165,8 @@
       <c r="B119" t="s">
         <v>159</v>
       </c>
-      <c r="C119" t="s">
-        <v>226</v>
+      <c r="C119" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3173,10 +3174,10 @@
         <v>209</v>
       </c>
       <c r="B120" t="s">
-        <v>227</v>
-      </c>
-      <c r="C120" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3186,16 +3187,16 @@
       <c r="B121" t="s">
         <v>85</v>
       </c>
-      <c r="C121" t="s">
-        <v>226</v>
+      <c r="C121" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B122" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C122" t="s">
         <v>23</v>
@@ -3203,10 +3204,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B123" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C123" t="s">
         <v>23</v>
@@ -3214,10 +3215,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B124" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C124" t="s">
         <v>23</v>
@@ -3225,10 +3226,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B125" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C125" t="s">
         <v>23</v>
@@ -3236,10 +3237,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B126" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C126" t="s">
         <v>23</v>
@@ -3247,10 +3248,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B127" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C127" t="s">
         <v>23</v>
@@ -3258,10 +3259,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C128" t="s">
         <v>23</v>
@@ -3272,7 +3273,7 @@
         <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C129" t="s">
         <v>23</v>
@@ -3283,7 +3284,7 @@
         <v>16</v>
       </c>
       <c r="B130" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C130" t="s">
         <v>23</v>
@@ -3291,10 +3292,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B131" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C131" t="s">
         <v>59</v>
@@ -3302,10 +3303,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B132" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C132" t="s">
         <v>70</v>
@@ -3313,10 +3314,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B133" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C133" t="s">
         <v>23</v>
@@ -3324,10 +3325,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B134" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C134" t="s">
         <v>59</v>
@@ -3338,7 +3339,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C135" t="s">
         <v>23</v>
@@ -3346,10 +3347,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B136" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C136" t="s">
         <v>23</v>
@@ -3357,10 +3358,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B137" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C137" t="s">
         <v>23</v>
@@ -3371,7 +3372,7 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C138" t="s">
         <v>23</v>
@@ -3382,7 +3383,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C139" t="s">
         <v>23</v>
@@ -3390,10 +3391,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B140" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C140" t="s">
         <v>23</v>
@@ -3401,10 +3402,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B141" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C141" t="s">
         <v>70</v>
@@ -3412,10 +3413,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C142" t="s">
         <v>70</v>
@@ -3423,120 +3424,120 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>262</v>
+      </c>
+      <c r="B143" t="s">
+        <v>263</v>
+      </c>
+      <c r="C143" t="s">
         <v>264</v>
-      </c>
-      <c r="B143" t="s">
-        <v>265</v>
-      </c>
-      <c r="C143" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B144" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C144" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B145" t="s">
-        <v>270</v>
-      </c>
-      <c r="C145" t="s">
-        <v>226</v>
+        <v>268</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B146" t="s">
-        <v>272</v>
-      </c>
-      <c r="C146" t="s">
-        <v>226</v>
+        <v>270</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B147" t="s">
-        <v>274</v>
-      </c>
-      <c r="C147" t="s">
-        <v>226</v>
+        <v>272</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B148" t="s">
-        <v>276</v>
-      </c>
-      <c r="C148" t="s">
-        <v>226</v>
+        <v>274</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B149" t="s">
-        <v>278</v>
-      </c>
-      <c r="C149" t="s">
-        <v>226</v>
+        <v>276</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B150" t="s">
-        <v>280</v>
-      </c>
-      <c r="C150" t="s">
-        <v>226</v>
+        <v>278</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B151" t="s">
-        <v>282</v>
-      </c>
-      <c r="C151" t="s">
-        <v>226</v>
+        <v>280</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B152" t="s">
-        <v>284</v>
-      </c>
-      <c r="C152" t="s">
-        <v>226</v>
+        <v>282</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B153" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C153" t="s">
         <v>43</v>
@@ -3544,32 +3545,32 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B154" t="s">
-        <v>288</v>
-      </c>
-      <c r="C154" t="s">
-        <v>226</v>
+        <v>286</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B155" t="s">
-        <v>290</v>
-      </c>
-      <c r="C155" t="s">
-        <v>226</v>
+        <v>288</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B156" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C156" t="s">
         <v>43</v>
@@ -3577,21 +3578,21 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B157" t="s">
-        <v>294</v>
-      </c>
-      <c r="C157" t="s">
-        <v>226</v>
+        <v>292</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C158" t="s">
         <v>23</v>
@@ -3599,32 +3600,32 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B159" t="s">
-        <v>298</v>
-      </c>
-      <c r="C159" t="s">
-        <v>226</v>
+        <v>296</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B160" t="s">
-        <v>300</v>
-      </c>
-      <c r="C160" t="s">
-        <v>226</v>
+        <v>298</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B161" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C161" t="s">
         <v>23</v>
@@ -3632,21 +3633,21 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B162" t="s">
-        <v>304</v>
-      </c>
-      <c r="C162" t="s">
-        <v>226</v>
+        <v>302</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B163" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C163" t="s">
         <v>23</v>
@@ -3654,54 +3655,54 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B164" t="s">
-        <v>308</v>
-      </c>
-      <c r="C164" t="s">
-        <v>226</v>
+        <v>306</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B165" t="s">
-        <v>310</v>
-      </c>
-      <c r="C165" t="s">
-        <v>226</v>
+        <v>308</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B166" t="s">
-        <v>312</v>
-      </c>
-      <c r="C166" t="s">
-        <v>226</v>
+        <v>310</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B167" t="s">
-        <v>314</v>
-      </c>
-      <c r="C167" t="s">
-        <v>226</v>
+        <v>312</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B168" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C168" t="s">
         <v>43</v>
@@ -3709,43 +3710,43 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B169" t="s">
-        <v>318</v>
-      </c>
-      <c r="C169" t="s">
-        <v>226</v>
+        <v>316</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B170" t="s">
-        <v>320</v>
-      </c>
-      <c r="C170" t="s">
-        <v>226</v>
+        <v>318</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B171" t="s">
-        <v>322</v>
-      </c>
-      <c r="C171" t="s">
-        <v>226</v>
+        <v>320</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B172" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C172" t="s">
         <v>23</v>
@@ -3753,10 +3754,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B173" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C173" t="s">
         <v>23</v>
@@ -3764,10 +3765,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B174" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C174" t="s">
         <v>43</v>
@@ -3775,10 +3776,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B175" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C175" t="s">
         <v>43</v>
@@ -3786,10 +3787,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B176" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C176" t="s">
         <v>23</v>
@@ -3797,32 +3798,32 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B177" t="s">
-        <v>334</v>
-      </c>
-      <c r="C177" t="s">
-        <v>226</v>
+        <v>332</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B178" t="s">
-        <v>336</v>
-      </c>
-      <c r="C178" t="s">
-        <v>226</v>
+        <v>334</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B179" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C179" t="s">
         <v>43</v>
@@ -3830,10 +3831,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B180" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C180" t="s">
         <v>23</v>
@@ -3841,10 +3842,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B181" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C181" t="s">
         <v>43</v>
@@ -3852,21 +3853,21 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B182" t="s">
-        <v>344</v>
-      </c>
-      <c r="C182" t="s">
-        <v>226</v>
+        <v>342</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B183" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C183" t="s">
         <v>43</v>
@@ -3874,10 +3875,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B184" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C184" t="s">
         <v>23</v>
@@ -3885,10 +3886,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B185" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C185" t="s">
         <v>43</v>
@@ -3896,32 +3897,32 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B186" t="s">
-        <v>352</v>
-      </c>
-      <c r="C186" t="s">
-        <v>226</v>
+        <v>350</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B187" t="s">
-        <v>354</v>
-      </c>
-      <c r="C187" t="s">
-        <v>226</v>
+        <v>352</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B188" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C188" t="s">
         <v>23</v>
@@ -3929,10 +3930,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B189" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C189" t="s">
         <v>43</v>
@@ -3940,10 +3941,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B190" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C190" t="s">
         <v>23</v>
@@ -3951,10 +3952,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B191" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C191" t="s">
         <v>23</v>
@@ -3962,10 +3963,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B192" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C192" t="s">
         <v>23</v>
@@ -3973,32 +3974,32 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B193" t="s">
-        <v>366</v>
-      </c>
-      <c r="C193" t="s">
-        <v>226</v>
+        <v>364</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B194" t="s">
-        <v>368</v>
-      </c>
-      <c r="C194" t="s">
-        <v>226</v>
+        <v>366</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B195" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C195" t="s">
         <v>23</v>
@@ -4006,10 +4007,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B196" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C196" t="s">
         <v>23</v>
@@ -4017,21 +4018,21 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B197" t="s">
-        <v>374</v>
-      </c>
-      <c r="C197" t="s">
-        <v>226</v>
+        <v>372</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B198" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C198" t="s">
         <v>43</v>
@@ -4039,10 +4040,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B199" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C199" t="s">
         <v>43</v>
@@ -4050,10 +4051,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B200" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C200" t="s">
         <v>43</v>
@@ -4061,21 +4062,21 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B201" t="s">
-        <v>382</v>
-      </c>
-      <c r="C201" t="s">
-        <v>226</v>
+        <v>380</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B202" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C202" t="s">
         <v>43</v>
@@ -4083,21 +4084,21 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B203" t="s">
-        <v>386</v>
-      </c>
-      <c r="C203" t="s">
-        <v>226</v>
+        <v>384</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B204" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C204" t="s">
         <v>23</v>
@@ -4105,10 +4106,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B205" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C205" t="s">
         <v>43</v>
@@ -4116,10 +4117,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B206" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C206" t="s">
         <v>43</v>
@@ -4127,10 +4128,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B207" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C207" t="s">
         <v>43</v>
@@ -4138,10 +4139,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B208" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C208" t="s">
         <v>43</v>
@@ -4149,10 +4150,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B209" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C209" t="s">
         <v>43</v>
@@ -4160,10 +4161,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B210" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C210" t="s">
         <v>43</v>
@@ -4171,10 +4172,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B211" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C211" t="s">
         <v>43</v>
@@ -4182,10 +4183,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B212" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C212" t="s">
         <v>43</v>
@@ -4193,21 +4194,21 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B213" t="s">
-        <v>405</v>
-      </c>
-      <c r="C213" t="s">
-        <v>226</v>
+        <v>403</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B214" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C214" t="s">
         <v>43</v>
@@ -4215,10 +4216,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B215" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C215" t="s">
         <v>43</v>
@@ -4226,10 +4227,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B216" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C216" t="s">
         <v>43</v>
@@ -4237,10 +4238,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B217" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C217" t="s">
         <v>43</v>
@@ -4248,10 +4249,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B218" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C218" t="s">
         <v>43</v>
@@ -4259,21 +4260,21 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B219" t="s">
-        <v>417</v>
-      </c>
-      <c r="C219" t="s">
-        <v>226</v>
+        <v>415</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B220" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C220" t="s">
         <v>23</v>
@@ -4281,10 +4282,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B221" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C221" t="s">
         <v>43</v>
@@ -4292,10 +4293,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B222" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C222" t="s">
         <v>43</v>
@@ -4303,10 +4304,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B223" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C223" t="s">
         <v>43</v>
@@ -4314,10 +4315,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B224" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C224" t="s">
         <v>23</v>
@@ -4325,10 +4326,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B225" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C225" t="s">
         <v>43</v>
@@ -4336,10 +4337,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B226" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C226" t="s">
         <v>43</v>
@@ -4347,10 +4348,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B227" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C227" t="s">
         <v>43</v>
@@ -4358,10 +4359,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B228" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C228" t="s">
         <v>43</v>
@@ -4369,10 +4370,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B229" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C229" t="s">
         <v>43</v>
@@ -4380,10 +4381,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B230" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C230" t="s">
         <v>43</v>
@@ -4391,10 +4392,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B231" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C231" t="s">
         <v>43</v>
@@ -4402,10 +4403,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B232" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C232" t="s">
         <v>23</v>
@@ -4413,24 +4414,24 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B233" t="s">
-        <v>445</v>
-      </c>
-      <c r="C233" t="s">
-        <v>226</v>
+        <v>443</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B234" t="s">
-        <v>447</v>
-      </c>
-      <c r="C234" t="s">
-        <v>226</v>
+        <v>445</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -4438,167 +4439,168 @@
         <v>1</v>
       </c>
       <c r="B235" t="s">
-        <v>448</v>
-      </c>
-      <c r="C235" t="s">
-        <v>226</v>
+        <v>446</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B236" t="s">
-        <v>450</v>
-      </c>
-      <c r="C236" t="s">
-        <v>226</v>
+        <v>448</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B237" t="s">
-        <v>452</v>
-      </c>
-      <c r="C237" t="s">
-        <v>226</v>
+        <v>450</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B238" t="s">
-        <v>454</v>
-      </c>
-      <c r="C238" t="s">
-        <v>226</v>
+        <v>452</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B239" t="s">
-        <v>456</v>
-      </c>
-      <c r="C239" t="s">
-        <v>226</v>
+        <v>454</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B240" t="s">
-        <v>458</v>
-      </c>
-      <c r="C240" t="s">
-        <v>226</v>
+        <v>456</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B241" t="s">
-        <v>460</v>
-      </c>
-      <c r="C241" t="s">
-        <v>226</v>
+        <v>458</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B242" t="s">
-        <v>462</v>
-      </c>
-      <c r="C242" t="s">
-        <v>226</v>
+        <v>460</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B243" t="s">
-        <v>464</v>
-      </c>
-      <c r="C243" t="s">
-        <v>226</v>
+        <v>462</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B244" t="s">
-        <v>466</v>
-      </c>
-      <c r="C244" t="s">
-        <v>226</v>
+        <v>464</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B245" t="s">
-        <v>468</v>
-      </c>
-      <c r="C245" t="s">
-        <v>226</v>
+        <v>466</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B246" t="s">
         <v>3</v>
       </c>
-      <c r="C246" t="s">
-        <v>226</v>
+      <c r="C246" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B247" t="s">
-        <v>471</v>
-      </c>
-      <c r="C247" t="s">
-        <v>226</v>
+        <v>469</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B248" t="s">
-        <v>473</v>
-      </c>
-      <c r="C248" t="s">
-        <v>226</v>
+        <v>471</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B249" t="s">
-        <v>475</v>
-      </c>
-      <c r="C249" t="s">
-        <v>226</v>
+        <v>473</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C249" xr:uid="{4A2FF0CA-3C4D-4BFF-9AA5-A0CFD76751B1}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/backend/objetos.xlsx
+++ b/backend/objetos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leozed92-my.sharepoint.com/personal/leozed_leozed92_onmicrosoft_com/Documents/Aplicativos/App GAD SESAU/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{C24DD8E0-50BB-40E4-B648-E8FAFBB74FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8264AC03-D859-4ED8-9F5A-032729C3647F}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{C24DD8E0-50BB-40E4-B648-E8FAFBB74FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EADC58B6-53C8-45BA-8B1C-FBAABA64B35A}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="2055" windowWidth="21600" windowHeight="11190" xr2:uid="{92D8D400-3915-4B7A-B5E9-ACA32B0E4BC3}"/>
+    <workbookView xWindow="2385" yWindow="2010" windowWidth="21600" windowHeight="11190" xr2:uid="{92D8D400-3915-4B7A-B5E9-ACA32B0E4BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="objetos" sheetId="1" r:id="rId1"/>
@@ -39,483 +39,459 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="477">
   <si>
     <t>objeto</t>
   </si>
   <si>
-    <t>0036.006830/2024-19</t>
-  </si>
-  <si>
     <t>Processo</t>
   </si>
   <si>
-    <t>FORNECIMENTO DE MEDICAMENTOS CONTINUADOS JUDICIALIZADOS</t>
+    <t>tipo_tr</t>
+  </si>
+  <si>
+    <t>Emergencial</t>
+  </si>
+  <si>
+    <t>0036.051031/2024-05</t>
+  </si>
+  <si>
+    <t>Operação Hospital de Guajará-Mirim</t>
+  </si>
+  <si>
+    <t>0036.059337/2023-11</t>
+  </si>
+  <si>
+    <t>Aquisição do livro “Manual do Servidor Público do Estado de Rondônia” para distribuição nas unidades da Secretaria de Estado da Saúde de Rondônia.</t>
+  </si>
+  <si>
+    <t>Licitatório</t>
+  </si>
+  <si>
+    <t>0036.031048/2023-57</t>
+  </si>
+  <si>
+    <t>Serviço De Engenharia Clínica, Incluindo Serviço De Gerenciamento De Equipamentos Manutenção Corretiva, Preventiva, Preditiva E Calibração Dos Equipamentos Com Reposição De Peças E Acessórios. Lepac E Cdi</t>
+  </si>
+  <si>
+    <t>0051.491179/2020-59</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços de locação de sistema de Fornecimento e tratamento de água para hemodiálise com osmose reversa fixa duplo passo, visando atender a 26 pontos, incluíndo a rede de distribuição e os pontos de consumo, de forma contínua,​ visando atender ao Hospital Regional de Cacoal (HRC), por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.014359/2024-32</t>
+  </si>
+  <si>
+    <t>Registro de Preços para contratação de solução com fornecimento de equipamentos, licenças de softwares e serviços, para proteção e gerenciamento seguro da rede LAN/WAN da Secretaria de Estado da Saúde – SESAU/RO.</t>
+  </si>
+  <si>
+    <t>0050.005171/2023-34</t>
+  </si>
+  <si>
+    <t>Locação prédio para acomodação do Serviço de Atendimento Multidisciplinar Domiciliar - SAMD e Subdiretoria Técnica em Saúde - SDTECS/SESAU, incluindo climatização e manutenção predial, localizado no Município de Porto Velho/RO.</t>
+  </si>
+  <si>
+    <t>0036.021529/2024-35</t>
+  </si>
+  <si>
+    <t>Prestação de Serviços de Limpeza/Desinfecção de Ambientes e Gerenciamento de Resíduos (interno) dos Serviços de Saúde - Higienização, Conservação, Desinfecção de Superfícies e Mobiliários e Recolhimento dos Resíduos Grupo D, de forma contínua, para atender a 2ª Gerência Regional de Saúde no município de Cacoal, em caráter contínuo</t>
+  </si>
+  <si>
+    <t>0036.000311/2025-28</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços de Locação de Módulo/Central de Compressores de Ar Medicinal, incluído providências para instalação completa dos sistemas respectivos, com construção civil, elétrica, mecânica e hidráulica, bem como outros insumos necessários para seu devido funcionamento, considerando na prestação do serviço a montagem e manutenção preventiva e corretiva dos equipamentos de acordo com os padrões e normas técnicas atualizadas, como RDC n.º 50, RDC n.º 307, NBR 12.188 entre outras, para atender as necessidades do Hospital Regional de Cacoal (HRC), conforme Documento de Oficialização de Demanda n.º 2/2025/HRC-SGM (0056295036).</t>
+  </si>
+  <si>
+    <t>0036.055698/2024-79</t>
+  </si>
+  <si>
+    <t>Contratação emergencial de empresa especializada na Prestação de Serviços de Engenharia Clínica, Incluindo Serviço de Gerenciamento de Equipamentos Manutenção Corretiva, Preventiva, Preditiva e Calibração dos Equipamentos com Reposição de Peças e Acessórios, visando atender às necessidades do Hospital Infantil Cosme e Damião - HICD (139 leitos), de forma contínua, conforme a Lei Federal 14.133/2021.</t>
+  </si>
+  <si>
+    <t>0036.007254/2025-16</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em prestação de serviços de manutenção preventiva e corretiva, de forma contínua, com fornecimento e reposição de peças, acessórios e componentes eletrônicos do Sistema de Climatização do (HICD), incluindo de expansão indireta CHILLER, conforme projeto O.S 1430 (0033753209), com capacidade de 162 TR e Centrais de Ar Condicionados instaladas nos setores que não contemplam o sistema de refrigeração chiller, para atender as necessidade do Hospital Infantil Cosme e Damião (HICD), por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.059843/2024-91</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa prestação de serviços de Manutenção Preventiva e Corretiva, com fornecimento e reposição de peças, acessórios e componentes eletrônicos do sistema climatização de expansão direta tipo VRF de 950 HP da marca Mitsubishi e demais equipamentos complementares e substitutos do sistema de climatização (VRF) de conforto térmico, de forma contínua, para atender ao Hospital Regional de Cacoal - HRC, por um período de 01 (um) ano, podendo ser prorrogado conforme previsto nos Art. 106 e 107 da lei nº 14.133, conforme Documento de Oficialização de Demanda nº 6/2025/COHREC-NEMP (0057374682).</t>
+  </si>
+  <si>
+    <t>0036.004257/2025-90</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa para presente instrumento é a prestação de serviços de translado terrestre de corpos, com assistência 24 (vinte e quatro) horas, a fim de atender os óbitos ocorridos no Hospital e Pronto Socorro João Paulo II-HPSJPII, Assistência Médica Intensiva-AMI 24h e Centro de Medicina Tropical de Rondônia-CEMETRON, por um período de 01 (um) ano, podendo ser prorrogado conforme previsto nos Art. 106 e 107 da lei n.º 14.133, conforme Documento de Oficialização de Demanda n.º 2/2025/CEMETRON-ASTEC, n.º 3/2025/AMI-COORD (0057366910, 0057594289).</t>
+  </si>
+  <si>
+    <t>Dispensa</t>
+  </si>
+  <si>
+    <t>0036.003493/2025-99</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada em Prestação de Serviços de Limpeza, Conservação, Higienização e Desinfecção com Fornecimento de Materiais e Equipamentos nas dependências do prédio onde funciona a III Gerência Regional de Saúde - Vilhena (GRS3), pelo período de 5 (cinco) anos de forma contínua.</t>
+  </si>
+  <si>
+    <t>0020.002635/2025-70</t>
+  </si>
+  <si>
+    <t>Contratação de empresa objetivando a participação de servidores no 1° Congresso Nacional de Contratações e Convênios na Saúde, de forma remota, nos dias 09, 10 e 11 de Abril de 2025, conforme Documento de Oficialização de Demanda nº 1/2025/PGE-SESAU (0057771461).</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em Locação de Módulo/Central de Compressores de Ar Medicinal, incluído providências para instalação completa dos sistemas respectivos, com construção civil, elétrica, mecânica e hidráulica, bem como outros insumos necessários para seu devido funcionamento, considerando na prestação do serviço a montagem e manutenção preventiva e corretiva dos equipamentos de acordo com os padrões e normas técnicas atualizadas, como RDC nº 50, RDC nº 307, NBR 12.188 entre outras, para atender as necessidades do Hospital Regional de Cacoal (HRC).</t>
+  </si>
+  <si>
+    <t>0036.013189/2025-50</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em Serviços de Engenharia Clínica, Incluindo Serviço de Gerenciamento de Equipamentos Manutenção Corretiva, Preventiva, Preditiva e Calibração dos Equipamentos com Reposição de Peças e Acessórios, visando atender às necessidades do Hospital Regional de Cacoal - HRC, Hospital de Urgência e Emergência Regional de Cacoal - HEURO e Hospital Regional de Extrema - HRE, por um período de 01 (um) ano, podendo ser prorrogado conforme previsto nos Art. 106 e 107 da lei nº 14.133, conforme Documento de Oficialização de Demanda nº 251/2024/SESAU-GECOMP (0052163179).</t>
+  </si>
+  <si>
+    <t>0049.006695/2023-81</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços de manutenção preventiva e corretiva, com reposição integral de peças do Sistema de Tratamento de Água por osmose reversa passo simples para hemodiálise, na Central de Hemodiálise do Hospital de Base Dr. Ary Pinheiro - HBAP, com capacidade de abastecimento de até 15 máquinas de hemodiálise, por um período de 12 meses.</t>
+  </si>
+  <si>
+    <t>0036.103898/2022-83</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços de Limpeza, Desobstrução do Sistema de Tratamento de Esgoto (Tanque Séptico, Filtro Anaeróbio e Sumidouro), Caixas de Esgoto, Caixas de Gordura e Tubulações de Esgoto, bem como Limpeza e Desinfecção de Caixas D’água, de forma contínua, por um período de 12 (doze) meses</t>
+  </si>
+  <si>
+    <t>0036.042664/2024-14</t>
+  </si>
+  <si>
+    <t>Locação do imóvel localizado - Coordenadoria Estadual de Nutrição Enteral - CENE, Coordenadoria de Gestão e Assistência Farmacêutica - CGAF, atualmente vigente.</t>
+  </si>
+  <si>
+    <t>0049.010601/2024-50</t>
+  </si>
+  <si>
+    <t>INEXIGIBILIDADE - Contratação de empresa especializada em manutenção corretiva com fornecimento de peças do equipamento Autoclave de peróxido de hidrogênio BAUMMER - HBAP</t>
+  </si>
+  <si>
+    <t>Inexigibilidade</t>
+  </si>
+  <si>
+    <t>0036.033145/2024-65</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada para a Prestação de Serviços de Higienização e Limpeza Hospitalar e assemelhadas, Laboratorial e Ambulatorial - Higienização, Conservação, Desinfecção de Superfícies e Mobiliários e Recolhimento dos Resíduos do Grupo “D” para atuar de forma contínua no Laboratório de Fronteira - LAFRON, conforme Documento de Oficialização de Demanda nº 2/2024/LACEN-NLAFRON (0052710793).</t>
+  </si>
+  <si>
+    <t>0053.336440/2021-10</t>
+  </si>
+  <si>
+    <t>Serviços de limpeza de poços e manutenção preventiva e corretiva das bombas, para atendimento CEMETRON</t>
+  </si>
+  <si>
+    <t>0036.023187/2024-98</t>
+  </si>
+  <si>
+    <t>Registro de Preço para futura e eventual contratação de empresa especializada em serviço de nuvem na modalidade SaaS de uso de suíte de plataforma de colaboração, associada aos serviços de colaboração e produtividade de e-mail, agendas compartilhadas, ferramenta de videoconferência, pacote de Software de Escritório e Armazenamento, com o objetivo de atender as Coordenadorias que compõem esta Secretaria de Estado da Saúde, pelo período de 1 (um) ano, podendo ser prorrogado, por igual período, conforme previsto no art. 84º da Lei 14.133, de 1° de Abril e 2021.</t>
+  </si>
+  <si>
+    <t>0036.077686/2022-33</t>
+  </si>
+  <si>
+    <t>Registro de Preços para futura e eventual contratação de empresa especializada na confecção de crachás, visando atender as necessidades das Unidades da Secretaria de Estado da Saúde de Rondônia SESAU/RO por um período de 12 meses.</t>
+  </si>
+  <si>
+    <t>0036.006146/2025-18</t>
+  </si>
+  <si>
+    <t>Emergencial - Manutenção preventiva e corretiva de Grupo gerador HRC</t>
+  </si>
+  <si>
+    <t>0036.008076/2025-32</t>
+  </si>
+  <si>
+    <t>Licitatório - coleta interna e externa, transporte, tratamento (incineração ou autoclavagem e incineração e destinação final dos resíduos de serviços de saúde RSS (grupos A,B,E e eventualmente C) HBAP, HICD, CEMETRON, POC, HRB, HEPSJPII, AMI, LACEN, LEPAC, HEURO, HRC e HRSFG.</t>
+  </si>
+  <si>
+    <t>0036.007322/2023-77</t>
+  </si>
+  <si>
+    <t>sondagem para fabricação e Fornecimento de Reservatórios de água do Hospital de Urgência e Emergência Regional de Cacoal - HEURO</t>
+  </si>
+  <si>
+    <t>0036.030732/2024-01</t>
+  </si>
+  <si>
+    <t>Lavanderia Hospitalar com Fornecimento de Enxoval, a fim de atender às necessidades da Secretaria de Estado de Saúde de Rondônia - SESAU</t>
+  </si>
+  <si>
+    <t>0036.024208/2023-10</t>
+  </si>
+  <si>
+    <t>Contratação de empresa de serviços de soluções e tecnologia, visando modernização dos serviços de atenção à saúde pública, a fim de atender às necessidades da Secretaria de Estado da Saúde - SESAU, contemplando 25 (vinte e cinco) Unidades do estado de Rondônia, pelo período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.106428/2022-71</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em prestação de serviços de manutenção preventiva e corretiva, de forma contínua, com fornecimento e reposição de peças, acessórios e componentes eletrônicos do Sistema de Climatização do HICD, incluindo de expansão indireta CHILLER, conforme projeto O.S 1430 (0033753209), com capacidade de 162 TR e Centrais de Ar Condicionados instaladas nos setores que não contemplam o sistema de refrigeração chiller, para atender as necessidade do Hospital Infantil Cosme e Damião - HICD, por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.008314/2024-29</t>
+  </si>
+  <si>
+    <t>Contratação de serviços dos Correios para a Operação de Logística de Suprimentos In House conforme disponibiliza a NLLC (Inciso IX, art. 75 da Lei 14.133/21) para o Setor de Controle de Estoque, Armazenamento e Distribuição de Suprimentos desta Setorial de Produtos Médicos da SESAU, por um período mínimo de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.109115/2022-75</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada na Prestação de Serviço de Transporte Inter-Hospitalar de Pacientes, com disponibilização de Veículo/Ambulância de Suporte Avançado TIPO ”D” (UTI Móvel) e Suporte Básico TIPO "B", com mão de obra especializada, para atender as necessidades do Hospital Regional de Buritis - HRB, Hospital de Urgência e Emergência Regional de Cacoal - HEURO, Hospital Regional de Cacoal (HRC), Centro de Medicina Tropical - CEMETRON, Hospital e Pronto Socorro João Paulo II - HEPSJP/II, por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.006073/2024-83</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em prestação de serviços de vigilância/segurança patrimonial ostensiva e armada/desarmada, visando atender a I Gerência Regional de Saúde de Vilhena, II Gerência Regional de Saúde de Ariquemes, III Gerência Regional de Saúde de Rolim de Moura, e o IV Hospital Regional de São Francisco do Guaporé - HRSFG, no âmbito da Secretaria de Estado da Saúde de Rondônia (SESAU/RO), de forma contínua, por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.002598/2024-40</t>
+  </si>
+  <si>
+    <t>Registro de Preços para futura e eventual aquisição de materiais periféricos de informática, com a finalidade de atender as necessidades desta Secretaria de Estado da Saúde.</t>
+  </si>
+  <si>
+    <t>0036.031949/2024-20</t>
+  </si>
+  <si>
+    <t>Aquisição e Instalação de Unidades de Tratamento de Ar - UTA´s das salas cirúrgicas para atender o Hospital de Urgência e Emergência Regional de Cacoal - HEURO, conforme Documento de Oficialização de Demanda nº 48/2024/HEURO-ASGAB (0050389844)</t>
+  </si>
+  <si>
+    <t>0036.003735/2024-63</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços de vigilância/segurança patrimonial ostensiva e armada/desarmada, para atender as unidades administrativas da I Gerência Regional de Saúde de Ji-Paraná e II Gerência Regional de Saúde de Cacoal, vinculadas à Secretaria de Estado da Saúde, referente aos Lotes I e II</t>
+  </si>
+  <si>
+    <t>0036.012675/2025-51</t>
+  </si>
+  <si>
+    <t>Contratação Emergencial de Empresa Especializada na Prestação de Serviço de Transporte Inter-Hospitalar de Pacientes, com disponibilização de Veículo/Ambulância de Suporte Avançado TIPO ”D” (UTI Móvel) e Suporte Básico TIPO "B", com mão de obra especializada, para atender as necessidades do Hospital Regional São Francisco do Guaporé-HRSF, Policlínica Oswaldo Cruz-POC, Hospital Regional de Buritis-HRB, Hospital de Urgência e Emergência Regional de Cacoal-HEURO, Hospital Regional de Cacoal-HRC, Centro de Medicina Tropical-CEMETRON, Hospital e Pronto Socorro João Paulo II-JPII, Hospital de Retaguarda de Rondônia-HRRO; Centro de Medicina Intensiva​ - AMI; Hospital Regional de Extrema - HRE e Serviço Assistencial Multidisciplinar e Domiciliar-SAMD, pelo período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.517278/2021-47</t>
+  </si>
+  <si>
+    <t>Manutenção Prev. e Corretiva Equipamentos da Lavanderia - Hospital de Base Dr. Ary Pinheiro - HB e Hospital Regional de Cacoal - HRC</t>
+  </si>
+  <si>
+    <t>0059.000422/2023-12</t>
+  </si>
+  <si>
+    <t>Manutenção Prev. e Corretiva da Estação de Tratamento de Esgoto - ETE - Hospital Regional de Extrema - HRE</t>
   </si>
   <si>
     <t>0036.051061/2023-22</t>
   </si>
   <si>
-    <t>0046.000720/2024-24</t>
+    <t>Registro de Preços para futura e eventual aquisição de equipamentos de informática tendo como finalidade atender as necessidades das Unidades de Saúde da Secretária de Estado da Saúde - SESAU/RO, por um período de 12 (doze) meses.</t>
   </si>
   <si>
     <t>0036.005911/2024-00</t>
   </si>
   <si>
-    <t>0036.006969/2025-43</t>
-  </si>
-  <si>
-    <t>0036.033164/2024-91</t>
-  </si>
-  <si>
-    <t>0036.008711/2025-81</t>
-  </si>
-  <si>
-    <t>0036.017639/2024-01</t>
+    <t>Serviços de fornecimento de alimentação e nutrição hospitalar padronizada</t>
+  </si>
+  <si>
+    <t>0036.013967/2024-20</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na Prestação de Serviço de Lavanderia Hospitalar Interna, com disponibilização de equipamentos e demais utensílios, materiais de consumo, realização de manutenção preventiva e corretiva com reposição de peças para atender de forma continuada as necessidades do Hospital Regional de Buritis - HRB, por um período de 12 (doze) meses.</t>
   </si>
   <si>
     <t>0036.033609/2024-33</t>
   </si>
   <si>
-    <t>0036.030732/2024-01</t>
-  </si>
-  <si>
-    <t>0036.008076/2025-32</t>
-  </si>
-  <si>
-    <t>0036.042116/2023-11</t>
+    <t>Eng. clinica HB, HRB e CDVJ</t>
+  </si>
+  <si>
+    <t>0036.036977/2024-33</t>
+  </si>
+  <si>
+    <t>Contratação de produtos e serviços por meio de Pacote de Serviços dos CORREIOS</t>
+  </si>
+  <si>
+    <t>0036.037711/2024-16</t>
+  </si>
+  <si>
+    <t>Aquisição de VOIP para atender a CTI.</t>
+  </si>
+  <si>
+    <t>0036.039245/2024-03</t>
+  </si>
+  <si>
+    <t>RP - Serviços de transporte de dados/interconexão (internet), através de cabeamento de fibra óptica e Rede privativa de comunicação. SESAU/CTI</t>
+  </si>
+  <si>
+    <t>0036.036691/2024-58</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada para prestação de serviços de gestão de acervo documental com guarda de documentos, tratamento técnico, Organização e Indexação, de forma contínua, assim como digitalização de documentos com fornecimento de Sistema Informatizado de Gestão Arquivística de Documentos - SIGAD, visando atender a Secretaria de Estado da Saúde - SESAU, por um período de 1 (um) ano, podendo ser prorrogado sucessivamente por igual período, até o limite de 10 (dez) anos, conforme previsto no art. 107 da Lei Federal nº 14.133/21.</t>
+  </si>
+  <si>
+    <t>0036.042679/2024-82</t>
+  </si>
+  <si>
+    <t>Locação de um Imóvel Comercial para instalação da Coordenadoria de Almoxarifado e Patrimônio - CAP</t>
+  </si>
+  <si>
+    <t>0036.274454/2021-41</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada em Serviços na Área de de manutenção preventiva e corretiva em Condicionadores de Ar, com fornecimento e reposição de peças, acessórios e componentes eletrônicos, para atender as seguintes unidades: Hospital Regional de Extrema - HRE, Hospital Regional de Buritis - HRB, Hospital de Base Dr. Ary Pinheiro - HBAP, Hospital e Pronto Socorro João Paulo II - HEPSJPII, Assistência Médica Intensiva - AMI, Hospital Infantil Cosme e Damião - HICD, Laboratório Central de Saúde Pública - LACEN, Laboratório de Fronteira - LAFRON, Centro de Medicina Tropical de Rondônia - CEMETRON e Policlínica Osvaldo Cruz - POC, Centro de Diálise Ariquemes - CDA, Laboratório Estadual de Patologia e Análise Clínicas - LEPAC Hospital de Urgência e Emergência Regional de Cacoal - HEURO.</t>
+  </si>
+  <si>
+    <t>0036.029876/2024-14</t>
+  </si>
+  <si>
+    <t>Aquisição de um imóvel para a 1° Gerência Regional de Saúde de Ji-Paraná</t>
+  </si>
+  <si>
+    <t>0036.007047/2025-53</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em Locação de Módulo/Central de Compressores de Ar Medicinal, incluído providências para instalação completa dos sistemas respectivos, com construção civil, elétrica, mecânica e hidráulica, bem como outros insumos necessários para seu devido funcionamento, considerando na prestação do serviço a montagem e manutenção preventiva e corretiva dos equipamentos de acordo com os padrões e normas técnicas atualizadas, como RDC nº 50, RDC nº 307, NBR 12.188 entre outras, para atender as necessidades do Hospital Regional de Cacoal (HRC), em caráter emergencial, pelo período até 01 (um) ano ou até a conclusão do processo nº 0036.000311/2025-28</t>
+  </si>
+  <si>
+    <t>0036.004517/2025-27</t>
+  </si>
+  <si>
+    <t>Contratação de empresa para prestação de serviços de Manutenção Preventiva e Corretiva em Condicionadores de Ar, com fornecimento e reposição de peças, acessórios e componentes eletrônicos de Sistema de expansão direta (Split), de forma emergencial, por um período de até um (01) ano ou até a conclusão do processo licitatório n° 0036.274454/2021-41, a fim de atender as necessidades do Hospital de Urgência e Emergência Regional de Cacoal - HEURO, Hospital Regional de Buritis - HRB, Hospital e Pronto Socorro João Paulo II - HEPSJPII e Assistência Médica Intensiva - AMI, Centro de Diálise Ariquemes - CDA, Policlínica Osvaldo Cruz - POC, Centro de Medicina Tropical de Rondônia - CEMETRON e Hospital Regional de Extrema - HRE</t>
+  </si>
+  <si>
+    <t>0036.052658/2023-94</t>
+  </si>
+  <si>
+    <t>Locação de Imóvel, visando atender as necessidades da Gerência de Regulação Estadual do SUS (CAIS-GERREG) em Coordenadoria de Regulação de Acesso ao Serviço de Saúde (SESAU-CREG), localizado no Município de Porto Velho/RO.</t>
+  </si>
+  <si>
+    <t>0036.011653/2025-73</t>
+  </si>
+  <si>
+    <t>Contratação de empresa objetivando a participação dos servidores desta Secretaria de Estado da Saúde no II Fórum Concessões e PPPs em Infraestrutura Social, a realizar-se no dia 02 de abril de 2025, na cidade de São Paulo-SP.</t>
+  </si>
+  <si>
+    <t>0036.008982/2025-37</t>
+  </si>
+  <si>
+    <t>Contratação de empresa objetivando a participação dos servidores desta Secretaria de Estado da Saúde no curso híbrido em emendas parlamentares, de forma presencial, nos dias 19, 20 a 21 de março de 2025 na cidade de Porto Velho/RO.</t>
+  </si>
+  <si>
+    <t>0036.013191/2025-29</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviço de engenharia clínica, incluindo serviço de gerenciamento de equipamentos manutenção corretiva, preventiva, preditiva e calibração dos equipamentos com reposição de peças e acessórios, para atender as necessidades do Hospital Regional de Cacoal - HRC, Hospital de Urgência e Emergência de Cacoal - HEURO e Hospital Regional de São Francisco do Guaporé - HRSFG, de forma emergencial por um período de 1 (um) ano conforme a Lei Federal 14.133/2021, ou até a finalização do processo licitatório 0036.013189/2025-50.</t>
+  </si>
+  <si>
+    <t>0036.010551/2025-31</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada na Prestação de Serviços de manutenção preventiva e corretiva com fornecimento de peças, executada de forma contínua nos equipamentos da Lavanderia Central do Hospital de Base Dr. Ary Pinheiro - HB e Hospital Regional de Cacoal - HRC, de forma emergencial, por um período de até 1 (um) ano, ou até a finalização do processo licitatório nº 0036.517278/2021-47, conforme Documento de Oficialização de Demanda nº 2/2025/COHREC-NLAV (0058030036) e Documento de Oficialização de Demanda nº 2/2025/HB-NLAV (0058231441).</t>
+  </si>
+  <si>
+    <t>0036.014723/2025-45</t>
+  </si>
+  <si>
+    <t>Contratação de empresa objetivando a participação de 07 (sete) servidores desta Secretaria Estadual de Saúde de Rondônia no 6º Congresso Brasileiro de Compras Públicas, de forma presencial nos dias 25 a 28 de agosto de 2025, em Foz do Iguaçu/PR.</t>
+  </si>
+  <si>
+    <t>0036.037359/2024-19</t>
+  </si>
+  <si>
+    <t>Contratação de empresa(s) especializada(s) em estudos prévios, serviços técnicos, perfurações e instalação de poços tubulares profundos, com a finalidade de atender ao abastecimento público de água potável nas unidades de saúde vinculadas à SESAU.</t>
+  </si>
+  <si>
+    <t>0036.036175/2024-23</t>
+  </si>
+  <si>
+    <t>Registro de preço para eventual contratação de serviços comuns de engenharia e insumos para manutenção predial das unidades de saúde e prédios sob a tutela da Secretaria de Estado da Saúde de Rôndonia (SESAU-RO), conforme especificações técnicas estabelecidas no Sistema Nacional de Pesquisa de Custos e Índices da Construção Civil(SINAPI).</t>
+  </si>
+  <si>
+    <t>0036.369652/2020-19</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada em Serviços de manutenção preventiva e corretiva em Subestação Abaixadora e Grupos Geradores, com fornecimento de quaisquer componentes e/ou peças novas e originais, para atender o Hospital de Base Dr. Ary Pinheiro - HBAP, de forma contínua, por um período de 60 (sessenta) meses, conforme Art. 106 da Lei Federal nº 14.133 de 1° de abril de 2021.</t>
+  </si>
+  <si>
+    <t>0053.002493/2024-82</t>
+  </si>
+  <si>
+    <t>contratação de empresa especializada na prestação de serviços de vigilância e segurança patrimonial ostensiva (armada e desarmada).</t>
+  </si>
+  <si>
+    <t>0036.028242/2024-36</t>
+  </si>
+  <si>
+    <t>Registro de Preços para contratação de empresa para fornecimento, sob demanda, de solução de segurança para proteção de e-mail, Endpoint e proteção contra ataques avançados, incluindo instalação, configuração, repasse de conhecimento, suporte técnico e garantia, para atender às necessidades da Secretaria de Estado da Saúde de Rondônia, pelo período de 12 meses</t>
+  </si>
+  <si>
+    <t>0036.005756/2024-13</t>
+  </si>
+  <si>
+    <t>Registro de Preço para aquisição de servidor de Hiperconvergência - CTI</t>
+  </si>
+  <si>
+    <t>0036.001625/2024-67</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada para prestação de serviços de coleta externa, transporte e destinação final dos resíduos sólidos (grupo D)</t>
+  </si>
+  <si>
+    <t>0036.057526/2023-59</t>
+  </si>
+  <si>
+    <t>SRP - Aquisição de itens de hotelaria hospitalar</t>
+  </si>
+  <si>
+    <t>Registro de Preço para futura e eventual contratação de empresa de serviços de soluções e tecnologia, visando modernização dos serviços de atenção à saúde pública</t>
+  </si>
+  <si>
+    <t>0036.006890/2023-51</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em construção e reforma para realização de revitalização do bloco berçário do Hospital de Base Dr. Ary Pinheiro - HBAP.</t>
+  </si>
+  <si>
+    <t>0036.060058/2022-19</t>
+  </si>
+  <si>
+    <t>REFORMA DA COBERTURA DO ESTACIONAMENTO DE AMBULÂNCIAS DO HRC CACOAL</t>
+  </si>
+  <si>
+    <t>0036.018613/2020-48</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em serviços de manutenção por chamado, com fornecimento de peças, de forma contínua, aos equipamentos de empilhadeira, empilhadeira elétrica, empilhadeira manual, carrinho de carga horizontal, carrinho de carga vertical, carrinhos, paleteira e transpaleteira</t>
+  </si>
+  <si>
+    <t>0036.093613/2022-99</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada para realização de CONTROLE E MONITORAMENTO DE ÁGUA POTÁVEL, COM ANÁLISE PERIÓDICA DAS ÁGUAS, LIMPEZA E DESINFECÇÃO do Hospital de Emergência e Pronto Socorro João Paulo II - HEPSJP II, AMI, HBAP, HICD HRE e COHREC desta Secretaria de Estado da Saúde de Rondônia – SESAU/RO, por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>Locação de imóvel comercial para instalações da Coordenação Estadual de Nutrição Enteral - CENE, conforme requisitos mínimos exigidos, afim de atender a Secretaria Estado de Saúde de Rondônia - SESAU/RO, por um período de 12 (doze) meses, com possibilidade de prorrogação.</t>
+  </si>
+  <si>
+    <t>0036.494502/2021-15</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada na Prestação de Serviços de Coleta Interna e Externa, Recolhimento, Transporte, Tratamento e Destinação Final dos Resíduos de Serviços de Saúde – RSS (Grupos A, B, E e eventualmente C), de forma contínua, visando atender as Unidades da SESAU, pelo período de 12 (doze) meses.</t>
   </si>
   <si>
     <t>0036.051069/2023-99</t>
-  </si>
-  <si>
-    <t>0036.037319/2024-69</t>
-  </si>
-  <si>
-    <t>0036.008654/2025-31</t>
-  </si>
-  <si>
-    <t>0036.055698/2024-79</t>
-  </si>
-  <si>
-    <t>0036.109115/2022-75</t>
-  </si>
-  <si>
-    <t>tipo_tr</t>
-  </si>
-  <si>
-    <t>0036.059337/2023-11</t>
-  </si>
-  <si>
-    <t>Aquisição do livro “Manual do Servidor Público do Estado de Rondônia” para distribuição nas unidades da Secretaria de Estado da Saúde de Rondônia.</t>
-  </si>
-  <si>
-    <t>Licitatório</t>
-  </si>
-  <si>
-    <t>0036.031048/2023-57</t>
-  </si>
-  <si>
-    <t>Serviço De Engenharia Clínica, Incluindo Serviço De Gerenciamento De Equipamentos Manutenção Corretiva, Preventiva, Preditiva E Calibração Dos Equipamentos Com Reposição De Peças E Acessórios. Lepac E Cdi</t>
-  </si>
-  <si>
-    <t>0051.491179/2020-59</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada na prestação de serviços de locação de sistema de Fornecimento e tratamento de água para hemodiálise com osmose reversa fixa duplo passo, visando atender a 26 pontos, incluíndo a rede de distribuição e os pontos de consumo, de forma contínua,​ visando atender ao Hospital Regional de Cacoal (HRC), por um período de 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>0036.014359/2024-32</t>
-  </si>
-  <si>
-    <t>Registro de Preços para contratação de solução com fornecimento de equipamentos, licenças de softwares e serviços, para proteção e gerenciamento seguro da rede LAN/WAN da Secretaria de Estado da Saúde – SESAU/RO.</t>
-  </si>
-  <si>
-    <t>0050.005171/2023-34</t>
-  </si>
-  <si>
-    <t>Locação prédio para acomodação do Serviço de Atendimento Multidisciplinar Domiciliar - SAMD e Subdiretoria Técnica em Saúde - SDTECS/SESAU, incluindo climatização e manutenção predial, localizado no Município de Porto Velho/RO.</t>
-  </si>
-  <si>
-    <t>0036.021529/2024-35</t>
-  </si>
-  <si>
-    <t>Prestação de Serviços de Limpeza/Desinfecção de Ambientes e Gerenciamento de Resíduos (interno) dos Serviços de Saúde - Higienização, Conservação, Desinfecção de Superfícies e Mobiliários e Recolhimento dos Resíduos Grupo D, de forma contínua, para atender a 2ª Gerência Regional de Saúde no município de Cacoal, em caráter contínuo</t>
-  </si>
-  <si>
-    <t>0036.000311/2025-28</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada na prestação de serviços de Locação de Módulo/Central de Compressores de Ar Medicinal, incluído providências para instalação completa dos sistemas respectivos, com construção civil, elétrica, mecânica e hidráulica, bem como outros insumos necessários para seu devido funcionamento, considerando na prestação do serviço a montagem e manutenção preventiva e corretiva dos equipamentos de acordo com os padrões e normas técnicas atualizadas, como RDC n.º 50, RDC n.º 307, NBR 12.188 entre outras, para atender as necessidades do Hospital Regional de Cacoal (HRC), conforme Documento de Oficialização de Demanda n.º 2/2025/HRC-SGM (0056295036).</t>
-  </si>
-  <si>
-    <t>Contratação emergencial de empresa especializada na Prestação de Serviços de Engenharia Clínica, Incluindo Serviço de Gerenciamento de Equipamentos Manutenção Corretiva, Preventiva, Preditiva e Calibração dos Equipamentos com Reposição de Peças e Acessórios, visando atender às necessidades do Hospital Infantil Cosme e Damião - HICD (139 leitos), de forma contínua, conforme a Lei Federal 14.133/2021.</t>
-  </si>
-  <si>
-    <t>0036.007254/2025-16</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada em prestação de serviços de manutenção preventiva e corretiva, de forma contínua, com fornecimento e reposição de peças, acessórios e componentes eletrônicos do Sistema de Climatização do (HICD), incluindo de expansão indireta CHILLER, conforme projeto O.S 1430 (0033753209), com capacidade de 162 TR e Centrais de Ar Condicionados instaladas nos setores que não contemplam o sistema de refrigeração chiller, para atender as necessidade do Hospital Infantil Cosme e Damião (HICD), por um período de 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>0036.059843/2024-91</t>
-  </si>
-  <si>
-    <t>Contratação de Empresa prestação de serviços de Manutenção Preventiva e Corretiva, com fornecimento e reposição de peças, acessórios e componentes eletrônicos do sistema climatização de expansão direta tipo VRF de 950 HP da marca Mitsubishi e demais equipamentos complementares e substitutos do sistema de climatização (VRF) de conforto térmico, de forma contínua, para atender ao Hospital Regional de Cacoal - HRC, por um período de 01 (um) ano, podendo ser prorrogado conforme previsto nos Art. 106 e 107 da lei nº 14.133, conforme Documento de Oficialização de Demanda nº 6/2025/COHREC-NEMP (0057374682).</t>
-  </si>
-  <si>
-    <t>0036.004257/2025-90</t>
-  </si>
-  <si>
-    <t>Contratação de Empresa para presente instrumento é a prestação de serviços de translado terrestre de corpos, com assistência 24 (vinte e quatro) horas, a fim de atender os óbitos ocorridos no Hospital e Pronto Socorro João Paulo II-HPSJPII, Assistência Médica Intensiva-AMI 24h e Centro de Medicina Tropical de Rondônia-CEMETRON, por um período de 01 (um) ano, podendo ser prorrogado conforme previsto nos Art. 106 e 107 da lei n.º 14.133, conforme Documento de Oficialização de Demanda n.º 2/2025/CEMETRON-ASTEC, n.º 3/2025/AMI-COORD (0057366910, 0057594289).</t>
-  </si>
-  <si>
-    <t>Dispensa</t>
-  </si>
-  <si>
-    <t>0036.003493/2025-99</t>
-  </si>
-  <si>
-    <t>Contratação de Empresa Especializada em Prestação de Serviços de Limpeza, Conservação, Higienização e Desinfecção com Fornecimento de Materiais e Equipamentos nas dependências do prédio onde funciona a III Gerência Regional de Saúde - Vilhena (GRS3), pelo período de 5 (cinco) anos de forma contínua.</t>
-  </si>
-  <si>
-    <t>0020.002635/2025-70</t>
-  </si>
-  <si>
-    <t>Contratação de empresa objetivando a participação de servidores no 1° Congresso Nacional de Contratações e Convênios na Saúde, de forma remota, nos dias 09, 10 e 11 de Abril de 2025, conforme Documento de Oficialização de Demanda nº 1/2025/PGE-SESAU (0057771461).</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada em Locação de Módulo/Central de Compressores de Ar Medicinal, incluído providências para instalação completa dos sistemas respectivos, com construção civil, elétrica, mecânica e hidráulica, bem como outros insumos necessários para seu devido funcionamento, considerando na prestação do serviço a montagem e manutenção preventiva e corretiva dos equipamentos de acordo com os padrões e normas técnicas atualizadas, como RDC nº 50, RDC nº 307, NBR 12.188 entre outras, para atender as necessidades do Hospital Regional de Cacoal (HRC).</t>
-  </si>
-  <si>
-    <t>0036.013189/2025-50</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada em Serviços de Engenharia Clínica, Incluindo Serviço de Gerenciamento de Equipamentos Manutenção Corretiva, Preventiva, Preditiva e Calibração dos Equipamentos com Reposição de Peças e Acessórios, visando atender às necessidades do Hospital Regional de Cacoal - HRC, Hospital de Urgência e Emergência Regional de Cacoal - HEURO e Hospital Regional de Extrema - HRE, por um período de 01 (um) ano, podendo ser prorrogado conforme previsto nos Art. 106 e 107 da lei nº 14.133, conforme Documento de Oficialização de Demanda nº 251/2024/SESAU-GECOMP (0052163179).</t>
-  </si>
-  <si>
-    <t>0049.006695/2023-81</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada na prestação de serviços de manutenção preventiva e corretiva, com reposição integral de peças do Sistema de Tratamento de Água por osmose reversa passo simples para hemodiálise, na Central de Hemodiálise do Hospital de Base Dr. Ary Pinheiro - HBAP, com capacidade de abastecimento de até 15 máquinas de hemodiálise, por um período de 12 meses.</t>
-  </si>
-  <si>
-    <t>0036.103898/2022-83</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada na prestação de serviços de Limpeza, Desobstrução do Sistema de Tratamento de Esgoto (Tanque Séptico, Filtro Anaeróbio e Sumidouro), Caixas de Esgoto, Caixas de Gordura e Tubulações de Esgoto, bem como Limpeza e Desinfecção de Caixas D’água, de forma contínua, por um período de 12 (doze) meses</t>
-  </si>
-  <si>
-    <t>0036.042664/2024-14</t>
-  </si>
-  <si>
-    <t>Locação do imóvel localizado - Coordenadoria Estadual de Nutrição Enteral - CENE, Coordenadoria de Gestão e Assistência Farmacêutica - CGAF, atualmente vigente.</t>
-  </si>
-  <si>
-    <t>0049.010601/2024-50</t>
-  </si>
-  <si>
-    <t>INEXIGIBILIDADE - Contratação de empresa especializada em manutenção corretiva com fornecimento de peças do equipamento Autoclave de peróxido de hidrogênio BAUMMER - HBAP</t>
-  </si>
-  <si>
-    <t>Inexigibilidade</t>
-  </si>
-  <si>
-    <t>0036.033145/2024-65</t>
-  </si>
-  <si>
-    <t>Contratação de Empresa Especializada para a Prestação de Serviços de Higienização e Limpeza Hospitalar e assemelhadas, Laboratorial e Ambulatorial - Higienização, Conservação, Desinfecção de Superfícies e Mobiliários e Recolhimento dos Resíduos do Grupo “D” para atuar de forma contínua no Laboratório de Fronteira - LAFRON, conforme Documento de Oficialização de Demanda nº 2/2024/LACEN-NLAFRON (0052710793).</t>
-  </si>
-  <si>
-    <t>0053.336440/2021-10</t>
-  </si>
-  <si>
-    <t>Serviços de limpeza de poços e manutenção preventiva e corretiva das bombas, para atendimento CEMETRON</t>
-  </si>
-  <si>
-    <t>0036.023187/2024-98</t>
-  </si>
-  <si>
-    <t>Registro de Preço para futura e eventual contratação de empresa especializada em serviço de nuvem na modalidade SaaS de uso de suíte de plataforma de colaboração, associada aos serviços de colaboração e produtividade de e-mail, agendas compartilhadas, ferramenta de videoconferência, pacote de Software de Escritório e Armazenamento, com o objetivo de atender as Coordenadorias que compõem esta Secretaria de Estado da Saúde, pelo período de 1 (um) ano, podendo ser prorrogado, por igual período, conforme previsto no art. 84º da Lei 14.133, de 1° de Abril e 2021.</t>
-  </si>
-  <si>
-    <t>0036.077686/2022-33</t>
-  </si>
-  <si>
-    <t>Registro de Preços para futura e eventual contratação de empresa especializada na confecção de crachás, visando atender as necessidades das Unidades da Secretaria de Estado da Saúde de Rondônia SESAU/RO por um período de 12 meses.</t>
-  </si>
-  <si>
-    <t>0036.006146/2025-18</t>
-  </si>
-  <si>
-    <t>Emergencial - Manutenção preventiva e corretiva de Grupo gerador HRC</t>
-  </si>
-  <si>
-    <t>Emergencial</t>
-  </si>
-  <si>
-    <t>Licitatório - coleta interna e externa, transporte, tratamento (incineração ou autoclavagem e incineração e destinação final dos resíduos de serviços de saúde RSS (grupos A,B,E e eventualmente C) HBAP, HICD, CEMETRON, POC, HRB, HEPSJPII, AMI, LACEN, LEPAC, HEURO, HRC e HRSFG.</t>
-  </si>
-  <si>
-    <t>0036.007322/2023-77</t>
-  </si>
-  <si>
-    <t>sondagem para fabricação e Fornecimento de Reservatórios de água do Hospital de Urgência e Emergência Regional de Cacoal - HEURO</t>
-  </si>
-  <si>
-    <t>Lavanderia Hospitalar com Fornecimento de Enxoval, a fim de atender às necessidades da Secretaria de Estado de Saúde de Rondônia - SESAU</t>
-  </si>
-  <si>
-    <t>0036.024208/2023-10</t>
-  </si>
-  <si>
-    <t>Contratação de empresa de serviços de soluções e tecnologia, visando modernização dos serviços de atenção à saúde pública, a fim de atender às necessidades da Secretaria de Estado da Saúde - SESAU, contemplando 25 (vinte e cinco) Unidades do estado de Rondônia, pelo período de 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>0036.106428/2022-71</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada em prestação de serviços de manutenção preventiva e corretiva, de forma contínua, com fornecimento e reposição de peças, acessórios e componentes eletrônicos do Sistema de Climatização do HICD, incluindo de expansão indireta CHILLER, conforme projeto O.S 1430 (0033753209), com capacidade de 162 TR e Centrais de Ar Condicionados instaladas nos setores que não contemplam o sistema de refrigeração chiller, para atender as necessidade do Hospital Infantil Cosme e Damião - HICD, por um período de 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>0036.008314/2024-29</t>
-  </si>
-  <si>
-    <t>Contratação de  serviços dos Correios para a Operação de Logística de Suprimentos In House conforme disponibiliza a NLLC (Inciso IX, art. 75 da Lei 14.133/21) para o Setor de Controle de Estoque, Armazenamento e Distribuição de Suprimentos desta Setorial de Produtos Médicos da SESAU, por um período mínimo de 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>Contratação de Empresa Especializada na Prestação de Serviço de Transporte Inter-Hospitalar de Pacientes, com disponibilização de Veículo/Ambulância de Suporte Avançado TIPO ”D” (UTI Móvel) e Suporte Básico TIPO "B", com mão de obra especializada, para atender as necessidades do Hospital Regional de Buritis - HRB, Hospital de Urgência e Emergência Regional de Cacoal - HEURO, Hospital Regional de Cacoal (HRC), Centro de Medicina Tropical - CEMETRON, Hospital e Pronto Socorro João Paulo II - HEPSJP/II, por um período de 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>0036.006073/2024-83</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada em prestação de serviços de vigilância/segurança patrimonial ostensiva e armada/desarmada, visando atender a I Gerência Regional de Saúde de Vilhena, II Gerência Regional de Saúde de Ariquemes, III Gerência Regional de Saúde de Rolim de Moura, e o IV Hospital Regional de São Francisco do Guaporé - HRSFG, no âmbito da Secretaria de Estado da Saúde de Rondônia (SESAU/RO), de forma contínua, por um período de 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>0036.002598/2024-40</t>
-  </si>
-  <si>
-    <t>Registro de Preços para futura e eventual aquisição de materiais periféricos de informática, com a finalidade de atender as necessidades desta Secretaria de Estado da Saúde.</t>
-  </si>
-  <si>
-    <t>0036.031949/2024-20</t>
-  </si>
-  <si>
-    <t>Aquisição e Instalação de Unidades de Tratamento de Ar - UTA´s das salas cirúrgicas para atender o Hospital de Urgência e Emergência Regional de Cacoal - HEURO, conforme Documento de Oficialização de Demanda nº 48/2024/HEURO-ASGAB (0050389844)</t>
-  </si>
-  <si>
-    <t>0036.003735/2024-63</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada na prestação de serviços de vigilância/segurança patrimonial ostensiva e armada/desarmada, para atender as unidades administrativas da I Gerência Regional de Saúde de Ji-Paraná e II Gerência Regional de Saúde de Cacoal, vinculadas à Secretaria de Estado da Saúde, referente aos Lotes I e II</t>
-  </si>
-  <si>
-    <t>0036.012675/2025-51</t>
-  </si>
-  <si>
-    <t>Contratação Emergencial de Empresa Especializada na Prestação de Serviço de Transporte Inter-Hospitalar de Pacientes, com disponibilização de Veículo/Ambulância de Suporte Avançado TIPO ”D” (UTI Móvel) e Suporte Básico TIPO "B", com mão de obra especializada, para atender as necessidades do Hospital Regional São Francisco do Guaporé-HRSF, Policlínica Oswaldo Cruz-POC, Hospital Regional de Buritis-HRB, Hospital de Urgência e Emergência Regional de Cacoal-HEURO, Hospital Regional de Cacoal-HRC, Centro de Medicina Tropical-CEMETRON, Hospital e Pronto Socorro João Paulo II-JPII, Hospital de Retaguarda de Rondônia-HRRO; Centro de Medicina Intensiva​ - AMI; Hospital Regional de Extrema - HRE e Serviço Assistencial Multidisciplinar e Domiciliar-SAMD, pelo período de 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>0036.517278/2021-47</t>
-  </si>
-  <si>
-    <t>Manutenção Prev. e Corretiva Equipamentos da Lavanderia - Hospital de Base Dr. Ary Pinheiro - HB e Hospital Regional de Cacoal - HRC</t>
-  </si>
-  <si>
-    <t>0059.000422/2023-12</t>
-  </si>
-  <si>
-    <t>Manutenção Prev. e Corretiva da Estação de Tratamento de Esgoto - ETE - Hospital Regional de Extrema - HRE</t>
-  </si>
-  <si>
-    <t>Registro de Preços para futura e eventual aquisição de equipamentos de informática tendo como finalidade atender as necessidades das Unidades de Saúde da Secretária de Estado da Saúde - SESAU/RO, por um período de 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>Serviços de fornecimento de alimentação e nutrição hospitalar padronizada</t>
-  </si>
-  <si>
-    <t>0036.013967/2024-20</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada na Prestação de Serviço de Lavanderia Hospitalar Interna, com disponibilização de equipamentos e demais utensílios, materiais de consumo, realização de manutenção preventiva e corretiva com reposição de peças para atender de forma continuada as necessidades do Hospital Regional de Buritis - HRB, por um período de 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>Eng. clinica HB, HRB e CDVJ</t>
-  </si>
-  <si>
-    <t>0036.036977/2024-33</t>
-  </si>
-  <si>
-    <t>Contratação de produtos e serviços por meio de Pacote de Serviços dos CORREIOS</t>
-  </si>
-  <si>
-    <t>0036.037711/2024-16</t>
-  </si>
-  <si>
-    <t>Aquisição de VOIP para atender a CTI.</t>
-  </si>
-  <si>
-    <t>0036.039245/2024-03</t>
-  </si>
-  <si>
-    <t>RP - Serviços de transporte de dados/interconexão (internet), através de cabeamento de fibra óptica e Rede privativa de comunicação. SESAU/CTI</t>
-  </si>
-  <si>
-    <t>0036.036691/2024-58</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada para prestação de serviços de gestão de acervo documental com guarda de documentos, tratamento técnico, Organização e Indexação, de forma contínua, assim como digitalização de documentos com fornecimento de Sistema Informatizado de Gestão Arquivística de Documentos - SIGAD, visando atender a Secretaria de Estado da Saúde - SESAU, por um período de 1 (um) ano, podendo ser prorrogado sucessivamente por igual período, até o limite de 10 (dez) anos, conforme previsto no art. 107 da Lei Federal nº 14.133/21.</t>
-  </si>
-  <si>
-    <t>0036.042679/2024-82</t>
-  </si>
-  <si>
-    <t>Locação de um Imóvel Comercial para instalação da Coordenadoria de Almoxarifado e Patrimônio - CAP</t>
-  </si>
-  <si>
-    <t>0036.274454/2021-41</t>
-  </si>
-  <si>
-    <t>Contratação de Empresa Especializada em Serviços na Área de de manutenção preventiva e corretiva em Condicionadores de Ar, com fornecimento e reposição de peças, acessórios e componentes eletrônicos, para atender as seguintes unidades: Hospital Regional de Extrema - HRE, Hospital Regional de Buritis - HRB, Hospital de Base Dr. Ary Pinheiro - HBAP, Hospital e Pronto Socorro João Paulo II - HEPSJPII, Assistência Médica Intensiva - AMI, Hospital Infantil Cosme e Damião - HICD, Laboratório Central de Saúde Pública - LACEN, Laboratório de Fronteira - LAFRON, Centro de Medicina Tropical de Rondônia - CEMETRON e Policlínica Osvaldo Cruz - POC, Centro de Diálise Ariquemes - CDA, Laboratório Estadual de Patologia e Análise Clínicas - LEPAC Hospital de Urgência e Emergência Regional de Cacoal - HEURO.</t>
-  </si>
-  <si>
-    <t>0036.029876/2024-14</t>
-  </si>
-  <si>
-    <t>Aquisição de um imóvel para a 1° Gerência Regional de Saúde de Ji-Paraná</t>
-  </si>
-  <si>
-    <t>0036.007047/2025-53</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada em Locação de Módulo/Central de Compressores de Ar Medicinal, incluído providências para instalação completa dos sistemas respectivos, com construção civil, elétrica, mecânica e hidráulica, bem como outros insumos necessários para seu devido funcionamento, considerando na prestação do serviço a montagem e manutenção preventiva e corretiva dos equipamentos de acordo com os padrões e normas técnicas atualizadas, como RDC nº 50, RDC nº 307, NBR 12.188 entre outras, para atender as necessidades do Hospital Regional de Cacoal (HRC), em caráter emergencial, pelo período até 01 (um) ano ou até a conclusão do processo nº 0036.000311/2025-28</t>
-  </si>
-  <si>
-    <t>0036.004517/2025-27</t>
-  </si>
-  <si>
-    <t>Contratação de empresa para prestação de serviços de Manutenção Preventiva e Corretiva em Condicionadores de Ar, com fornecimento e reposição de peças, acessórios e componentes eletrônicos de Sistema de expansão direta (Split), de forma emergencial, por um período de até um (01) ano ou até a conclusão do processo licitatório n° 0036.274454/2021-41, a fim de atender as necessidades do Hospital de Urgência e Emergência Regional de Cacoal - HEURO, Hospital Regional de Buritis - HRB, Hospital e Pronto Socorro João Paulo II - HEPSJPII e Assistência Médica Intensiva - AMI, Centro de Diálise Ariquemes - CDA, Policlínica Osvaldo Cruz - POC, Centro de Medicina Tropical de Rondônia - CEMETRON e Hospital Regional de Extrema - HRE</t>
-  </si>
-  <si>
-    <t>0036.052658/2023-94</t>
-  </si>
-  <si>
-    <t>Locação de Imóvel, visando atender as necessidades da Gerência de Regulação Estadual do SUS (CAIS-GERREG) em Coordenadoria de Regulação de Acesso ao Serviço de Saúde (SESAU-CREG), localizado no Município de Porto Velho/RO.</t>
-  </si>
-  <si>
-    <t>0036.011653/2025-73</t>
-  </si>
-  <si>
-    <t>Contratação de empresa objetivando a participação dos servidores desta Secretaria de Estado da Saúde no II Fórum Concessões e PPPs em Infraestrutura Social, a realizar-se no dia 02 de abril de 2025, na cidade de São Paulo-SP.</t>
-  </si>
-  <si>
-    <t>0036.008982/2025-37</t>
-  </si>
-  <si>
-    <t>Contratação de empresa objetivando a participação dos servidores desta Secretaria de Estado da Saúde no curso híbrido em emendas parlamentares, de forma presencial, nos dias 19, 20 a 21 de março de 2025 na cidade de Porto Velho/RO.</t>
-  </si>
-  <si>
-    <t>0036.013191/2025-29</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada na prestação de serviço de engenharia clínica, incluindo serviço de gerenciamento de equipamentos manutenção corretiva, preventiva, preditiva e calibração dos equipamentos com reposição de peças e acessórios, para atender as necessidades do Hospital Regional de Cacoal - HRC, Hospital de Urgência e Emergência de Cacoal - HEURO e Hospital Regional de São Francisco do Guaporé - HRSFG, de forma emergencial por um período de 1 (um) ano conforme a Lei Federal 14.133/2021, ou até a finalização do processo licitatório 0036.013189/2025-50.</t>
-  </si>
-  <si>
-    <t>0036.010551/2025-31</t>
-  </si>
-  <si>
-    <t>Contratação de Empresa Especializada na Prestação de Serviços de manutenção preventiva e corretiva com fornecimento de peças, executada de forma contínua nos equipamentos da Lavanderia Central do Hospital de Base Dr. Ary Pinheiro - HB e Hospital Regional de Cacoal - HRC, de forma emergencial, por um período de até 1 (um) ano, ou até a finalização do processo licitatório nº 0036.517278/2021-47, conforme Documento de Oficialização de Demanda nº 2/2025/COHREC-NLAV (0058030036) e Documento de Oficialização de Demanda nº 2/2025/HB-NLAV (0058231441).</t>
-  </si>
-  <si>
-    <t>0036.014723/2025-45</t>
-  </si>
-  <si>
-    <t>Contratação de empresa objetivando a participação de 07 (sete) servidores desta Secretaria Estadual de Saúde de Rondônia no 6º Congresso Brasileiro de Compras Públicas, de forma presencial nos dias 25 a 28 de agosto de 2025, em Foz do Iguaçu/PR.</t>
-  </si>
-  <si>
-    <t>0036.037359/2024-19</t>
-  </si>
-  <si>
-    <t>Contratação de empresa(s) especializada(s) em estudos prévios, serviços técnicos, perfurações e instalação de poços tubulares profundos, com a finalidade de atender ao abastecimento público de água potável nas unidades de saúde vinculadas à SESAU.</t>
-  </si>
-  <si>
-    <t>0036.036175/2024-23</t>
-  </si>
-  <si>
-    <t>Registro de preço para eventual contratação de serviços comuns de engenharia e insumos para manutenção predial das unidades de saúde e prédios sob a tutela da Secretaria de Estado da Saúde de Rôndonia (SESAU-RO), conforme especificações técnicas estabelecidas no Sistema Nacional de Pesquisa de Custos e Índices da Construção Civil(SINAPI).</t>
-  </si>
-  <si>
-    <t>0036.369652/2020-19</t>
-  </si>
-  <si>
-    <t>Contratação de Empresa Especializada em Serviços de manutenção preventiva e corretiva em Subestação Abaixadora e Grupos Geradores, com fornecimento de quaisquer componentes e/ou peças novas e originais, para atender o Hospital de Base Dr. Ary Pinheiro - HBAP, de forma contínua, por um período de 60 (sessenta) meses, conforme Art. 106 da Lei Federal nº 14.133 de 1° de abril de 2021.</t>
-  </si>
-  <si>
-    <t>0053.002493/2024-82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contratação de empresa especializada na prestação de serviços de vigilância e segurança patrimonial ostensiva (armada e desarmada). </t>
-  </si>
-  <si>
-    <t>0036.028242/2024-36</t>
-  </si>
-  <si>
-    <t>Registro de Preços para contratação de empresa para fornecimento, sob demanda, de solução de segurança para proteção de e-mail, Endpoint e proteção contra ataques avançados, incluindo instalação, configuração, repasse de conhecimento, suporte técnico e garantia, para atender às necessidades da Secretaria de Estado da Saúde de Rondônia, pelo período de 12 meses</t>
-  </si>
-  <si>
-    <t>0036.005756/2024-13</t>
-  </si>
-  <si>
-    <t>Registro de Preço para aquisição de servidor de Hiperconvergência - CTI</t>
-  </si>
-  <si>
-    <t>0036.001625/2024-67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contratação de empresa especializada para prestação de serviços de coleta externa, transporte e destinação final dos resíduos sólidos (grupo D) </t>
-  </si>
-  <si>
-    <t>0036.057526/2023-59</t>
-  </si>
-  <si>
-    <t>SRP - Aquisição de itens de hotelaria hospitalar</t>
-  </si>
-  <si>
-    <t>Registro de Preço para futura e eventual contratação de empresa de serviços de soluções e tecnologia, visando modernização dos serviços de atenção à saúde pública</t>
-  </si>
-  <si>
-    <t>0036.006890/2023-51</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada em construção e reforma para realização de revitalização do bloco berçário do Hospital de Base Dr. Ary Pinheiro - HBAP.</t>
-  </si>
-  <si>
-    <t>0036.060058/2022-19</t>
-  </si>
-  <si>
-    <t>REFORMA DA COBERTURA DO ESTACIONAMENTO DE AMBULÂNCIAS DO HRC CACOAL</t>
-  </si>
-  <si>
-    <t>0036.018613/2020-48</t>
-  </si>
-  <si>
-    <t>Contratação de empresa especializada em serviços de manutenção por chamado, com fornecimento de peças, de forma contínua, aos equipamentos de empilhadeira, empilhadeira elétrica, empilhadeira manual, carrinho de carga horizontal, carrinho de carga vertical, carrinhos, paleteira e transpaleteira</t>
-  </si>
-  <si>
-    <t>0036.093613/2022-99</t>
-  </si>
-  <si>
-    <t>Contratação de Empresa Especializada para realização de CONTROLE E MONITORAMENTO DE ÁGUA POTÁVEL, COM ANÁLISE PERIÓDICA DAS ÁGUAS, LIMPEZA E DESINFECÇÃO do Hospital de Emergência e Pronto Socorro João Paulo II - HEPSJP II, AMI, HBAP, HICD HRE e COHREC desta Secretaria de Estado da Saúde de Rondônia – SESAU/RO, por um período de 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locação de imóvel comercial para instalações da Coordenação Estadual de Nutrição Enteral - CENE, conforme requisitos mínimos exigidos, afim de atender a Secretaria Estado de Saúde de Rondônia - SESAU/RO, por um período de 12 (doze) meses, com possibilidade de prorrogação. </t>
-  </si>
-  <si>
-    <t>0036.494502/2021-15</t>
-  </si>
-  <si>
-    <t>Contratação de Empresa Especializada na Prestação de Serviços de Coleta Interna e Externa, Recolhimento, Transporte, Tratamento e Destinação Final dos Resíduos de Serviços de Saúde – RSS (Grupos A, B, E e eventualmente C), de forma contínua, visando atender as Unidades da SESAU, pelo período de 12 (doze) meses.</t>
   </si>
   <si>
     <t>Registro de Preços para a Contratação de Empresa Especializada na Prestação de Serviços de festividades/homenagens, visando atender as necessidades da Secretaria do Estado da Saúde - SESAU/RO.</t>
@@ -558,6 +534,9 @@
 </t>
   </si>
   <si>
+    <t>0036.006969/2025-43</t>
+  </si>
+  <si>
     <t>Contratação de empresa especializada na prestação de serviços contínuos de recepção, com emprego de mão-de-obra qualificada e habilitada, bem como fornecimento dos materiais necessários à execução do serviço, visando atender ao Hospital Infantil Cosme e Damião, pelo período de 12 (doze) meses.</t>
   </si>
   <si>
@@ -582,7 +561,7 @@
     <t>0036.058703/2024-03</t>
   </si>
   <si>
-    <t xml:space="preserve"> Inexigibilidade - Contratação de empresa especializada em manutenção preventiva e corretiva com fornecimento de peças, executada de forma contínua em Ventiladores Pulmonares da marca MAGNAMED, para atender as necessidades Hospital Regional de Cacoal - HRC e Hospital Infantil Cosme e Damião-HICD/RO.</t>
+    <t>Inexigibilidade - Contratação de empresa especializada em manutenção preventiva e corretiva com fornecimento de peças, executada de forma contínua em Ventiladores Pulmonares da marca MAGNAMED, para atender as necessidades Hospital Regional de Cacoal - HRC e Hospital Infantil Cosme e Damião-HICD/RO.</t>
   </si>
   <si>
     <t>0063.002259/2023-55</t>
@@ -630,7 +609,7 @@
     <t>0036.024410/2024-14</t>
   </si>
   <si>
-    <t>Contratação de empresa especializada na prestação de serviços de Construção da base do reservatório em concreto armado (sobre o solo); fornecimento e instalação de cisterna pré-fabricada com capacidade de 10.000 litros, tipo Tanque, sobre a base (não aterrado), com extravasor, tubos, conexões, entrada e saída de água; conjunto motobomba para recalque tipo centrífuga de 1 CV para comprimento máximo de 25 metros; instalações de quadro elétrico com comprimento máximo de 15 metros, cabos elétricos, disjuntor e automação,  conforme Decreto nº 29.252 de 04 de julho de 2024, pelo período de até 1 (um) ano.</t>
+    <t>Contratação de empresa especializada na prestação de serviços de Construção da base do reservatório em concreto armado (sobre o solo); fornecimento e instalação de cisterna pré-fabricada com capacidade de 10.000 litros, tipo Tanque, sobre a base (não aterrado), com extravasor, tubos, conexões, entrada e saída de água; conjunto motobomba para recalque tipo centrífuga de 1 CV para comprimento máximo de 25 metros; instalações de quadro elétrico com comprimento máximo de 15 metros, cabos elétricos, disjuntor e automação, conforme Decreto nº 29.252 de 04 de julho de 2024, pelo período de até 1 (um) ano.</t>
   </si>
   <si>
     <t>0036.018638/2024-75</t>
@@ -645,6 +624,9 @@
     <t>Contratação de empresa especializada na prestação de Serviços de Manutenção Preventiva e Corretiva em Grupo Gerador, com fornecimento de quaisquer componentes e/ou troca de peças novas e originais, de forma contínua para atender ao Hospital Regional de Cacoal - HRC e Hospital de Urgencia e Emergência Regional de Cacoal - HEURO, por um período de 5 (cinco) anos, nos moldes do Art. 106º da Lei Federal n.º 14.133 de 1º Abril de 2021.</t>
   </si>
   <si>
+    <t>0036.017639/2024-01</t>
+  </si>
+  <si>
     <t>Contratação de empresa especializada na prestação de serviços de desinsetização; desratização, descupinização e desalojamento de pombos e morcegos, como também o combate aos mosquitos e larvas em áreas internas e externas nas dependências da Coordenadoria de Gestão e Assistência Farmacêutica - CGAF, Coordenadoria Nutrição Enteral - CENE, Conselho Estadual de Saúde - CES, Comissão Intergestores Bipartite – CIB, Centro de Atenção Psicossocial - CAPS, Coordenadoria de Almoxarifado e Patrimônio - CAP, de forma contínua, por um período de 60 (sessenta) meses.</t>
   </si>
   <si>
@@ -654,6 +636,9 @@
     <t>Contratação de empresa especializada em serviços de Controle de Vetores e Pragas Urbanas, englobando: desinsetização, desratização, descupinização e desalojamento de pombos e morcegos, bem como o combate a mosquitos, lavras e carrapatos, para atender as necessidades das unidades pertencentes a esta Secretaria de Estado da Saúde - SESAU/RO, por um período de 5 (cinco) anos.</t>
   </si>
   <si>
+    <t>0036.033164/2024-91</t>
+  </si>
+  <si>
     <t>Contratação de Empresa Especializada na prestação de Serviços de Engenharia Clínica, Incluindo Serviço de Gerenciamento de Equipamentos, Manutenção Corretiva, Preventiva, Preditiva e Calibração dos Equipamentos com Reposição de Peças, Acessórios e Insumos para atender ao Hospital Estadual e Pronto Socorro João Paulo II e Assistência Médica Intensiva - AMI, Centro de Dialise Vale do Jamari - CDVJ e Hospital Regional de Extrema HRE.</t>
   </si>
   <si>
@@ -690,7 +675,7 @@
     <t>0036.547611/2021-42</t>
   </si>
   <si>
-    <t xml:space="preserve"> Registro de Preços para futura e eventual aquisição de Rouparia Hospitalar (Enxoval), visando atender as Unidades de Saúde do Hospital Infantil Cosme e Damião - HICD; Hospital Regional São Francisco do Guaporé - HRSFG, Complexo Hospitalar Regional de Cacoal - COHREC, Hospital de Base Doutor Ary Pinheiro - HBAP, Centro de Medicina Tropical do Estado de Rondônia - CEMETRON/ANEXO JBS, Hospital Regional de Buritis - HRB, Hospital e Pronto Socorro João Paulo II - JP II, Centro de Diagnóstico por Imagem de Rondônia - CDI; Hospital Regional de Extrema - HRE e Assistência Médica Intensiva - AMI-24h., por um Período de 12 (doze) meses.</t>
+    <t>Registro de Preços para futura e eventual aquisição de Rouparia Hospitalar (Enxoval), visando atender as Unidades de Saúde do Hospital Infantil Cosme e Damião - HICD; Hospital Regional São Francisco do Guaporé - HRSFG, Complexo Hospitalar Regional de Cacoal - COHREC, Hospital de Base Doutor Ary Pinheiro - HBAP, Centro de Medicina Tropical do Estado de Rondônia - CEMETRON/ANEXO JBS, Hospital Regional de Buritis - HRB, Hospital e Pronto Socorro João Paulo II - JP II, Centro de Diagnóstico por Imagem de Rondônia - CDI; Hospital Regional de Extrema - HRE e Assistência Médica Intensiva - AMI-24h., por um Período de 12 (doze) meses.</t>
   </si>
   <si>
     <t>0036.061224/2024-66</t>
@@ -717,6 +702,9 @@
     <t>Contratação de manutenção corretiva dos equipamentos Arco Cirúrgicos da marca VMI disponíveis na unidade Hospital de Base Dr. Ary Pinheiro</t>
   </si>
   <si>
+    <t>Licitatório SRP</t>
+  </si>
+  <si>
     <t>Contratação, por Registro de Preço, de empresa(s) especializada(s) na prestação de serviços de Estudo Prévio/Análise, Adequação, Manutenção, Limpeza e Desinfecção em poços tubulares para atender às necessidades das unidades Laboratório Central de Saúde Pública - LACEN, Centro de Reabilitação de Rondônia - CERO, Assistência Médica Intensiva - AMI, Centro de Medicina Tropical de Rondônia - CEMETRON, Hospital Retaguarda de Rondônia - HRRO, Hospital Regional Cacoal - HRC, Hospital São Francisco do Guaporé - HRSFG, Hospital Regional de Extrema - HRE e Laboratório de Fronteira de Rondônia - LAFRON, por um período de 1 (um) ano, nos moldes da Lei Federal n.º 14.133 de 1º Abril de 2021.</t>
   </si>
   <si>
@@ -726,7 +714,7 @@
     <t>Contratação de empresa especializada na prestação de serviços médicos complementares especializados na área de Pediatria e Neonatologia, com a finalidade de atender a demanda de usuários da saúde pública recém-nascidos do setor de neonatologia nas dependências do Hospital de Base Dr. Ary Pinheiro, por um período de 12 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">0036.003868/2024-30 </t>
+    <t>0036.003868/2024-30</t>
   </si>
   <si>
     <t>Contratação de empresa especializada em serviços médicos de anestesiologia, visando atender todas as unidades estaduais</t>
@@ -735,7 +723,7 @@
     <t>0049.013605/2023-17</t>
   </si>
   <si>
-    <t xml:space="preserve">Contratação de empresa especializada na prestação de serviços médicos complementares especializados na área de nefrologia, para atender as demandas dos usuários da saúde pública nas dependências do Hospital de Base Dr. Ary Pinheiro (HBAP), Assistência Médica Intensiva (AMI), e Centro de Medicina Tropical de Rondônia (CEMETRON), pertencentes a Secretaria de Estado da Saúde - SESAU, de forma contínua, pelo período de 12 meses. </t>
+    <t>Contratação de empresa especializada na prestação de serviços médicos complementares especializados na área de nefrologia, para atender as demandas dos usuários da saúde pública nas dependências do Hospital de Base Dr. Ary Pinheiro (HBAP), Assistência Médica Intensiva (AMI), e Centro de Medicina Tropical de Rondônia (CEMETRON), pertencentes a Secretaria de Estado da Saúde - SESAU, de forma contínua, pelo período de 12 meses.</t>
   </si>
   <si>
     <t>0036.005381/2024-91</t>
@@ -759,12 +747,18 @@
     <t>0036.024936/2024-02</t>
   </si>
   <si>
-    <t>Contratação de profissionais médicos para atendimento em Cirurgia Geral, bem como subespecilidades cirúrgicas, quando não disponível no Complexo de Cacoal, nas demandas dos usuários da saúde pública, nas dependências do Hospital de Urgência e Emergência Regional de Cacoal - HEURO, pertencente a Secretaria de Estado da Saúde - SESAU, pelo período de até 12 meses, a partir da primeira assinatura contratual, em conformidade com o disposto no  Art. 107, da Lei 14.133 de 1º de abril de 2021.</t>
+    <t>Contratação de profissionais médicos para atendimento em Cirurgia Geral, bem como subespecilidades cirúrgicas, quando não disponível no Complexo de Cacoal, nas demandas dos usuários da saúde pública, nas dependências do Hospital de Urgência e Emergência Regional de Cacoal - HEURO, pertencente a Secretaria de Estado da Saúde - SESAU, pelo período de até 12 meses, a partir da primeira assinatura contratual, em conformidade com o disposto no Art. 107, da Lei 14.133 de 1º de abril de 2021.</t>
+  </si>
+  <si>
+    <t>0036.042116/2023-11</t>
   </si>
   <si>
     <t>Contratação de empresa especializada em serviços de Neurologia Cirúrgica Hospitalar e Ambulatorial, Neurologia Clínica e Neurologia Pediátrica (atendimento inicial, evolução diária, cirurgias, alta hospitalar e atendimento ambulatorial, Exames complementares, neurofisiologia e neurointervecionismo ), sob sistema de comodato com fornecimento de insumos</t>
   </si>
   <si>
+    <t>0036.037319/2024-69</t>
+  </si>
+  <si>
     <t>Contratação de empresa especializada na prestação de serviços médicos complementares especializados na área de Pediatria e Neonatologia, com a finalidade de atender a demanda de usuários da saúde pública recém-nascidos do setor de neonatologia nas dependências do Hospital Regional de Cacoal (HRC) pelo período de 12 meses</t>
   </si>
   <si>
@@ -792,6 +786,9 @@
     <t>Contratação de fornecimento de insumos laboratoriais, para realização de análise de águas envasadas (água mineral) para consumo humano atendendo o Setor de Produtos e Meio Ambiente do LACEN RO por um período de 12 meses conforme detalhamento do objeto apresentado abaixo.</t>
   </si>
   <si>
+    <t>0046.000720/2024-24</t>
+  </si>
+  <si>
     <t>Contratação de empresa especializada no fornecimento continuado de (Kits/Reagentes) com todo sistema/solução de automação laboratorial em regime de "COMODATO", para realização de exames de biologia molecular (PCR Multiplex) em testagem rápida silmutânea para multialvos ou painéis sindrômicos (vírus, bactérias, fungos, parasitas e genes de resistência), para atender ao Laboratório Central de Saúde Pública do Estado de Rondônia - LACEN/RO, pertencente ao quadro da Secretaria de Estado da Saúde – SESAU/RO, de forma continuada.</t>
   </si>
   <si>
@@ -807,9 +804,15 @@
     <t>Aquisição de insumos para realização de sequenciamento genético de amostras de vírus e bactérias para atender o laboratório de virologia do LACEN/RO.</t>
   </si>
   <si>
+    <t>0036.008654/2025-31</t>
+  </si>
+  <si>
     <t>Contratação de empresa especializada no Fornecimento de Sistema de Automação Laboratorial (equipamentos) e todos os materiais, reagentes e acessórios necessários à realização de TESTES BIOQUIMICA, com vistas no atendimento às necessidades da Secretaria de Estado da Saúde - SESAU.</t>
   </si>
   <si>
+    <t>0036.008711/2025-81</t>
+  </si>
+  <si>
     <t>Contratação de Empresa Especializada no Fornecimento de Sistemas de Automação Laboratorial (equipamentos) e todos os materiais, reagentes e acessórios necessários à realização de TESTES de Gasometria, com vistas no atendimento às necessidades das unidades hospitalares, da Secretaria de Estado da Saúde - SESAU.</t>
   </si>
   <si>
@@ -858,7 +861,7 @@
     <t>0036.002097/2025-44</t>
   </si>
   <si>
-    <t>Registro de Preço para a futura e eventual aquisição de CABOS E ACESSÓRIOS PARA EQUIPAMENTOS MÉDICO-HOSPITALARES,  a fim de atender as unidades de saúde vinculadas à Secretaria de Estado da Saúde de Rondônia"</t>
+    <t>Registro de Preço para a futura e eventual aquisição de CABOS E ACESSÓRIOS PARA EQUIPAMENTOS MÉDICO-HOSPITALARES, a fim de atender as unidades de saúde vinculadas à Secretaria de Estado da Saúde de Rondônia"</t>
   </si>
   <si>
     <t>0036.002590/2025-64</t>
@@ -918,13 +921,13 @@
     <t>0036.077824/2022-84</t>
   </si>
   <si>
-    <t>Registro de Preços para futura e eventual Aquisição de Materiais de Costura, visando atender as necessidades do Hospital Regional São Francisco do Guaporé - HRSF,  Centro de Diálise de Ariquemes - CDA, Hospital e Pronto Socorro João Paulo II - JP II, Centro de Medicina Tropical do Estado de Rondônia - CEMETRON, Policlínica Oswaldo Cruz - POC, Hospital Regional de Buritis - HRB e Hospital Infantil Cosme e Damião - HICD, pertencentes a Secretaria de Estado da Saúde - SESAU, por um período de 12 (doze) meses.</t>
+    <t>Registro de Preços para futura e eventual Aquisição de Materiais de Costura, visando atender as necessidades do Hospital Regional São Francisco do Guaporé - HRSF, Centro de Diálise de Ariquemes - CDA, Hospital e Pronto Socorro João Paulo II - JP II, Centro de Medicina Tropical do Estado de Rondônia - CEMETRON, Policlínica Oswaldo Cruz - POC, Hospital Regional de Buritis - HRB e Hospital Infantil Cosme e Damião - HICD, pertencentes a Secretaria de Estado da Saúde - SESAU, por um período de 12 (doze) meses.</t>
   </si>
   <si>
     <t>0036.022401/2024-99</t>
   </si>
   <si>
-    <t>Aquisição de materiais de permanentes para atender as necessidades do  Núcleo de Farmácia Hospitalar e Setores Assistenciais chaves, do Hospital Regional de Cacoal - HRC,  vinculado a Secretária de Estado da Saúde - SESAU/RO.</t>
+    <t>Aquisição de materiais de permanentes para atender as necessidades do Núcleo de Farmácia Hospitalar e Setores Assistenciais chaves, do Hospital Regional de Cacoal - HRC, vinculado a Secretária de Estado da Saúde - SESAU/RO.</t>
   </si>
   <si>
     <t>0036.078020/2022-01</t>
@@ -954,7 +957,7 @@
     <t>0036.024010/2024-17</t>
   </si>
   <si>
-    <t xml:space="preserve">Aquisição de bomba de infusão, incubadora, ventilador mecânico e bolsa EMS para atender a Central de Apoio Aéreo - CAA </t>
+    <t>Aquisição de bomba de infusão, incubadora, ventilador mecânico e bolsa EMS para atender a Central de Apoio Aéreo - CAA</t>
   </si>
   <si>
     <t>0050.014595/2024-71</t>
@@ -990,7 +993,7 @@
     <t>0036.030869/2024-57</t>
   </si>
   <si>
-    <t xml:space="preserve">Aquisição de bens de consumo: UNIFORMES/FARDAMENTO E ACESSÓRIOS DESTINADOS À IDENTIFICAÇÃO E PADRONIZAÇÃO DOS SERVIDORES DOS SETORES DOS ALMOXARIFADOS E DISPENSAÇÃO da Secretaria de Estado da Saúde - SESAU. </t>
+    <t>Aquisição de bens de consumo: UNIFORMES/FARDAMENTO E ACESSÓRIOS DESTINADOS À IDENTIFICAÇÃO E PADRONIZAÇÃO DOS SERVIDORES DOS SETORES DOS ALMOXARIFADOS E DISPENSAÇÃO da Secretaria de Estado da Saúde - SESAU.</t>
   </si>
   <si>
     <t>0036.018964/2024-82</t>
@@ -1032,7 +1035,7 @@
     <t>0066.163526/2019-53</t>
   </si>
   <si>
-    <t xml:space="preserve">Aquisição de Equipamentos Eletrônicos e Mobiliários para Reestruturar a Comissão de Residência Multiprofissional (COREMU) e Comissão de Residência Médica (COREME), conforme versa o plano de Trabalho COHREC - COREME </t>
+    <t>Aquisição de Equipamentos Eletrônicos e Mobiliários para Reestruturar a Comissão de Residência Multiprofissional (COREMU) e Comissão de Residência Médica (COREME), conforme versa o plano de Trabalho COHREC - COREME</t>
   </si>
   <si>
     <t>0036.036470/2024-80</t>
@@ -1044,7 +1047,7 @@
     <t>0049.015211/2023-95</t>
   </si>
   <si>
-    <t>Registro de Preço para futura e eventual aquisição de equipamentos laboratoriais, sendo ( agitador kline, banho maria e outros),  visando atender as unidades de saúde vinculadas à SESAU/RO,  por um período de 1 (um) ano.</t>
+    <t>Registro de Preço para futura e eventual aquisição de equipamentos laboratoriais, sendo ( agitador kline, banho maria e outros), visando atender as unidades de saúde vinculadas à SESAU/RO, por um período de 1 (um) ano.</t>
   </si>
   <si>
     <t>0045.000109/2023-25</t>
@@ -1098,7 +1101,7 @@
     <t>0036.017264/2024-71</t>
   </si>
   <si>
-    <t>Registro de Preço para futura e eventual aquisição centralizada de MATERIAIS GRÁFICOS, visando atender as unidades de saúde vinculadas à SESAU/RO, pelo período de 1 (um) ano, prorrogável por igual período,  das unidades vinculadas à SESAU/RO.</t>
+    <t>Registro de Preço para futura e eventual aquisição centralizada de MATERIAIS GRÁFICOS, visando atender as unidades de saúde vinculadas à SESAU/RO, pelo período de 1 (um) ano, prorrogável por igual período, das unidades vinculadas à SESAU/RO.</t>
   </si>
   <si>
     <t>0049.072425/2022-88</t>
@@ -1317,7 +1320,7 @@
     <t>0036.059400/2024-08</t>
   </si>
   <si>
-    <t>Aquisição de equipamentos de uso laboratorial  necessários à realização de procedimentos Analíticos (exames laboratoriais), para atendimento ao Laboratório Central de Saúde Pública do Estado de Rondônia - LACEN/RO, cujo recurso é proveniente e específico do Programa: NOVO PAC - ESTRUTURAÇÃO DA VIGILÂNCIA LABORATORIAL EM SAÚDE E AMBIENTES E RESPOSTA AS EMERGÊNCIAS EM SAÚDE</t>
+    <t>Aquisição de equipamentos de uso laboratorial necessários à realização de procedimentos Analíticos (exames laboratoriais), para atendimento ao Laboratório Central de Saúde Pública do Estado de Rondônia - LACEN/RO, cujo recurso é proveniente e específico do Programa: NOVO PAC - ESTRUTURAÇÃO DA VIGILÂNCIA LABORATORIAL EM SAÚDE E AMBIENTES E RESPOSTA AS EMERGÊNCIAS EM SAÚDE</t>
   </si>
   <si>
     <t>0036.013084/2025-09</t>
@@ -1329,7 +1332,7 @@
     <t>0036.017426/2025-51</t>
   </si>
   <si>
-    <t>Aquisição de Material de consumo CARGA DE GÁS GLP - P13: Gás Liquefeito de Petróleo - GLP acondicionado em botija de 13 Kg, para atender as demandas  das unidades de Saúde Estaduais da Secretaria de Estado da Saúde - SESAU por um período de 06 (seis) meses</t>
+    <t>Aquisição de Material de consumo CARGA DE GÁS GLP - P13: Gás Liquefeito de Petróleo - GLP acondicionado em botija de 13 Kg, para atender as demandas das unidades de Saúde Estaduais da Secretaria de Estado da Saúde - SESAU por um período de 06 (seis) meses</t>
   </si>
   <si>
     <t>0036.016136/2025-91</t>
@@ -1341,7 +1344,7 @@
     <t>0063.000527/2025-66</t>
   </si>
   <si>
-    <t>Aquisição de aparelho(s) de Monitoramento Ambulatorial da Pressão Arterial (MAPA)  para atender a Policlínica Oswaldo Cruz-POC</t>
+    <t>Aquisição de aparelho(s) de Monitoramento Ambulatorial da Pressão Arterial (MAPA) para atender a Policlínica Oswaldo Cruz-POC</t>
   </si>
   <si>
     <t>0036.018495/2025-82</t>
@@ -1380,6 +1383,9 @@
     <t> GRUPO SÓLIDOS III  </t>
   </si>
   <si>
+    <t>0036.006830/2024-19</t>
+  </si>
+  <si>
     <t>GRANDES VOLUMES</t>
   </si>
   <si>
@@ -1446,10 +1452,13 @@
     <t>0036.033324/2024-01</t>
   </si>
   <si>
+    <t>FORNECIMENTO DE MEDICAMENTOS CONTINUADOS JUDICIALIZADOS</t>
+  </si>
+  <si>
     <t>0036.010756/2025-16</t>
   </si>
   <si>
-    <t xml:space="preserve"> SÓLIDOS I (DESERTOS/FRACASSADOS)</t>
+    <t>SÓLIDOS I (DESERTOS/FRACASSADOS)</t>
   </si>
   <si>
     <t>0036.039016/2024-81</t>
@@ -1462,9 +1471,6 @@
   </si>
   <si>
     <t>PRESERVAÇÃO DE ÓRGÃOS E CÓRNEAS</t>
-  </si>
-  <si>
-    <t>Licitatório SRP</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1515,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1848,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2FF0CA-3C4D-4BFF-9AA5-A0CFD76751B1}">
-  <dimension ref="A1:C249"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C142"/>
+      <selection activeCell="A3" sqref="A3:C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,1553 +1870,1553 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
-        <v>172</v>
+        <v>162</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C85" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C87" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C89" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B97" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B99" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B102" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B105" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C105" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B107" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B108" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>474</v>
+        <v>219</v>
+      </c>
+      <c r="C109" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>65</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>474</v>
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>474</v>
+        <v>51</v>
+      </c>
+      <c r="C111" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B112" t="s">
-        <v>87</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>474</v>
+        <v>53</v>
+      </c>
+      <c r="C112" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B113" t="s">
-        <v>96</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>474</v>
+        <v>75</v>
+      </c>
+      <c r="C113" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>474</v>
+        <v>85</v>
+      </c>
+      <c r="C114" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="B115" t="s">
-        <v>134</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>474</v>
+        <v>97</v>
+      </c>
+      <c r="C115" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>474</v>
+        <v>125</v>
+      </c>
+      <c r="C116" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>474</v>
+        <v>131</v>
+      </c>
+      <c r="C117" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="B118" t="s">
-        <v>147</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>474</v>
+        <v>133</v>
+      </c>
+      <c r="C118" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B119" t="s">
-        <v>159</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>474</v>
+        <v>138</v>
+      </c>
+      <c r="C119" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="B120" t="s">
-        <v>225</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>474</v>
+        <v>151</v>
+      </c>
+      <c r="C120" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="B121" t="s">
-        <v>85</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>474</v>
+        <v>221</v>
+      </c>
+      <c r="C121" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="B122" t="s">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B123" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B124" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B125" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B126" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B127" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B128" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="B129" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="B130" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B131" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C131" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B132" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C132" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B133" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C133" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B134" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C134" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>246</v>
       </c>
       <c r="B135" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C135" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B136" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C136" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B137" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="B138" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>254</v>
       </c>
       <c r="B139" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>256</v>
+      </c>
+      <c r="B140" t="s">
         <v>257</v>
       </c>
-      <c r="B140" t="s">
-        <v>258</v>
-      </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>258</v>
+      </c>
+      <c r="B141" t="s">
         <v>259</v>
       </c>
-      <c r="B141" t="s">
-        <v>240</v>
-      </c>
       <c r="C141" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -3416,725 +3424,725 @@
         <v>260</v>
       </c>
       <c r="B142" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="C142" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>261</v>
+      </c>
+      <c r="B143" t="s">
         <v>262</v>
       </c>
-      <c r="B143" t="s">
-        <v>263</v>
-      </c>
       <c r="C143" t="s">
-        <v>264</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>263</v>
+      </c>
+      <c r="B144" t="s">
+        <v>264</v>
+      </c>
+      <c r="C144" t="s">
         <v>265</v>
-      </c>
-      <c r="B144" t="s">
-        <v>266</v>
-      </c>
-      <c r="C144" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>266</v>
+      </c>
+      <c r="B145" t="s">
         <v>267</v>
       </c>
-      <c r="B145" t="s">
-        <v>268</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>474</v>
+      <c r="C145" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>268</v>
+      </c>
+      <c r="B146" t="s">
         <v>269</v>
       </c>
-      <c r="B146" t="s">
-        <v>270</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>474</v>
+      <c r="C146" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>270</v>
+      </c>
+      <c r="B147" t="s">
         <v>271</v>
       </c>
-      <c r="B147" t="s">
-        <v>272</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>474</v>
+      <c r="C147" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>272</v>
+      </c>
+      <c r="B148" t="s">
         <v>273</v>
       </c>
-      <c r="B148" t="s">
-        <v>274</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>474</v>
+      <c r="C148" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" t="s">
         <v>275</v>
       </c>
-      <c r="B149" t="s">
-        <v>276</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>474</v>
+      <c r="C149" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>276</v>
+      </c>
+      <c r="B150" t="s">
         <v>277</v>
       </c>
-      <c r="B150" t="s">
-        <v>278</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>474</v>
+      <c r="C150" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>278</v>
+      </c>
+      <c r="B151" t="s">
         <v>279</v>
       </c>
-      <c r="B151" t="s">
-        <v>280</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>474</v>
+      <c r="C151" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>280</v>
+      </c>
+      <c r="B152" t="s">
         <v>281</v>
       </c>
-      <c r="B152" t="s">
-        <v>282</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>474</v>
+      <c r="C152" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>282</v>
+      </c>
+      <c r="B153" t="s">
         <v>283</v>
       </c>
-      <c r="B153" t="s">
-        <v>284</v>
-      </c>
       <c r="C153" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>284</v>
+      </c>
+      <c r="B154" t="s">
         <v>285</v>
       </c>
-      <c r="B154" t="s">
-        <v>286</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>474</v>
+      <c r="C154" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>286</v>
+      </c>
+      <c r="B155" t="s">
         <v>287</v>
       </c>
-      <c r="B155" t="s">
-        <v>288</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>474</v>
+      <c r="C155" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>288</v>
+      </c>
+      <c r="B156" t="s">
         <v>289</v>
       </c>
-      <c r="B156" t="s">
-        <v>290</v>
-      </c>
       <c r="C156" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>290</v>
+      </c>
+      <c r="B157" t="s">
         <v>291</v>
       </c>
-      <c r="B157" t="s">
-        <v>292</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>474</v>
+      <c r="C157" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>292</v>
+      </c>
+      <c r="B158" t="s">
         <v>293</v>
       </c>
-      <c r="B158" t="s">
-        <v>294</v>
-      </c>
       <c r="C158" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>294</v>
+      </c>
+      <c r="B159" t="s">
         <v>295</v>
       </c>
-      <c r="B159" t="s">
-        <v>296</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>474</v>
+      <c r="C159" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>296</v>
+      </c>
+      <c r="B160" t="s">
         <v>297</v>
       </c>
-      <c r="B160" t="s">
-        <v>298</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>474</v>
+      <c r="C160" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>298</v>
+      </c>
+      <c r="B161" t="s">
         <v>299</v>
       </c>
-      <c r="B161" t="s">
-        <v>300</v>
-      </c>
       <c r="C161" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>300</v>
+      </c>
+      <c r="B162" t="s">
         <v>301</v>
       </c>
-      <c r="B162" t="s">
-        <v>302</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>474</v>
+      <c r="C162" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>302</v>
+      </c>
+      <c r="B163" t="s">
         <v>303</v>
       </c>
-      <c r="B163" t="s">
-        <v>304</v>
-      </c>
       <c r="C163" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>304</v>
+      </c>
+      <c r="B164" t="s">
         <v>305</v>
       </c>
-      <c r="B164" t="s">
-        <v>306</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>474</v>
+      <c r="C164" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>306</v>
+      </c>
+      <c r="B165" t="s">
         <v>307</v>
       </c>
-      <c r="B165" t="s">
-        <v>308</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>474</v>
+      <c r="C165" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>308</v>
+      </c>
+      <c r="B166" t="s">
         <v>309</v>
       </c>
-      <c r="B166" t="s">
-        <v>310</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>474</v>
+      <c r="C166" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>310</v>
+      </c>
+      <c r="B167" t="s">
         <v>311</v>
       </c>
-      <c r="B167" t="s">
-        <v>312</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>474</v>
+      <c r="C167" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>312</v>
+      </c>
+      <c r="B168" t="s">
         <v>313</v>
       </c>
-      <c r="B168" t="s">
-        <v>314</v>
-      </c>
       <c r="C168" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>314</v>
+      </c>
+      <c r="B169" t="s">
         <v>315</v>
       </c>
-      <c r="B169" t="s">
-        <v>316</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>474</v>
+      <c r="C169" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>316</v>
+      </c>
+      <c r="B170" t="s">
         <v>317</v>
       </c>
-      <c r="B170" t="s">
-        <v>318</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>474</v>
+      <c r="C170" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>318</v>
+      </c>
+      <c r="B171" t="s">
         <v>319</v>
       </c>
-      <c r="B171" t="s">
-        <v>320</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>474</v>
+      <c r="C171" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>320</v>
+      </c>
+      <c r="B172" t="s">
         <v>321</v>
       </c>
-      <c r="B172" t="s">
-        <v>322</v>
-      </c>
       <c r="C172" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>322</v>
+      </c>
+      <c r="B173" t="s">
         <v>323</v>
       </c>
-      <c r="B173" t="s">
-        <v>324</v>
-      </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>324</v>
+      </c>
+      <c r="B174" t="s">
         <v>325</v>
       </c>
-      <c r="B174" t="s">
-        <v>326</v>
-      </c>
       <c r="C174" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>326</v>
+      </c>
+      <c r="B175" t="s">
         <v>327</v>
       </c>
-      <c r="B175" t="s">
-        <v>328</v>
-      </c>
       <c r="C175" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>328</v>
+      </c>
+      <c r="B176" t="s">
         <v>329</v>
       </c>
-      <c r="B176" t="s">
-        <v>330</v>
-      </c>
       <c r="C176" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>330</v>
+      </c>
+      <c r="B177" t="s">
         <v>331</v>
       </c>
-      <c r="B177" t="s">
-        <v>332</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>474</v>
+      <c r="C177" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>332</v>
+      </c>
+      <c r="B178" t="s">
         <v>333</v>
       </c>
-      <c r="B178" t="s">
-        <v>334</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>474</v>
+      <c r="C178" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>334</v>
+      </c>
+      <c r="B179" t="s">
         <v>335</v>
       </c>
-      <c r="B179" t="s">
-        <v>336</v>
-      </c>
       <c r="C179" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>336</v>
+      </c>
+      <c r="B180" t="s">
         <v>337</v>
       </c>
-      <c r="B180" t="s">
-        <v>338</v>
-      </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>338</v>
+      </c>
+      <c r="B181" t="s">
         <v>339</v>
       </c>
-      <c r="B181" t="s">
-        <v>340</v>
-      </c>
       <c r="C181" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>340</v>
+      </c>
+      <c r="B182" t="s">
         <v>341</v>
       </c>
-      <c r="B182" t="s">
-        <v>342</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>474</v>
+      <c r="C182" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>342</v>
+      </c>
+      <c r="B183" t="s">
         <v>343</v>
       </c>
-      <c r="B183" t="s">
-        <v>344</v>
-      </c>
       <c r="C183" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>344</v>
+      </c>
+      <c r="B184" t="s">
         <v>345</v>
       </c>
-      <c r="B184" t="s">
-        <v>346</v>
-      </c>
       <c r="C184" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>346</v>
+      </c>
+      <c r="B185" t="s">
         <v>347</v>
       </c>
-      <c r="B185" t="s">
-        <v>348</v>
-      </c>
       <c r="C185" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>348</v>
+      </c>
+      <c r="B186" t="s">
         <v>349</v>
       </c>
-      <c r="B186" t="s">
-        <v>350</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>474</v>
+      <c r="C186" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>350</v>
+      </c>
+      <c r="B187" t="s">
         <v>351</v>
       </c>
-      <c r="B187" t="s">
-        <v>352</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>474</v>
+      <c r="C187" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>352</v>
+      </c>
+      <c r="B188" t="s">
         <v>353</v>
       </c>
-      <c r="B188" t="s">
-        <v>354</v>
-      </c>
       <c r="C188" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>354</v>
+      </c>
+      <c r="B189" t="s">
         <v>355</v>
       </c>
-      <c r="B189" t="s">
-        <v>356</v>
-      </c>
       <c r="C189" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>356</v>
+      </c>
+      <c r="B190" t="s">
         <v>357</v>
       </c>
-      <c r="B190" t="s">
-        <v>358</v>
-      </c>
       <c r="C190" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>358</v>
+      </c>
+      <c r="B191" t="s">
         <v>359</v>
       </c>
-      <c r="B191" t="s">
-        <v>360</v>
-      </c>
       <c r="C191" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>360</v>
+      </c>
+      <c r="B192" t="s">
         <v>361</v>
       </c>
-      <c r="B192" t="s">
-        <v>362</v>
-      </c>
       <c r="C192" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>362</v>
+      </c>
+      <c r="B193" t="s">
         <v>363</v>
       </c>
-      <c r="B193" t="s">
-        <v>364</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>474</v>
+      <c r="C193" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>364</v>
+      </c>
+      <c r="B194" t="s">
         <v>365</v>
       </c>
-      <c r="B194" t="s">
-        <v>366</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>474</v>
+      <c r="C194" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>366</v>
+      </c>
+      <c r="B195" t="s">
         <v>367</v>
       </c>
-      <c r="B195" t="s">
-        <v>368</v>
-      </c>
       <c r="C195" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>368</v>
+      </c>
+      <c r="B196" t="s">
         <v>369</v>
       </c>
-      <c r="B196" t="s">
-        <v>370</v>
-      </c>
       <c r="C196" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>370</v>
+      </c>
+      <c r="B197" t="s">
         <v>371</v>
       </c>
-      <c r="B197" t="s">
-        <v>372</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>474</v>
+      <c r="C197" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>372</v>
+      </c>
+      <c r="B198" t="s">
         <v>373</v>
       </c>
-      <c r="B198" t="s">
-        <v>374</v>
-      </c>
       <c r="C198" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>374</v>
+      </c>
+      <c r="B199" t="s">
         <v>375</v>
       </c>
-      <c r="B199" t="s">
-        <v>376</v>
-      </c>
       <c r="C199" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>376</v>
+      </c>
+      <c r="B200" t="s">
         <v>377</v>
       </c>
-      <c r="B200" t="s">
-        <v>378</v>
-      </c>
       <c r="C200" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>378</v>
+      </c>
+      <c r="B201" t="s">
         <v>379</v>
       </c>
-      <c r="B201" t="s">
-        <v>380</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>474</v>
+      <c r="C201" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>380</v>
+      </c>
+      <c r="B202" t="s">
         <v>381</v>
       </c>
-      <c r="B202" t="s">
-        <v>382</v>
-      </c>
       <c r="C202" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>382</v>
+      </c>
+      <c r="B203" t="s">
         <v>383</v>
       </c>
-      <c r="B203" t="s">
-        <v>384</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>474</v>
+      <c r="C203" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>384</v>
+      </c>
+      <c r="B204" t="s">
         <v>385</v>
       </c>
-      <c r="B204" t="s">
-        <v>386</v>
-      </c>
       <c r="C204" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>386</v>
+      </c>
+      <c r="B205" t="s">
         <v>387</v>
       </c>
-      <c r="B205" t="s">
-        <v>388</v>
-      </c>
       <c r="C205" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>388</v>
+      </c>
+      <c r="B206" t="s">
         <v>389</v>
       </c>
-      <c r="B206" t="s">
-        <v>390</v>
-      </c>
       <c r="C206" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>390</v>
+      </c>
+      <c r="B207" t="s">
         <v>391</v>
       </c>
-      <c r="B207" t="s">
-        <v>390</v>
-      </c>
       <c r="C207" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -4142,307 +4150,307 @@
         <v>392</v>
       </c>
       <c r="B208" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C208" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>393</v>
+      </c>
+      <c r="B209" t="s">
         <v>394</v>
       </c>
-      <c r="B209" t="s">
-        <v>395</v>
-      </c>
       <c r="C209" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>395</v>
+      </c>
+      <c r="B210" t="s">
         <v>396</v>
       </c>
-      <c r="B210" t="s">
-        <v>397</v>
-      </c>
       <c r="C210" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>397</v>
+      </c>
+      <c r="B211" t="s">
         <v>398</v>
       </c>
-      <c r="B211" t="s">
-        <v>399</v>
-      </c>
       <c r="C211" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>399</v>
+      </c>
+      <c r="B212" t="s">
         <v>400</v>
       </c>
-      <c r="B212" t="s">
-        <v>401</v>
-      </c>
       <c r="C212" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>401</v>
+      </c>
+      <c r="B213" t="s">
         <v>402</v>
       </c>
-      <c r="B213" t="s">
-        <v>403</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>474</v>
+      <c r="C213" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>403</v>
+      </c>
+      <c r="B214" t="s">
         <v>404</v>
       </c>
-      <c r="B214" t="s">
-        <v>405</v>
-      </c>
       <c r="C214" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>405</v>
+      </c>
+      <c r="B215" t="s">
         <v>406</v>
       </c>
-      <c r="B215" t="s">
-        <v>407</v>
-      </c>
       <c r="C215" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>407</v>
+      </c>
+      <c r="B216" t="s">
         <v>408</v>
       </c>
-      <c r="B216" t="s">
-        <v>409</v>
-      </c>
       <c r="C216" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>409</v>
+      </c>
+      <c r="B217" t="s">
         <v>410</v>
       </c>
-      <c r="B217" t="s">
-        <v>411</v>
-      </c>
       <c r="C217" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>411</v>
+      </c>
+      <c r="B218" t="s">
         <v>412</v>
       </c>
-      <c r="B218" t="s">
-        <v>413</v>
-      </c>
       <c r="C218" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>413</v>
+      </c>
+      <c r="B219" t="s">
         <v>414</v>
       </c>
-      <c r="B219" t="s">
-        <v>415</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>474</v>
+      <c r="C219" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>415</v>
+      </c>
+      <c r="B220" t="s">
         <v>416</v>
       </c>
-      <c r="B220" t="s">
-        <v>417</v>
-      </c>
       <c r="C220" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>417</v>
+      </c>
+      <c r="B221" t="s">
         <v>418</v>
       </c>
-      <c r="B221" t="s">
-        <v>419</v>
-      </c>
       <c r="C221" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>419</v>
+      </c>
+      <c r="B222" t="s">
         <v>420</v>
       </c>
-      <c r="B222" t="s">
-        <v>421</v>
-      </c>
       <c r="C222" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>421</v>
+      </c>
+      <c r="B223" t="s">
         <v>422</v>
       </c>
-      <c r="B223" t="s">
-        <v>423</v>
-      </c>
       <c r="C223" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>423</v>
+      </c>
+      <c r="B224" t="s">
         <v>424</v>
       </c>
-      <c r="B224" t="s">
-        <v>425</v>
-      </c>
       <c r="C224" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>425</v>
+      </c>
+      <c r="B225" t="s">
         <v>426</v>
       </c>
-      <c r="B225" t="s">
-        <v>427</v>
-      </c>
       <c r="C225" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>427</v>
+      </c>
+      <c r="B226" t="s">
         <v>428</v>
       </c>
-      <c r="B226" t="s">
-        <v>429</v>
-      </c>
       <c r="C226" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>429</v>
+      </c>
+      <c r="B227" t="s">
         <v>430</v>
       </c>
-      <c r="B227" t="s">
-        <v>431</v>
-      </c>
       <c r="C227" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>431</v>
+      </c>
+      <c r="B228" t="s">
         <v>432</v>
       </c>
-      <c r="B228" t="s">
-        <v>433</v>
-      </c>
       <c r="C228" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>433</v>
+      </c>
+      <c r="B229" t="s">
         <v>434</v>
       </c>
-      <c r="B229" t="s">
-        <v>435</v>
-      </c>
       <c r="C229" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>435</v>
+      </c>
+      <c r="B230" t="s">
         <v>436</v>
       </c>
-      <c r="B230" t="s">
-        <v>437</v>
-      </c>
       <c r="C230" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>437</v>
+      </c>
+      <c r="B231" t="s">
         <v>438</v>
       </c>
-      <c r="B231" t="s">
-        <v>439</v>
-      </c>
       <c r="C231" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>439</v>
+      </c>
+      <c r="B232" t="s">
         <v>440</v>
       </c>
-      <c r="B232" t="s">
-        <v>441</v>
-      </c>
       <c r="C232" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>441</v>
+      </c>
+      <c r="B233" t="s">
         <v>442</v>
       </c>
-      <c r="B233" t="s">
-        <v>443</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>474</v>
+      <c r="C233" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>443</v>
+      </c>
+      <c r="B234" t="s">
         <v>444</v>
       </c>
-      <c r="B234" t="s">
-        <v>445</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>474</v>
+      <c r="C234" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="B235" t="s">
         <v>446</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>474</v>
+      <c r="C235" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -4452,8 +4460,8 @@
       <c r="B236" t="s">
         <v>448</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>474</v>
+      <c r="C236" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -4463,8 +4471,8 @@
       <c r="B237" t="s">
         <v>450</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>474</v>
+      <c r="C237" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -4474,8 +4482,8 @@
       <c r="B238" t="s">
         <v>452</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>474</v>
+      <c r="C238" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -4485,8 +4493,8 @@
       <c r="B239" t="s">
         <v>454</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>474</v>
+      <c r="C239" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -4496,8 +4504,8 @@
       <c r="B240" t="s">
         <v>456</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>474</v>
+      <c r="C240" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -4507,8 +4515,8 @@
       <c r="B241" t="s">
         <v>458</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>474</v>
+      <c r="C241" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -4518,8 +4526,8 @@
       <c r="B242" t="s">
         <v>460</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>474</v>
+      <c r="C242" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -4529,8 +4537,8 @@
       <c r="B243" t="s">
         <v>462</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>474</v>
+      <c r="C243" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -4540,8 +4548,8 @@
       <c r="B244" t="s">
         <v>464</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>474</v>
+      <c r="C244" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -4551,8 +4559,8 @@
       <c r="B245" t="s">
         <v>466</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>474</v>
+      <c r="C245" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -4560,43 +4568,54 @@
         <v>467</v>
       </c>
       <c r="B246" t="s">
-        <v>3</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
+      </c>
+      <c r="C246" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B247" t="s">
-        <v>469</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
+      </c>
+      <c r="C247" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B248" t="s">
-        <v>471</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
+      </c>
+      <c r="C248" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B249" t="s">
-        <v>473</v>
-      </c>
-      <c r="C249" s="2" t="s">
         <v>474</v>
+      </c>
+      <c r="C249" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>475</v>
+      </c>
+      <c r="B250" t="s">
+        <v>476</v>
+      </c>
+      <c r="C250" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/backend/objetos.xlsx
+++ b/backend/objetos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leozed92-my.sharepoint.com/personal/leozed_leozed92_onmicrosoft_com/Documents/Aplicativos/App GAD SESAU/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{C24DD8E0-50BB-40E4-B648-E8FAFBB74FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EADC58B6-53C8-45BA-8B1C-FBAABA64B35A}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{C24DD8E0-50BB-40E4-B648-E8FAFBB74FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1984CBFD-8D67-4597-84B8-A6AD85781AC0}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2010" windowWidth="21600" windowHeight="11190" xr2:uid="{92D8D400-3915-4B7A-B5E9-ACA32B0E4BC3}"/>
+    <workbookView xWindow="-26070" yWindow="2415" windowWidth="21600" windowHeight="11190" xr2:uid="{92D8D400-3915-4B7A-B5E9-ACA32B0E4BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="objetos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="476">
   <si>
     <t>objeto</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>Emergencial</t>
-  </si>
-  <si>
-    <t>0036.051031/2024-05</t>
-  </si>
-  <si>
-    <t>Operação Hospital de Guajará-Mirim</t>
   </si>
   <si>
     <t>0036.059337/2023-11</t>
@@ -1471,6 +1465,9 @@
   </si>
   <si>
     <t>PRESERVAÇÃO DE ÓRGÃOS E CÓRNEAS</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA EM SERVIÇOS DE HIGIENIZAÇÃO E LIMPEZA HOSPITALAR E ASSEMELHADAS, LABORATORIAL E AMBULATORIAL - HIGIENIZAÇÃO, CONSERVAÇÃO, DESINFECÇÃO DE SUPERFÍCIES E MOBILIÁRIOS E RECOLHIMENTO INTERNO DOS RESÍDUOS DO GRUPO “D”, VISANDO À OBTENÇÃO DE ADEQUADAS CONDIÇÕES DE SALUBRIDADE E HIGIENE EM DEPENDÊNCIAS DO HOSPITAL REGIONAL DE EXTREMA - HRE, EM CARÁTER EMERGENCIAL, POR UM PERÍODO DE 1 (UM) ANO, OU ATÉ QUE SE CONCLUA O PROCESSO LICITATÓRIO.</t>
   </si>
 </sst>
 </file>
@@ -1533,10 +1530,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1859,7 +1852,7 @@
   <dimension ref="A1:C250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C250"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,18 +1880,18 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1909,7 +1902,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1920,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1931,7 +1924,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1942,7 +1935,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,7 +1946,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1964,7 +1957,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1975,7 +1968,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1986,7 +1979,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1997,18 +1990,18 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2019,29 +2012,29 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,7 +2045,7 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2063,7 +2056,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2074,7 +2067,7 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2085,18 +2078,18 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2107,7 +2100,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2118,7 +2111,7 @@
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2129,7 +2122,7 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2140,7 +2133,7 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2151,7 +2144,7 @@
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2162,7 +2155,7 @@
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2173,7 +2166,7 @@
         <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2184,7 +2177,7 @@
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2195,7 +2188,7 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,7 +2199,7 @@
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2217,7 +2210,7 @@
         <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2228,7 +2221,7 @@
         <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,7 +2232,7 @@
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,7 +2243,7 @@
         <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,7 +2254,7 @@
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,7 +2265,7 @@
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2283,7 +2276,7 @@
         <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,7 +2287,7 @@
         <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2305,7 +2298,7 @@
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,7 +2309,7 @@
         <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2327,7 +2320,7 @@
         <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2338,7 +2331,7 @@
         <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,7 +2342,7 @@
         <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2360,7 +2353,7 @@
         <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2371,7 +2364,7 @@
         <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,7 +2375,7 @@
         <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,7 +2386,7 @@
         <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2404,7 +2397,7 @@
         <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,7 +2408,7 @@
         <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2426,7 +2419,7 @@
         <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2448,7 +2441,7 @@
         <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2459,7 +2452,7 @@
         <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2470,7 +2463,7 @@
         <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2481,7 +2474,7 @@
         <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2503,7 +2496,7 @@
         <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2514,7 +2507,7 @@
         <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,7 +2518,7 @@
         <v>123</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2536,7 +2529,7 @@
         <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2547,7 +2540,7 @@
         <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2558,7 +2551,7 @@
         <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2569,7 +2562,7 @@
         <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2580,7 +2573,7 @@
         <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2591,29 +2584,29 @@
         <v>135</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
         <v>136</v>
       </c>
-      <c r="B67" t="s">
-        <v>137</v>
-      </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
         <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2624,7 +2617,7 @@
         <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2635,7 +2628,7 @@
         <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2646,29 +2639,29 @@
         <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
         <v>145</v>
       </c>
-      <c r="B72" t="s">
-        <v>146</v>
-      </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
         <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2679,7 +2672,7 @@
         <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2690,7 +2683,7 @@
         <v>151</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2701,7 +2694,7 @@
         <v>153</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2712,7 +2705,7 @@
         <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2723,7 +2716,7 @@
         <v>157</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2734,21 +2727,21 @@
         <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>162</v>
       </c>
@@ -2756,7 +2749,7 @@
         <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2767,7 +2760,7 @@
         <v>165</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2778,7 +2771,7 @@
         <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2789,7 +2782,7 @@
         <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2800,7 +2793,7 @@
         <v>171</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2811,7 +2804,7 @@
         <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2822,7 +2815,7 @@
         <v>175</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2833,7 +2826,7 @@
         <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2844,7 +2837,7 @@
         <v>179</v>
       </c>
       <c r="C89" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2855,7 +2848,7 @@
         <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2866,7 +2859,7 @@
         <v>183</v>
       </c>
       <c r="C91" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2877,7 +2870,7 @@
         <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2888,7 +2881,7 @@
         <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2899,7 +2892,7 @@
         <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2910,7 +2903,7 @@
         <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2921,7 +2914,7 @@
         <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2932,7 +2925,7 @@
         <v>195</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2943,7 +2936,7 @@
         <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2954,7 +2947,7 @@
         <v>199</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2965,7 +2958,7 @@
         <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2976,7 +2969,7 @@
         <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2987,7 +2980,7 @@
         <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2998,7 +2991,7 @@
         <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3009,7 +3002,7 @@
         <v>209</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3020,7 +3013,7 @@
         <v>211</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3053,29 +3046,29 @@
         <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3086,62 +3079,62 @@
         <v>51</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B112" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B114" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C115" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3152,62 +3145,62 @@
         <v>131</v>
       </c>
       <c r="C117" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B118" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C118" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C119" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="B120" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="C120" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="B121" t="s">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c r="C121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="B122" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="C122" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -3218,7 +3211,7 @@
         <v>223</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3229,7 +3222,7 @@
         <v>225</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3240,7 +3233,7 @@
         <v>227</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3251,7 +3244,7 @@
         <v>229</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3262,7 +3255,7 @@
         <v>231</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3273,7 +3266,7 @@
         <v>233</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -3284,7 +3277,7 @@
         <v>235</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3295,7 +3288,7 @@
         <v>237</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3306,7 +3299,7 @@
         <v>239</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -3317,7 +3310,7 @@
         <v>241</v>
       </c>
       <c r="C132" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -3328,7 +3321,7 @@
         <v>243</v>
       </c>
       <c r="C133" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3339,7 +3332,7 @@
         <v>245</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3350,7 +3343,7 @@
         <v>247</v>
       </c>
       <c r="C135" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3361,7 +3354,7 @@
         <v>249</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -3372,7 +3365,7 @@
         <v>251</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -3383,7 +3376,7 @@
         <v>253</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -3394,7 +3387,7 @@
         <v>255</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -3405,7 +3398,7 @@
         <v>257</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -3413,18 +3406,18 @@
         <v>258</v>
       </c>
       <c r="B141" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>259</v>
+      </c>
+      <c r="B142" t="s">
         <v>260</v>
-      </c>
-      <c r="B142" t="s">
-        <v>237</v>
       </c>
       <c r="C142" t="s">
         <v>3</v>
@@ -3438,18 +3431,18 @@
         <v>262</v>
       </c>
       <c r="C143" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>264</v>
+      </c>
+      <c r="B144" t="s">
+        <v>265</v>
+      </c>
+      <c r="C144" t="s">
         <v>263</v>
-      </c>
-      <c r="B144" t="s">
-        <v>264</v>
-      </c>
-      <c r="C144" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -3460,7 +3453,7 @@
         <v>267</v>
       </c>
       <c r="C145" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -3471,7 +3464,7 @@
         <v>269</v>
       </c>
       <c r="C146" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -3482,7 +3475,7 @@
         <v>271</v>
       </c>
       <c r="C147" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -3493,7 +3486,7 @@
         <v>273</v>
       </c>
       <c r="C148" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -3504,7 +3497,7 @@
         <v>275</v>
       </c>
       <c r="C149" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -3515,7 +3508,7 @@
         <v>277</v>
       </c>
       <c r="C150" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -3526,7 +3519,7 @@
         <v>279</v>
       </c>
       <c r="C151" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -3537,7 +3530,7 @@
         <v>281</v>
       </c>
       <c r="C152" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -3548,7 +3541,7 @@
         <v>283</v>
       </c>
       <c r="C153" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -3559,7 +3552,7 @@
         <v>285</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -3570,7 +3563,7 @@
         <v>287</v>
       </c>
       <c r="C155" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -3581,7 +3574,7 @@
         <v>289</v>
       </c>
       <c r="C156" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -3592,7 +3585,7 @@
         <v>291</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3603,7 +3596,7 @@
         <v>293</v>
       </c>
       <c r="C158" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -3614,7 +3607,7 @@
         <v>295</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3625,7 +3618,7 @@
         <v>297</v>
       </c>
       <c r="C160" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -3636,7 +3629,7 @@
         <v>299</v>
       </c>
       <c r="C161" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3647,7 +3640,7 @@
         <v>301</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3658,7 +3651,7 @@
         <v>303</v>
       </c>
       <c r="C163" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3669,7 +3662,7 @@
         <v>305</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3680,7 +3673,7 @@
         <v>307</v>
       </c>
       <c r="C165" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3691,7 +3684,7 @@
         <v>309</v>
       </c>
       <c r="C166" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3702,7 +3695,7 @@
         <v>311</v>
       </c>
       <c r="C167" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3713,7 +3706,7 @@
         <v>313</v>
       </c>
       <c r="C168" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3724,7 +3717,7 @@
         <v>315</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3735,7 +3728,7 @@
         <v>317</v>
       </c>
       <c r="C170" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3746,7 +3739,7 @@
         <v>319</v>
       </c>
       <c r="C171" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3757,7 +3750,7 @@
         <v>321</v>
       </c>
       <c r="C172" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3768,7 +3761,7 @@
         <v>323</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3779,7 +3772,7 @@
         <v>325</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3790,7 +3783,7 @@
         <v>327</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3801,7 +3794,7 @@
         <v>329</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3812,7 +3805,7 @@
         <v>331</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3823,7 +3816,7 @@
         <v>333</v>
       </c>
       <c r="C178" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3834,7 +3827,7 @@
         <v>335</v>
       </c>
       <c r="C179" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3845,7 +3838,7 @@
         <v>337</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3856,7 +3849,7 @@
         <v>339</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3867,7 +3860,7 @@
         <v>341</v>
       </c>
       <c r="C182" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3878,7 +3871,7 @@
         <v>343</v>
       </c>
       <c r="C183" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3889,7 +3882,7 @@
         <v>345</v>
       </c>
       <c r="C184" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3900,7 +3893,7 @@
         <v>347</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3911,7 +3904,7 @@
         <v>349</v>
       </c>
       <c r="C186" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3922,7 +3915,7 @@
         <v>351</v>
       </c>
       <c r="C187" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3933,7 +3926,7 @@
         <v>353</v>
       </c>
       <c r="C188" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3944,7 +3937,7 @@
         <v>355</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -3955,7 +3948,7 @@
         <v>357</v>
       </c>
       <c r="C190" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -3966,7 +3959,7 @@
         <v>359</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -3977,7 +3970,7 @@
         <v>361</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -3988,7 +3981,7 @@
         <v>363</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3999,7 +3992,7 @@
         <v>365</v>
       </c>
       <c r="C194" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -4010,7 +4003,7 @@
         <v>367</v>
       </c>
       <c r="C195" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -4021,7 +4014,7 @@
         <v>369</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -4032,7 +4025,7 @@
         <v>371</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -4043,7 +4036,7 @@
         <v>373</v>
       </c>
       <c r="C198" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -4054,7 +4047,7 @@
         <v>375</v>
       </c>
       <c r="C199" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -4065,7 +4058,7 @@
         <v>377</v>
       </c>
       <c r="C200" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -4076,7 +4069,7 @@
         <v>379</v>
       </c>
       <c r="C201" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -4087,7 +4080,7 @@
         <v>381</v>
       </c>
       <c r="C202" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -4098,7 +4091,7 @@
         <v>383</v>
       </c>
       <c r="C203" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -4109,7 +4102,7 @@
         <v>385</v>
       </c>
       <c r="C204" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -4120,7 +4113,7 @@
         <v>387</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -4131,7 +4124,7 @@
         <v>389</v>
       </c>
       <c r="C206" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -4139,21 +4132,21 @@
         <v>390</v>
       </c>
       <c r="B207" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C207" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>391</v>
+      </c>
+      <c r="B208" t="s">
         <v>392</v>
       </c>
-      <c r="B208" t="s">
-        <v>391</v>
-      </c>
       <c r="C208" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -4164,7 +4157,7 @@
         <v>394</v>
       </c>
       <c r="C209" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -4175,7 +4168,7 @@
         <v>396</v>
       </c>
       <c r="C210" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -4186,7 +4179,7 @@
         <v>398</v>
       </c>
       <c r="C211" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -4197,7 +4190,7 @@
         <v>400</v>
       </c>
       <c r="C212" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,7 +4201,7 @@
         <v>402</v>
       </c>
       <c r="C213" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -4219,7 +4212,7 @@
         <v>404</v>
       </c>
       <c r="C214" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -4230,7 +4223,7 @@
         <v>406</v>
       </c>
       <c r="C215" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -4241,7 +4234,7 @@
         <v>408</v>
       </c>
       <c r="C216" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -4252,7 +4245,7 @@
         <v>410</v>
       </c>
       <c r="C217" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -4263,7 +4256,7 @@
         <v>412</v>
       </c>
       <c r="C218" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -4274,7 +4267,7 @@
         <v>414</v>
       </c>
       <c r="C219" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -4285,7 +4278,7 @@
         <v>416</v>
       </c>
       <c r="C220" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -4296,7 +4289,7 @@
         <v>418</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -4307,7 +4300,7 @@
         <v>420</v>
       </c>
       <c r="C222" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -4318,7 +4311,7 @@
         <v>422</v>
       </c>
       <c r="C223" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -4329,7 +4322,7 @@
         <v>424</v>
       </c>
       <c r="C224" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -4340,7 +4333,7 @@
         <v>426</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -4351,7 +4344,7 @@
         <v>428</v>
       </c>
       <c r="C226" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -4362,7 +4355,7 @@
         <v>430</v>
       </c>
       <c r="C227" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -4373,7 +4366,7 @@
         <v>432</v>
       </c>
       <c r="C228" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -4384,7 +4377,7 @@
         <v>434</v>
       </c>
       <c r="C229" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -4395,7 +4388,7 @@
         <v>436</v>
       </c>
       <c r="C230" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -4406,7 +4399,7 @@
         <v>438</v>
       </c>
       <c r="C231" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -4417,7 +4410,7 @@
         <v>440</v>
       </c>
       <c r="C232" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -4428,7 +4421,7 @@
         <v>442</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -4439,7 +4432,7 @@
         <v>444</v>
       </c>
       <c r="C234" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -4450,7 +4443,7 @@
         <v>446</v>
       </c>
       <c r="C235" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -4461,7 +4454,7 @@
         <v>448</v>
       </c>
       <c r="C236" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -4472,7 +4465,7 @@
         <v>450</v>
       </c>
       <c r="C237" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -4483,7 +4476,7 @@
         <v>452</v>
       </c>
       <c r="C238" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -4494,7 +4487,7 @@
         <v>454</v>
       </c>
       <c r="C239" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -4505,7 +4498,7 @@
         <v>456</v>
       </c>
       <c r="C240" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -4516,7 +4509,7 @@
         <v>458</v>
       </c>
       <c r="C241" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -4527,7 +4520,7 @@
         <v>460</v>
       </c>
       <c r="C242" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -4538,7 +4531,7 @@
         <v>462</v>
       </c>
       <c r="C243" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -4549,7 +4542,7 @@
         <v>464</v>
       </c>
       <c r="C244" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -4560,7 +4553,7 @@
         <v>466</v>
       </c>
       <c r="C245" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -4571,7 +4564,7 @@
         <v>468</v>
       </c>
       <c r="C246" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -4582,7 +4575,7 @@
         <v>470</v>
       </c>
       <c r="C247" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -4593,7 +4586,7 @@
         <v>472</v>
       </c>
       <c r="C248" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -4604,18 +4597,18 @@
         <v>474</v>
       </c>
       <c r="C249" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>178</v>
+      </c>
+      <c r="B250" t="s">
         <v>475</v>
       </c>
-      <c r="B250" t="s">
-        <v>476</v>
-      </c>
       <c r="C250" t="s">
-        <v>220</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/objetos.xlsx
+++ b/backend/objetos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leozed92-my.sharepoint.com/personal/leozed_leozed92_onmicrosoft_com/Documents/Aplicativos/App GAD SESAU/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{C24DD8E0-50BB-40E4-B648-E8FAFBB74FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1984CBFD-8D67-4597-84B8-A6AD85781AC0}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{C24DD8E0-50BB-40E4-B648-E8FAFBB74FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA33A62D-6FF8-4997-B63A-4D53A3A80BC2}"/>
   <bookViews>
     <workbookView xWindow="-26070" yWindow="2415" windowWidth="21600" windowHeight="11190" xr2:uid="{92D8D400-3915-4B7A-B5E9-ACA32B0E4BC3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="502">
   <si>
     <t>objeto</t>
   </si>
@@ -1468,6 +1468,84 @@
   </si>
   <si>
     <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA EM SERVIÇOS DE HIGIENIZAÇÃO E LIMPEZA HOSPITALAR E ASSEMELHADAS, LABORATORIAL E AMBULATORIAL - HIGIENIZAÇÃO, CONSERVAÇÃO, DESINFECÇÃO DE SUPERFÍCIES E MOBILIÁRIOS E RECOLHIMENTO INTERNO DOS RESÍDUOS DO GRUPO “D”, VISANDO À OBTENÇÃO DE ADEQUADAS CONDIÇÕES DE SALUBRIDADE E HIGIENE EM DEPENDÊNCIAS DO HOSPITAL REGIONAL DE EXTREMA - HRE, EM CARÁTER EMERGENCIAL, POR UM PERÍODO DE 1 (UM) ANO, OU ATÉ QUE SE CONCLUA O PROCESSO LICITATÓRIO.</t>
+  </si>
+  <si>
+    <t>FORNECIMENTO CONTÍNUO DE REAGENTE PARA DIAGNÓSTICO CLÍNICO, TIPO CONJUNTO COMPLETO PARA AUTOMAÇÃO, PARA ANÁLISE QUANTITATIVA DE GASOMETRIA, COM FORNECIMENTO DE EQUIPAMENTOS (GASÔMETROS) EM REGIME DE COMODATO</t>
+  </si>
+  <si>
+    <t>0036.029392/2025-48</t>
+  </si>
+  <si>
+    <t>aquisição de serviços de coffee break - SESMT</t>
+  </si>
+  <si>
+    <t>0036.017399/2025-17</t>
+  </si>
+  <si>
+    <t>medicamento classe de INJETAVEIS III</t>
+  </si>
+  <si>
+    <t>0063.001173/2025-77</t>
+  </si>
+  <si>
+    <t>Locação de clinica odontologica estruturada - POC</t>
+  </si>
+  <si>
+    <t>0036.025786/2025-27</t>
+  </si>
+  <si>
+    <t>Aquisição de medicamentos Grandes Volumes</t>
+  </si>
+  <si>
+    <t>0036.030292/2025-64</t>
+  </si>
+  <si>
+    <t>Solução de Hemodiálise</t>
+  </si>
+  <si>
+    <t>0036.029730/2025-41</t>
+  </si>
+  <si>
+    <t>Manutenção preventiva e corretiva em condicionadores de ar com fornecimento e reposição de peças, acessórios e componentes eletrônicos do Sistema de Climatização - HRSFG</t>
+  </si>
+  <si>
+    <t>0036.021034/2025-97</t>
+  </si>
+  <si>
+    <t>Prestação de Serviço de ANESTESIOLOGISTA</t>
+  </si>
+  <si>
+    <t>0036.027285/2025-85</t>
+  </si>
+  <si>
+    <t>Aquisição de bombas pressurizadoras, modelo SCALA1 3-35 (ou similar compatível com o sistema HEURO) do sistema de tratamento de água para hemodiálise da Unidade de Terapia Intensiva UTI</t>
+  </si>
+  <si>
+    <t>0036.014122/2025-32</t>
+  </si>
+  <si>
+    <t>ÁGUA MINERAL GARRAFÃO RETORNÁVEL DE 20 LITROS, ÁGUA MINERAL SEM GÁS DE 500ML E ÁGUA MINERAL COM GÁS DE 500ML, para atender as demandas das unidades do interior</t>
+  </si>
+  <si>
+    <t>0036.026848/2025-18</t>
+  </si>
+  <si>
+    <t>Aquisição de soluções parenterais estéreis (soros), especificamente Glicose nas apresentações de 250 mL e 500 ml</t>
+  </si>
+  <si>
+    <t>Adesão à Ata</t>
+  </si>
+  <si>
+    <t>0036.030151/2025-41</t>
+  </si>
+  <si>
+    <t>prestação de limpeza, conservação, higienização e desinfecção com fornecimento de materiais e equipamentos - GRS4</t>
+  </si>
+  <si>
+    <t>0036.027016/2025-19</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE EXAMES LABORATORIAIS - HRE</t>
   </si>
 </sst>
 </file>
@@ -1530,6 +1608,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1849,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2FF0CA-3C4D-4BFF-9AA5-A0CFD76751B1}">
-  <dimension ref="A1:C250"/>
+  <dimension ref="A1:C263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4611,6 +4693,128 @@
         <v>3</v>
       </c>
     </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251" t="s">
+        <v>476</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>477</v>
+      </c>
+      <c r="B252" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>479</v>
+      </c>
+      <c r="B253" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>481</v>
+      </c>
+      <c r="B254" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>483</v>
+      </c>
+      <c r="B255" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>485</v>
+      </c>
+      <c r="B256" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>487</v>
+      </c>
+      <c r="B257" t="s">
+        <v>488</v>
+      </c>
+      <c r="C257" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>489</v>
+      </c>
+      <c r="B258" t="s">
+        <v>490</v>
+      </c>
+      <c r="C258" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>491</v>
+      </c>
+      <c r="B259" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>493</v>
+      </c>
+      <c r="B260" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>495</v>
+      </c>
+      <c r="B261" t="s">
+        <v>496</v>
+      </c>
+      <c r="C261" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>498</v>
+      </c>
+      <c r="B262" t="s">
+        <v>499</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>500</v>
+      </c>
+      <c r="B263" t="s">
+        <v>501</v>
+      </c>
+      <c r="C263" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C249" xr:uid="{4A2FF0CA-3C4D-4BFF-9AA5-A0CFD76751B1}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/backend/objetos.xlsx
+++ b/backend/objetos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leozed92-my.sharepoint.com/personal/leozed_leozed92_onmicrosoft_com/Documents/Aplicativos/App GAD SESAU/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{C24DD8E0-50BB-40E4-B648-E8FAFBB74FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA33A62D-6FF8-4997-B63A-4D53A3A80BC2}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{C24DD8E0-50BB-40E4-B648-E8FAFBB74FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91086E3D-F792-4DA3-BA83-7CCE43C0F422}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="2415" windowWidth="21600" windowHeight="11190" xr2:uid="{92D8D400-3915-4B7A-B5E9-ACA32B0E4BC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92D8D400-3915-4B7A-B5E9-ACA32B0E4BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="objetos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="510">
   <si>
     <t>objeto</t>
   </si>
@@ -1546,6 +1546,30 @@
   </si>
   <si>
     <t>SERVIÇOS DE EXAMES LABORATORIAIS - HRE</t>
+  </si>
+  <si>
+    <t>0036.011559/2025-14</t>
+  </si>
+  <si>
+    <t>Cami - 18 leitos de Gestação de Alto Risco-GAR na macrorregião II</t>
+  </si>
+  <si>
+    <t>0050.006133/2025-61</t>
+  </si>
+  <si>
+    <t>serviços médicos complementares especializados na área de Cirurgia Vascular/Angiologia, de forma emergencial, com a finalidade de atender a demandas do hospital João Paulo II,</t>
+  </si>
+  <si>
+    <t>0036.058954/2024-80</t>
+  </si>
+  <si>
+    <t>equip FUJINON - HB</t>
+  </si>
+  <si>
+    <t>0036.030324/2025-21</t>
+  </si>
+  <si>
+    <t>medicamentos, Soluções orais II</t>
   </si>
 </sst>
 </file>
@@ -1931,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2FF0CA-3C4D-4BFF-9AA5-A0CFD76751B1}">
-  <dimension ref="A1:C263"/>
+  <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C263"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4815,6 +4839,44 @@
         <v>3</v>
       </c>
     </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>502</v>
+      </c>
+      <c r="B264" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>504</v>
+      </c>
+      <c r="B265" t="s">
+        <v>505</v>
+      </c>
+      <c r="C265" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>506</v>
+      </c>
+      <c r="B266" t="s">
+        <v>507</v>
+      </c>
+      <c r="C266" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>508</v>
+      </c>
+      <c r="B267" t="s">
+        <v>509</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C249" xr:uid="{4A2FF0CA-3C4D-4BFF-9AA5-A0CFD76751B1}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/backend/objetos.xlsx
+++ b/backend/objetos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leozed92-my.sharepoint.com/personal/leozed_leozed92_onmicrosoft_com/Documents/Aplicativos/App GAD SESAU/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{C24DD8E0-50BB-40E4-B648-E8FAFBB74FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85B2398A-8FB0-410D-9635-66B2C6B8A38A}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{C24DD8E0-50BB-40E4-B648-E8FAFBB74FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19E53BFC-0421-4058-BB54-09E7008B3771}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="4350" windowWidth="21600" windowHeight="11190" xr2:uid="{92D8D400-3915-4B7A-B5E9-ACA32B0E4BC3}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11190" xr2:uid="{92D8D400-3915-4B7A-B5E9-ACA32B0E4BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="objetos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="510">
   <si>
     <t>objeto</t>
   </si>
@@ -69,6 +69,1507 @@
   </si>
   <si>
     <t>Contratação de empresa especializada na prestação de serviços de locação de sistema de Fornecimento e tratamento de água para hemodiálise com osmose reversa fixa duplo passo, visando atender a 26 pontos, incluíndo a rede de distribuição e os pontos de consumo, de forma contínua,​ visando atender ao Hospital Regional de Cacoal (HRC), por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.014359/2024-32</t>
+  </si>
+  <si>
+    <t>Registro de Preços para contratação de solução com fornecimento de equipamentos, licenças de softwares e serviços, para proteção e gerenciamento seguro da rede LAN/WAN da Secretaria de Estado da Saúde – SESAU/RO.</t>
+  </si>
+  <si>
+    <t>0050.005171/2023-34</t>
+  </si>
+  <si>
+    <t>Locação prédio para acomodação do Serviço de Atendimento Multidisciplinar Domiciliar - SAMD e Subdiretoria Técnica em Saúde - SDTECS/SESAU, incluindo climatização e manutenção predial, localizado no Município de Porto Velho/RO.</t>
+  </si>
+  <si>
+    <t>0036.021529/2024-35</t>
+  </si>
+  <si>
+    <t>Prestação de Serviços de Limpeza/Desinfecção de Ambientes e Gerenciamento de Resíduos (interno) dos Serviços de Saúde - Higienização, Conservação, Desinfecção de Superfícies e Mobiliários e Recolhimento dos Resíduos Grupo D, de forma contínua, para atender a 2ª Gerência Regional de Saúde no município de Cacoal, em caráter contínuo</t>
+  </si>
+  <si>
+    <t>0036.000311/2025-28</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços de Locação de Módulo/Central de Compressores de Ar Medicinal, incluído providências para instalação completa dos sistemas respectivos, com construção civil, elétrica, mecânica e hidráulica, bem como outros insumos necessários para seu devido funcionamento, considerando na prestação do serviço a montagem e manutenção preventiva e corretiva dos equipamentos de acordo com os padrões e normas técnicas atualizadas, como RDC n.º 50, RDC n.º 307, NBR 12.188 entre outras, para atender as necessidades do Hospital Regional de Cacoal (HRC), conforme Documento de Oficialização de Demanda n.º 2/2025/HRC-SGM (0056295036).</t>
+  </si>
+  <si>
+    <t>0036.055698/2024-79</t>
+  </si>
+  <si>
+    <t>Contratação emergencial de empresa especializada na Prestação de Serviços de Engenharia Clínica, Incluindo Serviço de Gerenciamento de Equipamentos Manutenção Corretiva, Preventiva, Preditiva e Calibração dos Equipamentos com Reposição de Peças e Acessórios, visando atender às necessidades do Hospital Infantil Cosme e Damião - HICD (139 leitos), de forma contínua, conforme a Lei Federal 14.133/2021.</t>
+  </si>
+  <si>
+    <t>0036.007254/2025-16</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em prestação de serviços de manutenção preventiva e corretiva, de forma contínua, com fornecimento e reposição de peças, acessórios e componentes eletrônicos do Sistema de Climatização do (HICD), incluindo de expansão indireta CHILLER, conforme projeto O.S 1430 (0033753209), com capacidade de 162 TR e Centrais de Ar Condicionados instaladas nos setores que não contemplam o sistema de refrigeração chiller, para atender as necessidade do Hospital Infantil Cosme e Damião (HICD), por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.059843/2024-91</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa prestação de serviços de Manutenção Preventiva e Corretiva, com fornecimento e reposição de peças, acessórios e componentes eletrônicos do sistema climatização de expansão direta tipo VRF de 950 HP da marca Mitsubishi e demais equipamentos complementares e substitutos do sistema de climatização (VRF) de conforto térmico, de forma contínua, para atender ao Hospital Regional de Cacoal - HRC, por um período de 01 (um) ano, podendo ser prorrogado conforme previsto nos Art. 106 e 107 da lei nº 14.133, conforme Documento de Oficialização de Demanda nº 6/2025/COHREC-NEMP (0057374682).</t>
+  </si>
+  <si>
+    <t>0036.004257/2025-90</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa para presente instrumento é a prestação de serviços de translado terrestre de corpos, com assistência 24 (vinte e quatro) horas, a fim de atender os óbitos ocorridos no Hospital e Pronto Socorro João Paulo II-HPSJPII, Assistência Médica Intensiva-AMI 24h e Centro de Medicina Tropical de Rondônia-CEMETRON, por um período de 01 (um) ano, podendo ser prorrogado conforme previsto nos Art. 106 e 107 da lei n.º 14.133, conforme Documento de Oficialização de Demanda n.º 2/2025/CEMETRON-ASTEC, n.º 3/2025/AMI-COORD (0057366910, 0057594289).</t>
+  </si>
+  <si>
+    <t>Dispensa</t>
+  </si>
+  <si>
+    <t>0036.003493/2025-99</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada em Prestação de Serviços de Limpeza, Conservação, Higienização e Desinfecção com Fornecimento de Materiais e Equipamentos nas dependências do prédio onde funciona a III Gerência Regional de Saúde - Vilhena (GRS3), pelo período de 5 (cinco) anos de forma contínua.</t>
+  </si>
+  <si>
+    <t>0020.002635/2025-70</t>
+  </si>
+  <si>
+    <t>Contratação de empresa objetivando a participação de servidores no 1° Congresso Nacional de Contratações e Convênios na Saúde, de forma remota, nos dias 09, 10 e 11 de Abril de 2025, conforme Documento de Oficialização de Demanda nº 1/2025/PGE-SESAU (0057771461).</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em Locação de Módulo/Central de Compressores de Ar Medicinal, incluído providências para instalação completa dos sistemas respectivos, com construção civil, elétrica, mecânica e hidráulica, bem como outros insumos necessários para seu devido funcionamento, considerando na prestação do serviço a montagem e manutenção preventiva e corretiva dos equipamentos de acordo com os padrões e normas técnicas atualizadas, como RDC nº 50, RDC nº 307, NBR 12.188 entre outras, para atender as necessidades do Hospital Regional de Cacoal (HRC).</t>
+  </si>
+  <si>
+    <t>0036.013189/2025-50</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em Serviços de Engenharia Clínica, Incluindo Serviço de Gerenciamento de Equipamentos Manutenção Corretiva, Preventiva, Preditiva e Calibração dos Equipamentos com Reposição de Peças e Acessórios, visando atender às necessidades do Hospital Regional de Cacoal - HRC, Hospital de Urgência e Emergência Regional de Cacoal - HEURO e Hospital Regional de Extrema - HRE, por um período de 01 (um) ano, podendo ser prorrogado conforme previsto nos Art. 106 e 107 da lei nº 14.133, conforme Documento de Oficialização de Demanda nº 251/2024/SESAU-GECOMP (0052163179).</t>
+  </si>
+  <si>
+    <t>0049.006695/2023-81</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços de manutenção preventiva e corretiva, com reposição integral de peças do Sistema de Tratamento de Água por osmose reversa passo simples para hemodiálise, na Central de Hemodiálise do Hospital de Base Dr. Ary Pinheiro - HBAP, com capacidade de abastecimento de até 15 máquinas de hemodiálise, por um período de 12 meses.</t>
+  </si>
+  <si>
+    <t>0036.103898/2022-83</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços de Limpeza, Desobstrução do Sistema de Tratamento de Esgoto (Tanque Séptico, Filtro Anaeróbio e Sumidouro), Caixas de Esgoto, Caixas de Gordura e Tubulações de Esgoto, bem como Limpeza e Desinfecção de Caixas D’água, de forma contínua, por um período de 12 (doze) meses</t>
+  </si>
+  <si>
+    <t>0036.042664/2024-14</t>
+  </si>
+  <si>
+    <t>Locação do imóvel localizado - Coordenadoria Estadual de Nutrição Enteral - CENE, Coordenadoria de Gestão e Assistência Farmacêutica - CGAF, atualmente vigente.</t>
+  </si>
+  <si>
+    <t>0049.010601/2024-50</t>
+  </si>
+  <si>
+    <t>INEXIGIBILIDADE - Contratação de empresa especializada em manutenção corretiva com fornecimento de peças do equipamento Autoclave de peróxido de hidrogênio BAUMMER - HBAP</t>
+  </si>
+  <si>
+    <t>Inexigibilidade</t>
+  </si>
+  <si>
+    <t>0036.033145/2024-65</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada para a Prestação de Serviços de Higienização e Limpeza Hospitalar e assemelhadas, Laboratorial e Ambulatorial - Higienização, Conservação, Desinfecção de Superfícies e Mobiliários e Recolhimento dos Resíduos do Grupo “D” para atuar de forma contínua no Laboratório de Fronteira - LAFRON, conforme Documento de Oficialização de Demanda nº 2/2024/LACEN-NLAFRON (0052710793).</t>
+  </si>
+  <si>
+    <t>0053.336440/2021-10</t>
+  </si>
+  <si>
+    <t>Serviços de limpeza de poços e manutenção preventiva e corretiva das bombas, para atendimento CEMETRON</t>
+  </si>
+  <si>
+    <t>0036.023187/2024-98</t>
+  </si>
+  <si>
+    <t>Registro de Preço para futura e eventual contratação de empresa especializada em serviço de nuvem na modalidade SaaS de uso de suíte de plataforma de colaboração, associada aos serviços de colaboração e produtividade de e-mail, agendas compartilhadas, ferramenta de videoconferência, pacote de Software de Escritório e Armazenamento, com o objetivo de atender as Coordenadorias que compõem esta Secretaria de Estado da Saúde, pelo período de 1 (um) ano, podendo ser prorrogado, por igual período, conforme previsto no art. 84º da Lei 14.133, de 1° de Abril e 2021.</t>
+  </si>
+  <si>
+    <t>0036.077686/2022-33</t>
+  </si>
+  <si>
+    <t>Registro de Preços para futura e eventual contratação de empresa especializada na confecção de crachás, visando atender as necessidades das Unidades da Secretaria de Estado da Saúde de Rondônia SESAU/RO por um período de 12 meses.</t>
+  </si>
+  <si>
+    <t>0036.006146/2025-18</t>
+  </si>
+  <si>
+    <t>Emergencial - Manutenção preventiva e corretiva de Grupo gerador HRC</t>
+  </si>
+  <si>
+    <t>Emergencial</t>
+  </si>
+  <si>
+    <t>0036.008076/2025-32</t>
+  </si>
+  <si>
+    <t>Licitatório - coleta interna e externa, transporte, tratamento (incineração ou autoclavagem e incineração e destinação final dos resíduos de serviços de saúde RSS (grupos A,B,E e eventualmente C) HBAP, HICD, CEMETRON, POC, HRB, HEPSJPII, AMI, LACEN, LEPAC, HEURO, HRC e HRSFG.</t>
+  </si>
+  <si>
+    <t>0036.007322/2023-77</t>
+  </si>
+  <si>
+    <t>sondagem para fabricação e Fornecimento de Reservatórios de água do Hospital de Urgência e Emergência Regional de Cacoal - HEURO</t>
+  </si>
+  <si>
+    <t>0036.030732/2024-01</t>
+  </si>
+  <si>
+    <t>Lavanderia Hospitalar com Fornecimento de Enxoval, a fim de atender às necessidades da Secretaria de Estado de Saúde de Rondônia - SESAU</t>
+  </si>
+  <si>
+    <t>0036.024208/2023-10</t>
+  </si>
+  <si>
+    <t>Contratação de empresa de serviços de soluções e tecnologia, visando modernização dos serviços de atenção à saúde pública, a fim de atender às necessidades da Secretaria de Estado da Saúde - SESAU, contemplando 25 (vinte e cinco) Unidades do estado de Rondônia, pelo período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.106428/2022-71</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em prestação de serviços de manutenção preventiva e corretiva, de forma contínua, com fornecimento e reposição de peças, acessórios e componentes eletrônicos do Sistema de Climatização do HICD, incluindo de expansão indireta CHILLER, conforme projeto O.S 1430 (0033753209), com capacidade de 162 TR e Centrais de Ar Condicionados instaladas nos setores que não contemplam o sistema de refrigeração chiller, para atender as necessidade do Hospital Infantil Cosme e Damião - HICD, por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.008314/2024-29</t>
+  </si>
+  <si>
+    <t>Contratação de serviços dos Correios para a Operação de Logística de Suprimentos In House conforme disponibiliza a NLLC (Inciso IX, art. 75 da Lei 14.133/21) para o Setor de Controle de Estoque, Armazenamento e Distribuição de Suprimentos desta Setorial de Produtos Médicos da SESAU, por um período mínimo de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.109115/2022-75</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada na Prestação de Serviço de Transporte Inter-Hospitalar de Pacientes, com disponibilização de Veículo/Ambulância de Suporte Avançado TIPO ”D” (UTI Móvel) e Suporte Básico TIPO "B", com mão de obra especializada, para atender as necessidades do Hospital Regional de Buritis - HRB, Hospital de Urgência e Emergência Regional de Cacoal - HEURO, Hospital Regional de Cacoal (HRC), Centro de Medicina Tropical - CEMETRON, Hospital e Pronto Socorro João Paulo II - HEPSJP/II, por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.006073/2024-83</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em prestação de serviços de vigilância/segurança patrimonial ostensiva e armada/desarmada, visando atender a I Gerência Regional de Saúde de Vilhena, II Gerência Regional de Saúde de Ariquemes, III Gerência Regional de Saúde de Rolim de Moura, e o IV Hospital Regional de São Francisco do Guaporé - HRSFG, no âmbito da Secretaria de Estado da Saúde de Rondônia (SESAU/RO), de forma contínua, por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.002598/2024-40</t>
+  </si>
+  <si>
+    <t>Registro de Preços para futura e eventual aquisição de materiais periféricos de informática, com a finalidade de atender as necessidades desta Secretaria de Estado da Saúde.</t>
+  </si>
+  <si>
+    <t>0036.031949/2024-20</t>
+  </si>
+  <si>
+    <t>Aquisição e Instalação de Unidades de Tratamento de Ar - UTA´s das salas cirúrgicas para atender o Hospital de Urgência e Emergência Regional de Cacoal - HEURO, conforme Documento de Oficialização de Demanda nº 48/2024/HEURO-ASGAB (0050389844)</t>
+  </si>
+  <si>
+    <t>0036.003735/2024-63</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços de vigilância/segurança patrimonial ostensiva e armada/desarmada, para atender as unidades administrativas da I Gerência Regional de Saúde de Ji-Paraná e II Gerência Regional de Saúde de Cacoal, vinculadas à Secretaria de Estado da Saúde, referente aos Lotes I e II</t>
+  </si>
+  <si>
+    <t>0036.012675/2025-51</t>
+  </si>
+  <si>
+    <t>Contratação Emergencial de Empresa Especializada na Prestação de Serviço de Transporte Inter-Hospitalar de Pacientes, com disponibilização de Veículo/Ambulância de Suporte Avançado TIPO ”D” (UTI Móvel) e Suporte Básico TIPO "B", com mão de obra especializada, para atender as necessidades do Hospital Regional São Francisco do Guaporé-HRSF, Policlínica Oswaldo Cruz-POC, Hospital Regional de Buritis-HRB, Hospital de Urgência e Emergência Regional de Cacoal-HEURO, Hospital Regional de Cacoal-HRC, Centro de Medicina Tropical-CEMETRON, Hospital e Pronto Socorro João Paulo II-JPII, Hospital de Retaguarda de Rondônia-HRRO; Centro de Medicina Intensiva​ - AMI; Hospital Regional de Extrema - HRE e Serviço Assistencial Multidisciplinar e Domiciliar-SAMD, pelo período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.517278/2021-47</t>
+  </si>
+  <si>
+    <t>Manutenção Prev. e Corretiva Equipamentos da Lavanderia - Hospital de Base Dr. Ary Pinheiro - HB e Hospital Regional de Cacoal - HRC</t>
+  </si>
+  <si>
+    <t>0059.000422/2023-12</t>
+  </si>
+  <si>
+    <t>Manutenção Prev. e Corretiva da Estação de Tratamento de Esgoto - ETE - Hospital Regional de Extrema - HRE</t>
+  </si>
+  <si>
+    <t>0036.051061/2023-22</t>
+  </si>
+  <si>
+    <t>Registro de Preços para futura e eventual aquisição de equipamentos de informática tendo como finalidade atender as necessidades das Unidades de Saúde da Secretária de Estado da Saúde - SESAU/RO, por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.005911/2024-00</t>
+  </si>
+  <si>
+    <t>Serviços de fornecimento de alimentação e nutrição hospitalar padronizada</t>
+  </si>
+  <si>
+    <t>0036.013967/2024-20</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na Prestação de Serviço de Lavanderia Hospitalar Interna, com disponibilização de equipamentos e demais utensílios, materiais de consumo, realização de manutenção preventiva e corretiva com reposição de peças para atender de forma continuada as necessidades do Hospital Regional de Buritis - HRB, por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.033609/2024-33</t>
+  </si>
+  <si>
+    <t>Eng. clinica HB, HRB e CDVJ</t>
+  </si>
+  <si>
+    <t>0036.036977/2024-33</t>
+  </si>
+  <si>
+    <t>Contratação de produtos e serviços por meio de Pacote de Serviços dos CORREIOS</t>
+  </si>
+  <si>
+    <t>0036.037711/2024-16</t>
+  </si>
+  <si>
+    <t>Aquisição de VOIP para atender a CTI.</t>
+  </si>
+  <si>
+    <t>0036.039245/2024-03</t>
+  </si>
+  <si>
+    <t>RP - Serviços de transporte de dados/interconexão (internet), através de cabeamento de fibra óptica e Rede privativa de comunicação. SESAU/CTI</t>
+  </si>
+  <si>
+    <t>0036.036691/2024-58</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada para prestação de serviços de gestão de acervo documental com guarda de documentos, tratamento técnico, Organização e Indexação, de forma contínua, assim como digitalização de documentos com fornecimento de Sistema Informatizado de Gestão Arquivística de Documentos - SIGAD, visando atender a Secretaria de Estado da Saúde - SESAU, por um período de 1 (um) ano, podendo ser prorrogado sucessivamente por igual período, até o limite de 10 (dez) anos, conforme previsto no art. 107 da Lei Federal nº 14.133/21.</t>
+  </si>
+  <si>
+    <t>0036.042679/2024-82</t>
+  </si>
+  <si>
+    <t>Locação de um Imóvel Comercial para instalação da Coordenadoria de Almoxarifado e Patrimônio - CAP</t>
+  </si>
+  <si>
+    <t>0036.274454/2021-41</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada em Serviços na Área de de manutenção preventiva e corretiva em Condicionadores de Ar, com fornecimento e reposição de peças, acessórios e componentes eletrônicos, para atender as seguintes unidades: Hospital Regional de Extrema - HRE, Hospital Regional de Buritis - HRB, Hospital de Base Dr. Ary Pinheiro - HBAP, Hospital e Pronto Socorro João Paulo II - HEPSJPII, Assistência Médica Intensiva - AMI, Hospital Infantil Cosme e Damião - HICD, Laboratório Central de Saúde Pública - LACEN, Laboratório de Fronteira - LAFRON, Centro de Medicina Tropical de Rondônia - CEMETRON e Policlínica Osvaldo Cruz - POC, Centro de Diálise Ariquemes - CDA, Laboratório Estadual de Patologia e Análise Clínicas - LEPAC Hospital de Urgência e Emergência Regional de Cacoal - HEURO.</t>
+  </si>
+  <si>
+    <t>0036.029876/2024-14</t>
+  </si>
+  <si>
+    <t>Aquisição de um imóvel para a 1° Gerência Regional de Saúde de Ji-Paraná</t>
+  </si>
+  <si>
+    <t>0036.007047/2025-53</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em Locação de Módulo/Central de Compressores de Ar Medicinal, incluído providências para instalação completa dos sistemas respectivos, com construção civil, elétrica, mecânica e hidráulica, bem como outros insumos necessários para seu devido funcionamento, considerando na prestação do serviço a montagem e manutenção preventiva e corretiva dos equipamentos de acordo com os padrões e normas técnicas atualizadas, como RDC nº 50, RDC nº 307, NBR 12.188 entre outras, para atender as necessidades do Hospital Regional de Cacoal (HRC), em caráter emergencial, pelo período até 01 (um) ano ou até a conclusão do processo nº 0036.000311/2025-28</t>
+  </si>
+  <si>
+    <t>0036.004517/2025-27</t>
+  </si>
+  <si>
+    <t>Contratação de empresa para prestação de serviços de Manutenção Preventiva e Corretiva em Condicionadores de Ar, com fornecimento e reposição de peças, acessórios e componentes eletrônicos de Sistema de expansão direta (Split), de forma emergencial, por um período de até um (01) ano ou até a conclusão do processo licitatório n° 0036.274454/2021-41, a fim de atender as necessidades do Hospital de Urgência e Emergência Regional de Cacoal - HEURO, Hospital Regional de Buritis - HRB, Hospital e Pronto Socorro João Paulo II - HEPSJPII e Assistência Médica Intensiva - AMI, Centro de Diálise Ariquemes - CDA, Policlínica Osvaldo Cruz - POC, Centro de Medicina Tropical de Rondônia - CEMETRON e Hospital Regional de Extrema - HRE</t>
+  </si>
+  <si>
+    <t>0036.052658/2023-94</t>
+  </si>
+  <si>
+    <t>Locação de Imóvel, visando atender as necessidades da Gerência de Regulação Estadual do SUS (CAIS-GERREG) em Coordenadoria de Regulação de Acesso ao Serviço de Saúde (SESAU-CREG), localizado no Município de Porto Velho/RO.</t>
+  </si>
+  <si>
+    <t>0036.011653/2025-73</t>
+  </si>
+  <si>
+    <t>Contratação de empresa objetivando a participação dos servidores desta Secretaria de Estado da Saúde no II Fórum Concessões e PPPs em Infraestrutura Social, a realizar-se no dia 02 de abril de 2025, na cidade de São Paulo-SP.</t>
+  </si>
+  <si>
+    <t>0036.008982/2025-37</t>
+  </si>
+  <si>
+    <t>Contratação de empresa objetivando a participação dos servidores desta Secretaria de Estado da Saúde no curso híbrido em emendas parlamentares, de forma presencial, nos dias 19, 20 a 21 de março de 2025 na cidade de Porto Velho/RO.</t>
+  </si>
+  <si>
+    <t>0036.013191/2025-29</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviço de engenharia clínica, incluindo serviço de gerenciamento de equipamentos manutenção corretiva, preventiva, preditiva e calibração dos equipamentos com reposição de peças e acessórios, para atender as necessidades do Hospital Regional de Cacoal - HRC, Hospital de Urgência e Emergência de Cacoal - HEURO e Hospital Regional de São Francisco do Guaporé - HRSFG, de forma emergencial por um período de 1 (um) ano conforme a Lei Federal 14.133/2021, ou até a finalização do processo licitatório 0036.013189/2025-50.</t>
+  </si>
+  <si>
+    <t>0036.010551/2025-31</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada na Prestação de Serviços de manutenção preventiva e corretiva com fornecimento de peças, executada de forma contínua nos equipamentos da Lavanderia Central do Hospital de Base Dr. Ary Pinheiro - HB e Hospital Regional de Cacoal - HRC, de forma emergencial, por um período de até 1 (um) ano, ou até a finalização do processo licitatório nº 0036.517278/2021-47, conforme Documento de Oficialização de Demanda nº 2/2025/COHREC-NLAV (0058030036) e Documento de Oficialização de Demanda nº 2/2025/HB-NLAV (0058231441).</t>
+  </si>
+  <si>
+    <t>0036.014723/2025-45</t>
+  </si>
+  <si>
+    <t>Contratação de empresa objetivando a participação de 07 (sete) servidores desta Secretaria Estadual de Saúde de Rondônia no 6º Congresso Brasileiro de Compras Públicas, de forma presencial nos dias 25 a 28 de agosto de 2025, em Foz do Iguaçu/PR.</t>
+  </si>
+  <si>
+    <t>0036.037359/2024-19</t>
+  </si>
+  <si>
+    <t>Contratação de empresa(s) especializada(s) em estudos prévios, serviços técnicos, perfurações e instalação de poços tubulares profundos, com a finalidade de atender ao abastecimento público de água potável nas unidades de saúde vinculadas à SESAU.</t>
+  </si>
+  <si>
+    <t>0036.036175/2024-23</t>
+  </si>
+  <si>
+    <t>Registro de preço para eventual contratação de serviços comuns de engenharia e insumos para manutenção predial das unidades de saúde e prédios sob a tutela da Secretaria de Estado da Saúde de Rôndonia (SESAU-RO), conforme especificações técnicas estabelecidas no Sistema Nacional de Pesquisa de Custos e Índices da Construção Civil(SINAPI).</t>
+  </si>
+  <si>
+    <t>0036.369652/2020-19</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada em Serviços de manutenção preventiva e corretiva em Subestação Abaixadora e Grupos Geradores, com fornecimento de quaisquer componentes e/ou peças novas e originais, para atender o Hospital de Base Dr. Ary Pinheiro - HBAP, de forma contínua, por um período de 60 (sessenta) meses, conforme Art. 106 da Lei Federal nº 14.133 de 1° de abril de 2021.</t>
+  </si>
+  <si>
+    <t>0053.002493/2024-82</t>
+  </si>
+  <si>
+    <t>contratação de empresa especializada na prestação de serviços de vigilância e segurança patrimonial ostensiva (armada e desarmada).</t>
+  </si>
+  <si>
+    <t>0036.028242/2024-36</t>
+  </si>
+  <si>
+    <t>Registro de Preços para contratação de empresa para fornecimento, sob demanda, de solução de segurança para proteção de e-mail, Endpoint e proteção contra ataques avançados, incluindo instalação, configuração, repasse de conhecimento, suporte técnico e garantia, para atender às necessidades da Secretaria de Estado da Saúde de Rondônia, pelo período de 12 meses</t>
+  </si>
+  <si>
+    <t>0036.005756/2024-13</t>
+  </si>
+  <si>
+    <t>Registro de Preço para aquisição de servidor de Hiperconvergência - CTI</t>
+  </si>
+  <si>
+    <t>0036.001625/2024-67</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada para prestação de serviços de coleta externa, transporte e destinação final dos resíduos sólidos (grupo D)</t>
+  </si>
+  <si>
+    <t>0036.057526/2023-59</t>
+  </si>
+  <si>
+    <t>SRP - Aquisição de itens de hotelaria hospitalar</t>
+  </si>
+  <si>
+    <t>Registro de Preço para futura e eventual contratação de empresa de serviços de soluções e tecnologia, visando modernização dos serviços de atenção à saúde pública</t>
+  </si>
+  <si>
+    <t>0036.006890/2023-51</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em construção e reforma para realização de revitalização do bloco berçário do Hospital de Base Dr. Ary Pinheiro - HBAP.</t>
+  </si>
+  <si>
+    <t>0036.060058/2022-19</t>
+  </si>
+  <si>
+    <t>REFORMA DA COBERTURA DO ESTACIONAMENTO DE AMBULÂNCIAS DO HRC CACOAL</t>
+  </si>
+  <si>
+    <t>0036.018613/2020-48</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em serviços de manutenção por chamado, com fornecimento de peças, de forma contínua, aos equipamentos de empilhadeira, empilhadeira elétrica, empilhadeira manual, carrinho de carga horizontal, carrinho de carga vertical, carrinhos, paleteira e transpaleteira</t>
+  </si>
+  <si>
+    <t>0036.093613/2022-99</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada para realização de CONTROLE E MONITORAMENTO DE ÁGUA POTÁVEL, COM ANÁLISE PERIÓDICA DAS ÁGUAS, LIMPEZA E DESINFECÇÃO do Hospital de Emergência e Pronto Socorro João Paulo II - HEPSJP II, AMI, HBAP, HICD HRE e COHREC desta Secretaria de Estado da Saúde de Rondônia – SESAU/RO, por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>Locação de imóvel comercial para instalações da Coordenação Estadual de Nutrição Enteral - CENE, conforme requisitos mínimos exigidos, afim de atender a Secretaria Estado de Saúde de Rondônia - SESAU/RO, por um período de 12 (doze) meses, com possibilidade de prorrogação.</t>
+  </si>
+  <si>
+    <t>0036.494502/2021-15</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada na Prestação de Serviços de Coleta Interna e Externa, Recolhimento, Transporte, Tratamento e Destinação Final dos Resíduos de Serviços de Saúde – RSS (Grupos A, B, E e eventualmente C), de forma contínua, visando atender as Unidades da SESAU, pelo período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.051069/2023-99</t>
+  </si>
+  <si>
+    <t>Registro de Preços para a Contratação de Empresa Especializada na Prestação de Serviços de festividades/homenagens, visando atender as necessidades da Secretaria do Estado da Saúde - SESAU/RO.</t>
+  </si>
+  <si>
+    <t>0046.000875/2024-61</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada na Prestação de Serviços de Coleta Interna e Externa, Recolhimento, Transporte, Tratamento e Destinação Final dos Resíduos de Serviços de Saúde – RSS (Grupos A, B e E), de forma Emergencial, visando atender o Laboratório de Fronteira de Rondônia (LAFRON) e Hospital Regional de Extrema (HRE), pelo período de 1 (Um) ano ou até que se conclua o processo licitatório 0036.494502/2021-15.</t>
+  </si>
+  <si>
+    <t>0054.001524/2024-78</t>
+  </si>
+  <si>
+    <t>Contratação da Empresa Especializada na Prestação de Serviços de Coleta Interna e Externa, Transporte, Tratamento (incineração ou autoclavagem e incineração) e Destinação Final dos Resíduos de Serviços de Saúde RSS (Grupos A, B, E e eventualmente C), de forma contínua, para atender o Centro de Reabilitação de Rondônia de forma contínua.</t>
+  </si>
+  <si>
+    <t>0053.002612/2024-05</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa especializada, no ramo de engenharia hospitalar, para prestação de serviços de manutenção preditiva, preventiva e corretiva, com fornecimento de peças, materiais de consumo, insumos e mão de obra, para os sistemas, equipamentos e instalações do Centro de Medicina Tropical de Rondônia (CEMETRON)</t>
+  </si>
+  <si>
+    <t>0036.032378/2024-41</t>
+  </si>
+  <si>
+    <t>Licitatório Manutenção de ar condicionado</t>
+  </si>
+  <si>
+    <t>0053.505372/2021-45</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviço de limpeza de caixa d'água, visando atender as necessidades do Centro de Medicina Tropical de Rondônia - CEMETRON, Hospital Regional de São Francisco do Guaporé - HRSFG e Centro de Reabilitação de Rondônia - CERO, por um período de 60 meses, prorrogaéveis por igual período.</t>
+  </si>
+  <si>
+    <t>0036.028372/2024-79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locação de imóvel com o objetivo comportar bens de patrimônio público, garantindo assim a segurança, organização e gestão apropriada dos materiais e bens sob a responsabilidade da Gerência de Transporte e Abastecimento (GAT), Coordenadoria de engenharia e Arquitetura em Saúde (CEAS) e Coordenadoria de Almoxarifado e Patrimônio (CAP), pelo período de 1 (um) ano, podendo ser prorrogado sucessivamente, respeitada a vigência máxima decenal, conforme previsto no art. 107 da Lei nº 14.133/2021. 
+</t>
+  </si>
+  <si>
+    <t>0036.006969/2025-43</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços contínuos de recepção, com emprego de mão-de-obra qualificada e habilitada, bem como fornecimento dos materiais necessários à execução do serviço, visando atender ao Hospital Infantil Cosme e Damião, pelo período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0049.000906/2023-72</t>
+  </si>
+  <si>
+    <t>Locação de Grupo Gerador para o HB - Licitatório</t>
+  </si>
+  <si>
+    <t>0036.013541/2025-57</t>
+  </si>
+  <si>
+    <t>Seminário- DOMINANDO AS CONTRATAÇÕES PÚBLICAS: Tendências e Novidades da Lei 14.133/2021, a ser realizado nos dias 23, 24 e 25 de abril de 2025 (curso)</t>
+  </si>
+  <si>
+    <t>0036.009983/2025-07</t>
+  </si>
+  <si>
+    <t>(curso) - 20º Congresso Brasileiro de Gestão, Projetos e Liderança realizado pelo Project Management Institute - PMI, sendo 5 (cinco) servidores de forma presencial, nos dias 22 e 23 de Abril de 2025 na cidade de Fortaleza/CE.</t>
+  </si>
+  <si>
+    <t>0036.058703/2024-03</t>
+  </si>
+  <si>
+    <t>Inexigibilidade - Contratação de empresa especializada em manutenção preventiva e corretiva com fornecimento de peças, executada de forma contínua em Ventiladores Pulmonares da marca MAGNAMED, para atender as necessidades Hospital Regional de Cacoal - HRC e Hospital Infantil Cosme e Damião-HICD/RO.</t>
+  </si>
+  <si>
+    <t>0063.002259/2023-55</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa para prestação do Serviço de alimentação para atender os pacientes das oficinas terapêuticas e grupo terapêuticos do Centro de Atenção Psicossocial Madeira Mamoré - CAPS II, de forma contínua, 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.057140/2024-28</t>
+  </si>
+  <si>
+    <t>Emergencial - Controle e monitoramento de água potável, com análise periódica das águas, limpeza e desinfecção visando atender as unidades hospitalares: Hospital de Emergência e Pronto Socorro João Paulo II - JP II</t>
+  </si>
+  <si>
+    <t>0036.017798/2025-88</t>
+  </si>
+  <si>
+    <t>curso "Contrato de Gestão: planejamento, celebração, execução e prestação de contas", realizado pelo Grupo Orzil, sendo 5 (cinco) servidores de forma presencial, nos dias 15 e 16 de maio de 2025, na cidade de Brasília/DF.</t>
+  </si>
+  <si>
+    <t>0036.017208/2025-17</t>
+  </si>
+  <si>
+    <t>Emergencial - prestação de Serviço de Higienização e Limpeza Hospitalar, Laboratorial e Ambulatorial - Higienização, Conservação, Desinfecção de Superfícies e Mobiliários e Recolhimento dos resíduos Grupo "D", visando atender as necessidades do Hospital Regional de Extrema HRE</t>
+  </si>
+  <si>
+    <t>0036.001619/2025-91</t>
+  </si>
+  <si>
+    <t>(curso) CAPACITAÇÃO E APERFEIÇOAMENTO, para participação de 04 (quatro) servidores no Curso de Como Elaborar Concurso Público e Processo Seletivo Simplificado, dos dias 28 a 30 de abril de 2025 em Brasília/DF</t>
+  </si>
+  <si>
+    <t>0049.070072/2022-81</t>
+  </si>
+  <si>
+    <t>Manutenção preventiva e corretiva com fornecimento de peças, executada de forma contínua em equipamentos médico hospitalares da marca Drager, visando atender às necessidades do Hospital de Base Dr. Ary Pinheiro - HBAP, Centro de Medicina Tropical do Estado de Rondônia - CEMETRON e Hospital de Retaguarda de Rondônia-HRRO, desta Secretaria de Estado da Saúde de Rondônia – SESAU-RO, por um período de 12 (doze) meses​.</t>
+  </si>
+  <si>
+    <t>0036.021467/2023-81</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Fornecedora dos Serviços de Higienização e Limpeza Hospitalar, Laboratorial e Ambulatorial - Higienização, Conservação, Desinfecção de Superfícies e Mobiliários e Coleta interna dos resíduos dos Grupos A, D e E para atender o Centro de Diálise de Ariquemes, em caráter contínuo, por um período de 60 (sessenta) meses, conforme Art. 106 da Lei Federal nº 14.133 de 1° de abril de 2021.</t>
+  </si>
+  <si>
+    <t>0036.024410/2024-14</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços de Construção da base do reservatório em concreto armado (sobre o solo); fornecimento e instalação de cisterna pré-fabricada com capacidade de 10.000 litros, tipo Tanque, sobre a base (não aterrado), com extravasor, tubos, conexões, entrada e saída de água; conjunto motobomba para recalque tipo centrífuga de 1 CV para comprimento máximo de 25 metros; instalações de quadro elétrico com comprimento máximo de 15 metros, cabos elétricos, disjuntor e automação, conforme Decreto nº 29.252 de 04 de julho de 2024, pelo período de até 1 (um) ano.</t>
+  </si>
+  <si>
+    <t>0036.018638/2024-75</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada no fornecimento de gás especial HÉLIO LÍQUIDO, visando atender o Hospital Regional de Cacoal (HRC), com abastecimento conforme a necessidade pontual da unidade, pelo período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.042461/2023-47</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de Serviços de Manutenção Preventiva e Corretiva em Grupo Gerador, com fornecimento de quaisquer componentes e/ou troca de peças novas e originais, de forma contínua para atender ao Hospital Regional de Cacoal - HRC e Hospital de Urgencia e Emergência Regional de Cacoal - HEURO, por um período de 5 (cinco) anos, nos moldes do Art. 106º da Lei Federal n.º 14.133 de 1º Abril de 2021.</t>
+  </si>
+  <si>
+    <t>0036.017639/2024-01</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços de desinsetização; desratização, descupinização e desalojamento de pombos e morcegos, como também o combate aos mosquitos e larvas em áreas internas e externas nas dependências da Coordenadoria de Gestão e Assistência Farmacêutica - CGAF, Coordenadoria Nutrição Enteral - CENE, Conselho Estadual de Saúde - CES, Comissão Intergestores Bipartite – CIB, Centro de Atenção Psicossocial - CAPS, Coordenadoria de Almoxarifado e Patrimônio - CAP, de forma contínua, por um período de 60 (sessenta) meses.</t>
+  </si>
+  <si>
+    <t>0036.027422/2023-10</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em serviços de Controle de Vetores e Pragas Urbanas, englobando: desinsetização, desratização, descupinização e desalojamento de pombos e morcegos, bem como o combate a mosquitos, lavras e carrapatos, para atender as necessidades das unidades pertencentes a esta Secretaria de Estado da Saúde - SESAU/RO, por um período de 5 (cinco) anos.</t>
+  </si>
+  <si>
+    <t>0036.033164/2024-91</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada na prestação de Serviços de Engenharia Clínica, Incluindo Serviço de Gerenciamento de Equipamentos, Manutenção Corretiva, Preventiva, Preditiva e Calibração dos Equipamentos com Reposição de Peças, Acessórios e Insumos para atender ao Hospital Estadual e Pronto Socorro João Paulo II e Assistência Médica Intensiva - AMI, Centro de Dialise Vale do Jamari - CDVJ e Hospital Regional de Extrema HRE.</t>
+  </si>
+  <si>
+    <t>0062.000185/2023-22</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em Serviços de Higienização e Limpeza Hospitalar e assemelhadas, Laboratorial e Ambulatorial - Higienização, Conservação, Desinfecção de Superfícies e Mobiliários e Recolhimento Interno dos Resíduos do Grupo “D”, visando à obtenção de adequadas condições de salubridade e higiene em dependências da Policlínica Oswaldo Cruz - POC, Laboratoriais e Ambulatoriais do Laboratório Estadual de Patologia e Análises Clínicas - LEPAC e Hospital Regional de Extrema - HRE, pelo período de 60 (sessenta) meses de forma contínua.</t>
+  </si>
+  <si>
+    <t>0036.045810/2024-63</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa para Prestação de Serviço de Levantamento Radiométrico, Controle de Qualidade e Teste de Radiação de Fuga, com Emissão de Laudos para atender o Hospital Regional de São Francisco do Guaporé-HRSFG e Hospital Regional de Buritis-HRB, por um período de 5 (cinco) anos.</t>
+  </si>
+  <si>
+    <t>0036.031073/2024-11</t>
+  </si>
+  <si>
+    <t>Contratação, por Registro de Preço, de empresa(s) especializada(s) na prestação de serviços de Estudo Prévio/Análise, Adequação, Manutenção, Limpeza e Desinfecção em poços tubulares para atender às necessidades das unidades Laboratório Central de Saúde Pública - LACEN, Centro de Reabilitação de Rondônia - CERO, Assistência Médica Intensiva - AMI, Centro de Medicina Tropical de Rondônia - CEMETRON, Hospital Retaguarda de Rondônia - HRRO, Hospital Regional Cacoal - HRC, Hospital São Francisco do Guaporé - HRSFG, Hospital Regional de Extrema - HRE e Laboratório de Fronteira de Rondônia - LAFRON, por um período de 1 (um) ano, nos moldes da Lei Federal n.º 14.133 de 1º Abril de 2021..</t>
+  </si>
+  <si>
+    <t>0036.003690/2024-27</t>
+  </si>
+  <si>
+    <t>Contratação empresa especializada em locação de Outdoor de 9m x 3m e impressão colorido em serigrafia, com instalação e exibição conforme campanhas definidas pela coordenadoria de doenças e condições crônicas - CDCC/SDTECS/SESAU, sendo de responsabilidade da contratante a criação e envio da arte da campanha para a empresa vencedora. Considerando sempre o período exibição de 2 BI-SEMANAS de forma continua, por cada campanha, sendo 5 campanhas a serem implementadas no decorrer do ano.</t>
+  </si>
+  <si>
+    <t>0036.037259/2023-01</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços de locação do sistema de tratamento de água por osmose reversa duplo passo para serviços de terapia renal substitutiva com manutenção, operação e controle dos pacientes crônicos em tratamento de hemodiálise no Centro de Diálise do Vale do Jamari - CDVJ, com capacidade de abastecimento para 38 (trinta e oito) máquinas de hemodiálise em funcionamento, e locação da estação de tratamento de efluente de tratamento hemodiálitico para redução de DBO e DQO tornando-o apto a ser destinado a lançamento em coletor de rede pluvial e ou em corpo hídrico em conformidade a legislação vigente /Conama – Resolução nº 430, de 13 de Maio de 2011, por um período de 5 (cinco) anos.</t>
+  </si>
+  <si>
+    <t>0036.547611/2021-42</t>
+  </si>
+  <si>
+    <t>Registro de Preços para futura e eventual aquisição de Rouparia Hospitalar (Enxoval), visando atender as Unidades de Saúde do Hospital Infantil Cosme e Damião - HICD; Hospital Regional São Francisco do Guaporé - HRSFG, Complexo Hospitalar Regional de Cacoal - COHREC, Hospital de Base Doutor Ary Pinheiro - HBAP, Centro de Medicina Tropical do Estado de Rondônia - CEMETRON/ANEXO JBS, Hospital Regional de Buritis - HRB, Hospital e Pronto Socorro João Paulo II - JP II, Centro de Diagnóstico por Imagem de Rondônia - CDI; Hospital Regional de Extrema - HRE e Assistência Médica Intensiva - AMI-24h., por um Período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.061224/2024-66</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em prestação de serviços de manutenção preventiva e corretiva, de forma continua, com fornecimento e reposição de peças, acessórios e componentes eletrônicos dos Sistemas de Climatização, de expansão indireta CHILLER com capacidade de 150 TR e 9,92 TR e de expansão direta através Condicionador de Ar Tipo Self Contained com Condensador a Ar Remoto de 7,5 TR, conforme dados técnicos em anexo, para atender o Hospital de Base Dr. Ary Pinheiro, por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.010175/2025-84</t>
+  </si>
+  <si>
+    <t>Contratação Emergencial de Empresa Especializada na Prestação de Serviços de coleta interna e externa, transporte, tratamento e destinação final dos resíduos de Serviços de Saúde - RSS (Grupos A, B e E) de forma contínua, para atender o Hospital de Retaguarda e Rondônia, por um período de 1 (um) ano, ou até que se conclua o Processo licitatório 0036.494502/2021-15 conforme estabelecido nos moldes da Lei nº 14.133/2021.</t>
+  </si>
+  <si>
+    <t>0036.004010/2025-73</t>
+  </si>
+  <si>
+    <t>Contratação emergencial de Empresa Especializada em serviços de Controle de Vetores e Pragas Urbanas englobando: desinsetização, desratização, descupinização e desalojamento de pombos e morcegos, bem como o combate a mosquitos e lavras em atendimento ao Hospital Infantil Cosme e Damião - HICD, Hospital Regional de São Francisco do Guaporé - HRSF, Hospital de Base Dr. Ary Pinheiro - HBAP, Hospital e Pronto Socorro João Paulo II - HPJPII, Assistência Médica Interdisciplinar - AMI, Hospital Regional de Cacoal - HRC, Policlínica Oswaldo Cruz - POC, Centro de Reabilitação de Rondônia - CERO, Laboratório de Fronteira- LAFRON, Laboratório Central de Saúde Pública de Rondônia - LACEN, Centro de Diagnóstico por Imagem de Rondônia - CDI, Centro de Medicina Tropical - CEMETRON, Hospital Regional de Extrema - HRE, Hospital de Retaguarda de Rondônia - HRRO e Hospital Regional de Buritis - HRB, por um período de 1 (um) ano, ou até que se conclua o processo licitatório 0036.027422/2023-10.</t>
+  </si>
+  <si>
+    <t>0036.017945/2025-10</t>
+  </si>
+  <si>
+    <t>Contratação de manutenção corretiva dos equipamentos Arco Cirúrgicos da marca VMI disponíveis na unidade Hospital de Base Dr. Ary Pinheiro</t>
+  </si>
+  <si>
+    <t>Licitatório SRP</t>
+  </si>
+  <si>
+    <t>Contratação, por Registro de Preço, de empresa(s) especializada(s) na prestação de serviços de Estudo Prévio/Análise, Adequação, Manutenção, Limpeza e Desinfecção em poços tubulares para atender às necessidades das unidades Laboratório Central de Saúde Pública - LACEN, Centro de Reabilitação de Rondônia - CERO, Assistência Médica Intensiva - AMI, Centro de Medicina Tropical de Rondônia - CEMETRON, Hospital Retaguarda de Rondônia - HRRO, Hospital Regional Cacoal - HRC, Hospital São Francisco do Guaporé - HRSFG, Hospital Regional de Extrema - HRE e Laboratório de Fronteira de Rondônia - LAFRON, por um período de 1 (um) ano, nos moldes da Lei Federal n.º 14.133 de 1º Abril de 2021.</t>
+  </si>
+  <si>
+    <t>0049.004223/2024-75</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços médicos complementares especializados na área de Pediatria e Neonatologia, com a finalidade de atender a demanda de usuários da saúde pública recém-nascidos do setor de neonatologia nas dependências do Hospital de Base Dr. Ary Pinheiro, por um período de 12 meses</t>
+  </si>
+  <si>
+    <t>0036.003868/2024-30</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em serviços médicos de anestesiologia, visando atender todas as unidades estaduais</t>
+  </si>
+  <si>
+    <t>0049.013605/2023-17</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços médicos complementares especializados na área de nefrologia, para atender as demandas dos usuários da saúde pública nas dependências do Hospital de Base Dr. Ary Pinheiro (HBAP), Assistência Médica Intensiva (AMI), e Centro de Medicina Tropical de Rondônia (CEMETRON), pertencentes a Secretaria de Estado da Saúde - SESAU, de forma contínua, pelo período de 12 meses.</t>
+  </si>
+  <si>
+    <t>0036.005381/2024-91</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em disponibilização de médicos intensivistas pediátricos em regime de plantão, com objetivo de atender a Unidade de Terapia Intensiva Pediátrica - UTIP do Hospital Infantil Cosme e Damião - HICD, por um período de 1 (um) ano .</t>
+  </si>
+  <si>
+    <t>0036.006652/2023-45</t>
+  </si>
+  <si>
+    <t>Contratação de serviços/procedimentos inseridos nos subgrupos de Diagnóstico em Laboratório Clínico, com a seguinte forma de organização: Exames Bioquímicos, Hematológicos e Hemostasia, Sorológicos e Imunológicos, Colprológicos, Uroanálise, Hormonais, Toxicológicos ou de Monitorização Terapêutica, Microbiológicos, Genética, Imunohistoquímica, Imunohematológicos e Citologia em outros Líquidos Biológicos e Anatomopatologia; inseridos na Tabela de Procedimentos do Sistema Único de Saúde (SIGTAP) editada pelo Ministério de Saúde, abrangendo as áreas respectivas descritas no edital, em âmbito ambulatorial e hospitalar 24 (vinte e quatro) horas por dia com suporte para as UTI’S, Leitos Clínicos e Ambulatoriais, de forma contínua, por um período de 12 (doze) meses. HRC, HEURO e HRE.</t>
+  </si>
+  <si>
+    <t>0036.100288/2022-28</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços médicos complementares especializados na área de cardiologia e neurologia com especialização em hemodinâmica, de forma contínua, com a finalidade de atender a demanda de usuários da saúde pública nas dependências do Hospital de Base Dr. Ary Pinheiro.</t>
+  </si>
+  <si>
+    <t>0036.024936/2024-02</t>
+  </si>
+  <si>
+    <t>Contratação de profissionais médicos para atendimento em Cirurgia Geral, bem como subespecilidades cirúrgicas, quando não disponível no Complexo de Cacoal, nas demandas dos usuários da saúde pública, nas dependências do Hospital de Urgência e Emergência Regional de Cacoal - HEURO, pertencente a Secretaria de Estado da Saúde - SESAU, pelo período de até 12 meses, a partir da primeira assinatura contratual, em conformidade com o disposto no Art. 107, da Lei 14.133 de 1º de abril de 2021.</t>
+  </si>
+  <si>
+    <t>0036.042116/2023-11</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em serviços de Neurologia Cirúrgica Hospitalar e Ambulatorial, Neurologia Clínica e Neurologia Pediátrica (atendimento inicial, evolução diária, cirurgias, alta hospitalar e atendimento ambulatorial, Exames complementares, neurofisiologia e neurointervecionismo ), sob sistema de comodato com fornecimento de insumos</t>
+  </si>
+  <si>
+    <t>0036.037319/2024-69</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de serviços médicos complementares especializados na área de Pediatria e Neonatologia, com a finalidade de atender a demanda de usuários da saúde pública recém-nascidos do setor de neonatologia nas dependências do Hospital Regional de Cacoal (HRC) pelo período de 12 meses</t>
+  </si>
+  <si>
+    <t>0036.044438/2024-78</t>
+  </si>
+  <si>
+    <t>Contratação de estabelecimento de saúde especializado à realizar transplante renal de doador falecido e intervivo, devidamente credenciada na Central Estadual de Transplante e autorizada pelo Sistema Nacional de Transplante - Ministério da Saúde, para a realização de procedimentos relacionados a captação e ao transplante de rins em todas as suas fases (pré-transplante, transplante e pós-transplante incluindo internações de intercorrências no pós transplante renal seja de doadores vivos e/ou falecidos), a fim de atender a demanda de pacientes com falência renal crônica, com base na Constituição Federal, arts. 37, XXIII e 199, na Lei 8080/90, aplicando-se subsidiariamente na Lei nº 14.133 de 1º de abril de 2021 e suas alterações, conforme Documento de Oficialização de Demanda nº 87 (0052858164).</t>
+  </si>
+  <si>
+    <t>0036.058593/2024-71</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em prestação de Serviços Médicos na área de Ortopedia e Traumatologia, de Média e Alta Complexidade, de forma contínua, com a finalidade de atender demanda em ortopedia de usuários da saúde pública do Hospitalar Regional de Cacoal de usuários da saúde pública do Hospitalar Regional de Cacoal, que atende toda a população da MACRO II de Saúde de Rondônia, para atendimento pelo período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.060770/2024-80</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada na prestação de Serviços Médicos especializados na área de Ortopedia e Traumatologia, de Média e Alta Complexidade, de forma contínua, com a finalidade de atender demanda em ortopedia de usuários da saúde pública do Hospitalar Regional de Cacoal, que atende toda a população da MACRO II de Saúde de Rondônia, por um período de 01 (um) ano, podendo ser prorrogado conforme previsto nos Art. 106 e 107 da lei n.º 14.133</t>
+  </si>
+  <si>
+    <t>0046.000902/2024-03</t>
+  </si>
+  <si>
+    <t>Contratação de fornecimento de insumos laboratoriais, para realização de análise de águas envasadas (água mineral) para consumo humano atendendo o Setor de Produtos e Meio Ambiente do LACEN RO por um período de 12 meses conforme detalhamento do objeto apresentado abaixo.</t>
+  </si>
+  <si>
+    <t>0046.000720/2024-24</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada no fornecimento continuado de (Kits/Reagentes) com todo sistema/solução de automação laboratorial em regime de "COMODATO", para realização de exames de biologia molecular (PCR Multiplex) em testagem rápida silmutânea para multialvos ou painéis sindrômicos (vírus, bactérias, fungos, parasitas e genes de resistência), para atender ao Laboratório Central de Saúde Pública do Estado de Rondônia - LACEN/RO, pertencente ao quadro da Secretaria de Estado da Saúde – SESAU/RO, de forma continuada.</t>
+  </si>
+  <si>
+    <t>0036.014212/2024-42</t>
+  </si>
+  <si>
+    <t>Aquisição de Equipamentos Laboratoriais, para atendimento ao Laboratório Central de Saúde Pública do Estado de Rondônia - LACEN/RO e a sua rede de laboratórios (filiais), cujo recurso é proveniente e específico do Programa: NOVO PAC - ESTRUTURAÇÃO DA VIGILÂNCIA LABORATORIAL EM SAÚDE E AMBIENTES E RESPOSTA AS EMERGÊNCIAS EM SAÚDE, com o Componente: ESTRUTURAÇÃO DE LABORATÓRIOS DA REDE NACIONAL DE LABORATÓRIOS EM SAÚDE PÚBLICA</t>
+  </si>
+  <si>
+    <t>0046.000368/2024-27</t>
+  </si>
+  <si>
+    <t>Aquisição de insumos para realização de sequenciamento genético de amostras de vírus e bactérias para atender o laboratório de virologia do LACEN/RO.</t>
+  </si>
+  <si>
+    <t>0036.008654/2025-31</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada no Fornecimento de Sistema de Automação Laboratorial (equipamentos) e todos os materiais, reagentes e acessórios necessários à realização de TESTES BIOQUIMICA, com vistas no atendimento às necessidades da Secretaria de Estado da Saúde - SESAU.</t>
+  </si>
+  <si>
+    <t>0036.008711/2025-81</t>
+  </si>
+  <si>
+    <t>Contratação de Empresa Especializada no Fornecimento de Sistemas de Automação Laboratorial (equipamentos) e todos os materiais, reagentes e acessórios necessários à realização de TESTES de Gasometria, com vistas no atendimento às necessidades das unidades hospitalares, da Secretaria de Estado da Saúde - SESAU.</t>
+  </si>
+  <si>
+    <t>0050.010429/2024-03</t>
+  </si>
+  <si>
+    <t>Contratação de plantões de médico vascular para atendimentos de pacientes e realização de procedimentos cirúrgicos nas depêndencias do HEURO, HRC, JPII, HBAP, HICD, CEMETROM E POC</t>
+  </si>
+  <si>
+    <t>0036.010062/2025-89</t>
+  </si>
+  <si>
+    <t>0036.006167/2025-33</t>
+  </si>
+  <si>
+    <t>Contratação de serviços/procedimentos inseridos nos subgrupos de Diagnóstico em Laboratório Clínico, com a seguinte forma de organização: Exames Bioquímicos, Hematológicos e Hemostasia, Sorológicos e Imunológicos, Colprológicos, Uroanálise, Hormonais, Toxicológicos ou de Monitorização Terapêutica, Microbiológicos, Genética, Imunohistoquímica, Imunohematológicos e Citologia em outros Líquidos Biológicos e Anatomopatologia; inseridos na Tabela de Procedimentos do Sistema Único de Saúde (SIGTAP) editada pelo Ministério de Saúde, abrangendo as áreas respectivas descritas no edital, em âmbito ambulatorial e hospitalar 24 (vinte e quatro) horas por dia com suporte para as UTI’S, Leitos Clínicos e Ambulatoriais, de forma contínua, por um período de 12 (doze) meses. HRC, HEURO.</t>
+  </si>
+  <si>
+    <t>0036.061042/2024-95</t>
+  </si>
+  <si>
+    <t>Seleção Pública de Entidade Privada, sem fins lucrativos, previamente qualificada como Organização Social de Saúde – OSS no Estado de Rondônia, para a celebração de Contrato de Gestão, com o objetivo fomentar a absorção do gerenciamento, operacionalização e execução dos serviços de saúde do Hospital de Base Dr. Ary Pinheiro - HBAP, por meio da gestão compartilhada.</t>
+  </si>
+  <si>
+    <t>Organização Social</t>
+  </si>
+  <si>
+    <t>0036009792/2025-37</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada para o gerenciamento da estrutura física e de pessoal, bem como a execução de serviços profissionais na área médico-hospitalar, incluindo o fornecimento de bens e insumos necessários para o pleno funcionamento das unidades, visando assegurar o atendimento integral e contínuo à populaççao da região MACRO II, compreendidos pelos hospitais HEURO, HRC e HRSFG</t>
+  </si>
+  <si>
+    <t>0036.003630/2024-12</t>
+  </si>
+  <si>
+    <t>Registro de Preços para futura e eventual aquisição de Balança Antropométrica e de Uso Geral, visando atender as Unidades de Saúde do Hospital de Base Dr. Ary Pinheiro, Hospital Regional de Buritis, Hospital Regional de São Francisco, Hospital de Urgência e Emergência Regional de Cacoal - HEURO, Hospital Regional de Cacoal - HRC, Hospital Regional de Extrema - HRE, Assistência Médica Intensiva - AMI, Hospital Infantil Cosme e Damião - HICD, Policlínica Oswaldo Cruz - POC, Hospital de Retaguarda de Rondônia - HRRO, Hospital Estadual e Pronto Socorro João Paulo II, por um Período de 1 (um) ano.</t>
+  </si>
+  <si>
+    <t>0036.001261/2025-04</t>
+  </si>
+  <si>
+    <t>REGISTRO DE PREÇO PARA FUTURA E EVENTUAL AQUISIÇÃO DE BRINQUEDOS, MATERIAIS EDUCATIVOS E PEDAGÓGICOS</t>
+  </si>
+  <si>
+    <t>0036.002097/2025-44</t>
+  </si>
+  <si>
+    <t>Registro de Preço para a futura e eventual aquisição de CABOS E ACESSÓRIOS PARA EQUIPAMENTOS MÉDICO-HOSPITALARES, a fim de atender as unidades de saúde vinculadas à Secretaria de Estado da Saúde de Rondônia"</t>
+  </si>
+  <si>
+    <t>0036.002590/2025-64</t>
+  </si>
+  <si>
+    <t>Registro de preços para aquisição de generos alimentícios (café e açucar) para suprir as necessidades das unidades de saúde vinculadas a Secretaria de Estado da Saúde - SESAU/RO, por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0050.072218/2022-94</t>
+  </si>
+  <si>
+    <t>Registro de Preços para futura e eventual aquisição de aparelhos de Cardioversor/Desfibrilador visando atender as necessidades das Unidades da Secretaria do Estado da Saúde de Rondônia - SESAU, por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0049.073242/2022-80</t>
+  </si>
+  <si>
+    <t>Aquisição de carros coletores, visando atender as necessidades das Unidades da Secretaria de Estado da Saúde de Rondônia - SESAU/RO, por um período de 12 meses</t>
+  </si>
+  <si>
+    <t>0036.000381/2025-86</t>
+  </si>
+  <si>
+    <t>Registro de Preços para aquisição de Carros Coletores, Suporte para Hamper, Calandra, Coifa e Triturador de Tecidos, visando atender as necessidades das unidades da Secretaria de Estado da Saúde do Estado de Rondônia - SESAU/RO, por um período de 12 (doze) meses</t>
+  </si>
+  <si>
+    <t>0036.024493/2024-41</t>
+  </si>
+  <si>
+    <t>Registro de preços para aquisição de CENTRAL DE MONITORAMENTO COM MONITORES, GATEWAY E VENTILADORES, para atender às unidades de saúde da SESAU/RO</t>
+  </si>
+  <si>
+    <t>0036.000533/2025-41</t>
+  </si>
+  <si>
+    <t>Aquisição de coffe break</t>
+  </si>
+  <si>
+    <t>0036.041915/2024-43</t>
+  </si>
+  <si>
+    <t>Bens de consumo comum: Colchões Hospitalares, Travesseiros e Tolos de Posicionamento, destinados a atender as necessidades das unidades de saúde estaduais, tanto hospitalares quanto ambulatoriais, da Secretaria de Estado da Saúde (SESAU).</t>
+  </si>
+  <si>
+    <t>0066.210706/2021-56</t>
+  </si>
+  <si>
+    <t>Registro de preços para futura e eventual aquisição de ferramentas e materiais para manutenção predial de hidráulica, elétrica, pintura e outros, fora da tabela SINAPI, em atendimento as unidades de saúde vinculadas à SESAU/RO, pelo período de 01 (um) ano</t>
+  </si>
+  <si>
+    <t>0036.050120/2023-45</t>
+  </si>
+  <si>
+    <t>Aquisição de formulários de aplicação testes e protocolos diagnósticos especializados, destinados ao rastreamento e diagnóstico de Transtorno do Espectro Autista (TEA) e outros transtornos neurotípicos</t>
+  </si>
+  <si>
+    <t>0036.077824/2022-84</t>
+  </si>
+  <si>
+    <t>Registro de Preços para futura e eventual Aquisição de Materiais de Costura, visando atender as necessidades do Hospital Regional São Francisco do Guaporé - HRSF, Centro de Diálise de Ariquemes - CDA, Hospital e Pronto Socorro João Paulo II - JP II, Centro de Medicina Tropical do Estado de Rondônia - CEMETRON, Policlínica Oswaldo Cruz - POC, Hospital Regional de Buritis - HRB e Hospital Infantil Cosme e Damião - HICD, pertencentes a Secretaria de Estado da Saúde - SESAU, por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.022401/2024-99</t>
+  </si>
+  <si>
+    <t>Aquisição de materiais de permanentes para atender as necessidades do Núcleo de Farmácia Hospitalar e Setores Assistenciais chaves, do Hospital Regional de Cacoal - HRC, vinculado a Secretária de Estado da Saúde - SESAU/RO.</t>
+  </si>
+  <si>
+    <t>0036.078020/2022-01</t>
+  </si>
+  <si>
+    <t>Aquisição de equipamentos Médico-Hospitalares, visando atender as necessidades das Hospital Regional de São Francisco do Guaporé (HRSF), serviço de Atendimento Multidisciplinar Domiciliar (SAMD), Policlínica Oswaldo Cruz (POC), Hospital Regional de Extrema (HRE), Hospital Infantil São Cosme e Damião (HICD), Hospital e Pronto Socorro João Paulo II (JPII).</t>
+  </si>
+  <si>
+    <t>0036.019875/2023-72</t>
+  </si>
+  <si>
+    <t>Registro de Preços para futura e eventual aquisição de materiais permanentes (médicos-hospitalares), visando atender as unidades da Secretária do Estado da Saúde, por um período de 12 (doze) meses</t>
+  </si>
+  <si>
+    <t>0036.059771/2024-81</t>
+  </si>
+  <si>
+    <t>Aquisição de equipamentos técnológocos e equiapementos médico-hospitalar para atender as necessidades do Hospital Regional de Extrema</t>
+  </si>
+  <si>
+    <t>0036.052994/2024-18</t>
+  </si>
+  <si>
+    <t>Registro de Preço para a futura e eventual aquisição de EQUIPAMENTOS MÉDICO-HOSPITALARES ELETROPORTÁTEIS a fim de atender as unidades de saúde vinculadas à Secretaria de Estado da Saúde de Rondônia</t>
+  </si>
+  <si>
+    <t>0036.024010/2024-17</t>
+  </si>
+  <si>
+    <t>Aquisição de bomba de infusão, incubadora, ventilador mecânico e bolsa EMS para atender a Central de Apoio Aéreo - CAA</t>
+  </si>
+  <si>
+    <t>0050.014595/2024-71</t>
+  </si>
+  <si>
+    <t>Aquisição de Equipamentos de Proteção Individual (EPIs) destinados à equipe de manutenção do Hospital Estadual e Pronto-Socorro João Paulo II, com o objetivo de assegurar a segurança e a saúde dos trabalhadores no exercício de suas funções por um período de 12 meses.</t>
+  </si>
+  <si>
+    <t>0060.114123/2021-55</t>
+  </si>
+  <si>
+    <t>Registro de preço para futura e eventual Aquisição de Equipamentos de Proteção Individual – EPI’S e Equipamentos de Proteção Coletiva - EPC</t>
+  </si>
+  <si>
+    <t>0036.088787/2022-30</t>
+  </si>
+  <si>
+    <t>Registro de Preços para futura e eventual aquisição de Radiografia Computadorizada - CR e CASSETE,​ visando atender as Unidades da SESAU, por um período de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>0036.044720/2024-55</t>
+  </si>
+  <si>
+    <t>Aquisição de EQUIPAMENTOS E ACESSÓRIOS DE DIAGNÓSTICO POR IMAGEM</t>
+  </si>
+  <si>
+    <t>0036.100610/2022-19</t>
+  </si>
+  <si>
+    <t>Aquisição de equipamentos medico-hospitalar para atender as necessidades do Hospital Regional de Cacoal</t>
+  </si>
+  <si>
+    <t>0036.030869/2024-57</t>
+  </si>
+  <si>
+    <t>Aquisição de bens de consumo: UNIFORMES/FARDAMENTO E ACESSÓRIOS DESTINADOS À IDENTIFICAÇÃO E PADRONIZAÇÃO DOS SERVIDORES DOS SETORES DOS ALMOXARIFADOS E DISPENSAÇÃO da Secretaria de Estado da Saúde - SESAU.</t>
+  </si>
+  <si>
+    <t>0036.018964/2024-82</t>
+  </si>
+  <si>
+    <t>Registro de preço para futura e eventual aquisição de equipamentos e materiais permanentes de Fisioterapia, visando atender as unidades de saúde vinculadas à SESAU/RO</t>
+  </si>
+  <si>
+    <t>0036.053382/2024-42</t>
+  </si>
+  <si>
+    <t>Registro de Preço para futura e eventual Aquisição de Equipamento/Máquina de Hemodiálise visando atender as unidades assistenciais (Hospital Infantil Cosme e Damião, CEMETRON, Hospital e Pronto Socorro João Paulo II - HPSJPII e Hospital de Base Dr. Ary Pinheiro).</t>
+  </si>
+  <si>
+    <t>0036.032668/2024-94</t>
+  </si>
+  <si>
+    <t>Aquisição de uma Máquina de Hemodiálise, para atender ao Serviço de Hemodiálise do Hospital de Urgência e Emergência Regional de Cacoal - HEURO</t>
+  </si>
+  <si>
+    <t>0049.003774/2024-11</t>
+  </si>
+  <si>
+    <t>Aquisição de máquinas para hemodiálise a fim de suprir as necessidades do Centro de Diálise Madeira Mamoré - CDMM.</t>
+  </si>
+  <si>
+    <t>0036.008843/2024-22</t>
+  </si>
+  <si>
+    <t>Aquisição de material de informática</t>
+  </si>
+  <si>
+    <t>0049.002717/2024-15</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE ESTABILIZADOR DE TENSÃO, 2500 VA, 220 V, MONOFÁSICO, PARA SUPORTE À ULTRAFREEZER -80°C DO NÚCLEO DE TRANSPLANTE ÓSSEO DO HOSPITAL DE BASE DOUTOR ARY PINHEIRO - HBAP.</t>
+  </si>
+  <si>
+    <t>0066.163526/2019-53</t>
+  </si>
+  <si>
+    <t>Aquisição de Equipamentos Eletrônicos e Mobiliários para Reestruturar a Comissão de Residência Multiprofissional (COREMU) e Comissão de Residência Médica (COREME), conforme versa o plano de Trabalho COHREC - COREME</t>
+  </si>
+  <si>
+    <t>0036.036470/2024-80</t>
+  </si>
+  <si>
+    <t>Registro de Preço (SRP) do tipo menor preço por lote, visando à futura, eventual aquisição de Insumos para Lavanderia Hospitalar (detergente concentrado, alvejante e outros), para atender às necessidades dos núcleos de lavanderia hospitalar Estaduais gerenciadas pela Secretaria de Estado da Saúde - SESAU/RO</t>
+  </si>
+  <si>
+    <t>0049.015211/2023-95</t>
+  </si>
+  <si>
+    <t>Registro de Preço para futura e eventual aquisição de equipamentos laboratoriais, sendo ( agitador kline, banho maria e outros), visando atender as unidades de saúde vinculadas à SESAU/RO, por um período de 1 (um) ano.</t>
+  </si>
+  <si>
+    <t>0045.000109/2023-25</t>
+  </si>
+  <si>
+    <t>Aquisição de reagentes laboratoriais (KIT DE EXTRAÇÃO DE DNA, ÁCIDO BÓRICO, CLORETO DE SÓDIO, EDTA SAL DISSÓDICO (2H20) P.A, TRIS (HIDROXIMETRIL) AMINOMETANO, ÁLCOOL ETÍLICO, CORANTE AZUL METILENO 1% SOLUÇÃO AQUOSA E CORANTE GIEMSA) para atender o Centro de Pesquisa de Medicina Tropical de Rondônia-CEPEM/SESAU/RO.</t>
+  </si>
+  <si>
+    <t>0049.002988/2024-71</t>
+  </si>
+  <si>
+    <t>Aquisição de materiais permanentes a fim de suprir as necessidades do Centro de Diálise Madeira Mamoré - CDMM</t>
+  </si>
+  <si>
+    <t>0036.053793/2024-38</t>
+  </si>
+  <si>
+    <t>Aquisição de manequins e simuladores humanos para atividades de educação em saúde oferecidas pelo laboratório de simulação realística do Instituto Estadual de Educação em Saúde Pública de Rondônia- IESPRO/CETAS/SESAU/RO, por dispensa em razão do valor, conforme especificações e quantidades informadas no Item 3.1 deste Termo de Referência, via Dispensa de Licitação com fulcro no artigo 75, inciso II, da Lei n.º 14.133, de 01 de abril de 2021.</t>
+  </si>
+  <si>
+    <t>0059.000090/2024-49</t>
+  </si>
+  <si>
+    <t>Aquisição de MÁQUINA UNITARIZADORA DE MEDICAMENTOS COM CORTADOR DE BLISTER E ALIMENTADORES AUTOMÁTICO DE AMPOLAS E BLÍSTER.</t>
+  </si>
+  <si>
+    <t>0054.000923/2023-31</t>
+  </si>
+  <si>
+    <t>Aquisição de formulários de aplicação testes e protocolos diagnósticos especializados, destinados ao rastreamento e diagnóstico de Transtorno do Espectro Autista (TEA) e outros transtornos neurotípicos.</t>
+  </si>
+  <si>
+    <t>0053.002625/2024-76</t>
+  </si>
+  <si>
+    <t>Aquisição de MATERIAIS ACESSÓRIOS PARA ESTRUTURAÇÃO DA NOVA UTI DE INFECTOLOGIA E CME - CENTRAL DE MATERIAL E ESTERILIZAÇÃO DO CEMETRON, com equipamentos médico hospitalares e materiais permanentes diversos, do Centro de Medicina Tropical do Estado de Rondônia - CEMETRON, no âmbito da Secretaria de Estado da Saúde de Rondônia (SESAU/RO), conforme Documento de Oficialização de Demanda nº 15/2024/CEMETRON-DG (0052488655)</t>
+  </si>
+  <si>
+    <t>0036.053999/2024-68</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE MATERIAIS GRÁFICOS, ITENS FRACASSADOS NA DISPENSA ELETRÔNICA 90459/2024, A FIM DE ATENDER O CONSELHO ESTADUAL DE SAÚDE - CES NA 356ª REUNIÃO ORDINÁRIA ITINERANTE QUE OCORRERÁ DIA 26 A 29 DE NOVEMBRO DE 2024, COM O ENCONTRO DA MESA DIRETORA DOS CONSELHOS MUNICIPAIS DE SAÚDE DE RONDÔNIA E ENCONTRO DAS SECRETÁRIAS EXECUTIVAS.</t>
+  </si>
+  <si>
+    <t>0063.001623/2024-41</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada para prestação de serviços de materiais gráficos, especialmente para a confecção de Receituários de SUBSTÂNCIAS TIPO (C) e Receituários de SUBSTÂNCIAS TIPO (B). Estes receituários devem ser confeccionados mediante autorização dos órgãos vinculados à AGEVISA, e necessitam ser impressos em gráficas devidamente autorizadas, seguindo parâmetros rigorosos e específicos conforme a legislação vigente, PORTARIA Nº 344, DE 12 DE MAIO DE 1998 do Ministério da Saúde.</t>
+  </si>
+  <si>
+    <t>0036.017264/2024-71</t>
+  </si>
+  <si>
+    <t>Registro de Preço para futura e eventual aquisição centralizada de MATERIAIS GRÁFICOS, visando atender as unidades de saúde vinculadas à SESAU/RO, pelo período de 1 (um) ano, prorrogável por igual período, das unidades vinculadas à SESAU/RO.</t>
+  </si>
+  <si>
+    <t>0049.072425/2022-88</t>
+  </si>
+  <si>
+    <t>Aquisição de materiais permanente GARROTE / TORNIQUETE PNEUMÁTICO com pressão ajustável de 0 a 600 mmHg, cronômetro integrado, bateria de suporte e bivolt automático, a fim de suprir as necessidades do setor de Seção de Órtese e Prótese OPME e Departamento de Ortopedia do Hospital de Base Dr. Ary Pinheiro, visando atender as necessidades do Hospital Regional de Extrema HRE, de forma contínua, por um período de 5 (cinco) anos.</t>
+  </si>
+  <si>
+    <t>0036.057439/2024-82</t>
+  </si>
+  <si>
+    <t>Aquisição de material permanente - AUTOCLAVE HORIZONTAL DE MESA, a fim de atender a unidade de saúde Centro de Diálise Vale do Jamari em Ariquemes</t>
+  </si>
+  <si>
+    <t>0036.059744/2024-17</t>
+  </si>
+  <si>
+    <t>Aquisição de materiais permanentes para para o Hospital de Base Dr. Ary Pinheiro - HBAP</t>
+  </si>
+  <si>
+    <t>0036.286056/2021-77</t>
+  </si>
+  <si>
+    <t>Aquisição de Equipamentos Permanentes visando atender as necessidades Hospital de Base de Porto Velho - HBAP.</t>
+  </si>
+  <si>
+    <t>0036.019282/2024-97</t>
+  </si>
+  <si>
+    <t>Aquisição de Equipamentos e Material Permanente, sendo (monitor multiparâmetros neonatal, incubadora de transporte neonatal, banqueta para parto vertical e cama PPP (Pré-parto, Parto e Pós-parto), visando atender o Hospital de Base Dr. Ary Pinheiro - Estruturação da Rede Cegonha.</t>
+  </si>
+  <si>
+    <t>0049.003281/2023-09</t>
+  </si>
+  <si>
+    <t>Registro de preço para futura e eventual aquisição de equipamentos médico-hospitalares (Aparelhos de Holmium Laser, Unidades Eletrocirúrgicas, Sistemas de Videolaroscopia, e Mesas Cirúrgicas Urológicas) para cirurgias minimamente invasivas em pacientes urológicos do Estado de Rondônia através do Hospital de Base Dr. Ary Pinheiro – HBAP pelo período de 12 meses.</t>
+  </si>
+  <si>
+    <t>0053.002301/2024-38</t>
+  </si>
+  <si>
+    <t>Registro de Preços para futura e eventual aquisição de EQUIPAMENTOS E MATERIAIS PERMANENTES MÉDICO-HOSPITALARES PARA UNIDADE DE TERAPIA INTENSIVA - UTI, para atendimento das unidades vinculadas à da Secretaria de Estado da Saúde - SESAU/RO.</t>
+  </si>
+  <si>
+    <t>0036.103747/2022-25</t>
+  </si>
+  <si>
+    <t>Aquisição de equipamentos e materiais hospitalares para fins de subsídio ao projeto definitivo de abertura da UTI neonatal do Hospital Regional de Cacoal - HRC</t>
+  </si>
+  <si>
+    <t>0036.025041/2024-87</t>
+  </si>
+  <si>
+    <t>Aquisição de materiais de permanentes para atender as necessidades do Núcleo de Clínica Materno Infantil e Centro Obstétrico do Hospital de Base Dr. Ary Pinheiro - HBAP vinculado a Secretária de Estado da Saúde - SESAU/RO.</t>
+  </si>
+  <si>
+    <t>0036.019918/2023-10</t>
+  </si>
+  <si>
+    <t>Registro de Preços para futura e eventual aquisição de materiais permanentes (mobiliário), visando atender as unidades da Secretária do Estado da Saúde, por um período de 12 (doze) meses</t>
+  </si>
+  <si>
+    <t>0036.057440/2024-15</t>
+  </si>
+  <si>
+    <t>Aquisição de materiais permanentes para atender as necessidades do Centro de Diálise de Ariquemes - CDA</t>
+  </si>
+  <si>
+    <t>0036.057437/2024-93</t>
+  </si>
+  <si>
+    <t>Aquisição de material permanente - REPROCESSADORAS DE CAPILARES, a fim de atender a unidade de saúde Centro de Diálise Vale do Jamari em Ariquemes</t>
+  </si>
+  <si>
+    <t>0063.001707/2024-84</t>
+  </si>
+  <si>
+    <t>Aquisição de papel fotográfico para uso contínuo do setor de oftalmologia para o aparelho de tomografia de coerência óptica - OCT</t>
+  </si>
+  <si>
+    <t>0036.048286/2023-00</t>
+  </si>
+  <si>
+    <t>Registro de Preços para futura e eventual aquisição de produtos de refrigeração, sendo (condicionadores de ar, com instalação), bebedouros, frigobar, geladeiras e freezers, destinados ao atendimento das Unidades de Saúde e à Sede da Secretaria de Estado da Saúde de Rondônia, por um período de um ano.</t>
+  </si>
+  <si>
+    <t>0036.008280/2024-72</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE SELADORAS via intenção de Registro de Preços conforme Programação Anual de Saúde - PAS/2024 e Plano Anual de Contratação - PAC/2024 das unidades vinculadas à SESAU/RO</t>
+  </si>
+  <si>
+    <t>0036.045201/2024-12</t>
+  </si>
+  <si>
+    <t>Registro de Preço para futura e eventual aquisições de EQUIPAMENTOS MÉDICOS DE TECNOLOGIA ÓPTICA PARA CAPTAÇÃO E TRANSMISSÃO DE IMAGENS E ASSESSÓRIOS, a fim de atender as unidades de saúde vinculadas à Secretaria de Estado da Saúde de Rondônia.</t>
+  </si>
+  <si>
+    <t>0036.004910/2025-11</t>
+  </si>
+  <si>
+    <t>Aquisição de transdutor linear a transdutor convexo compatíveis com os aparelhos de Ultrassom Mindray M7 e Ultrassom FT422 Saevo para atender as necessidades do Hospital Regional de Cacoal - HRC</t>
+  </si>
+  <si>
+    <t>0049.003356/2024-24</t>
+  </si>
+  <si>
+    <t>Aquisição de TUBOS ENDOSCÓPICOS FLEXIVÉIS E EQUIPAMENTOS PERMANENTES por um período de 01 (um) Ano, que tem como finalidade atender a demanda do Hospital de Base Dr. Ary Pinheiro de Porto Velho - HBAP</t>
+  </si>
+  <si>
+    <t>0036.008667/2025-18</t>
+  </si>
+  <si>
+    <t>O presente documento informa a necessidade para a Contratação de Empresa para prestação do Serviço de Intérprete de Libras, Hospedagem, Locação de Auditório, Salas, Treliça, Transporte Urbano (Traslado), ambulância, fornecimento de Material Gráfico, Arranjos de Flores, Camisetas, Refeição, Coffee Break, Água Mineral e Café, com objetivo de atender os participantes da 3ª Conferência Estadual de Saúde do Trabalhador e da Trabalhadora de Rondônia, programada para acontecer no período de 28 e 30 de maio de 2025, em Porto Velho/RO, conforme Resolução N. 139/2024/SESAU-CES.</t>
+  </si>
+  <si>
+    <t>0036.008656/2025-20</t>
+  </si>
+  <si>
+    <t>0036.033171/2024-93</t>
+  </si>
+  <si>
+    <t>Aquisição de 10 (dez) caixas personalizadas com suporte interno contendo furos com diâmetro compatível e devidamente identificados para armazenar frascos-ampola e ampolas de medicamentos sujeitos a controle especial (anestésicos e sedativos) utilizados durante os procedimentos cirúrgicos.</t>
+  </si>
+  <si>
+    <t>0036.012973/2024-60</t>
+  </si>
+  <si>
+    <t>Aquisição de materiais de consumo destinados a suprir as necessidades da Farmácia Especializada do Estado de Rondônia e as Farmácias das Gerências Regionais de Saúde do Estado de Rondônia, com o objetivo de garantir a prestação plena de ações e serviços operacionais da rede pública estadual de saúde de Rondônia.</t>
+  </si>
+  <si>
+    <t>0036.028937/2024-18</t>
+  </si>
+  <si>
+    <t>Aquisição de Materiais Gráficos por dispensa de licitação em razão do valor, visando atender a Comissão Intergestora Bipartite - CIB, o Conselho Estadual de Saúde - CES na promoção 2ª Conferência Estadual de Gestão do Trabalho e Educação em Saúde, e, a Gerência de Coordenação Estadual de Transplantes - GCET/SESAU em sua campanha de doação de órgãos 2024.</t>
+  </si>
+  <si>
+    <t>0046.000210/2025-38</t>
+  </si>
+  <si>
+    <t>Aquisição de baterias para nobreak, com objetivo de atender ao Laboratório Central de Saúde Pública do Estado de Rondônia - LACEN/RO</t>
+  </si>
+  <si>
+    <t>0036.006806/2025-61</t>
+  </si>
+  <si>
+    <t>Aquisição de Material Gráfico para atender a solenidade de premiação do prêmio: Equipe Rosa 2024</t>
+  </si>
+  <si>
+    <t>0036.027261/2024-45</t>
+  </si>
+  <si>
+    <t>Registro de preços para aquisição centralizada de placas de identificação e sinalização hospitalar e outros, conforme normas e regulamentos de segurança, com objetivo de atender as demandas da SESAU-SESMT</t>
+  </si>
+  <si>
+    <t>0063.000305/2025-43</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO DE EQUIPAMENTO E MATERIAL PERMANENTE PARA ATENÇÃO BÁSICA EM SAÚDE BUCAL, em prol de atender as necessidades do Centro de Especialidades Odontológicas - CEO/POC</t>
+  </si>
+  <si>
+    <t>0036.009923/2025-86</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA PARA FORNECER MATERIAL GRÁFICO E DE CONSUMO, com objetivo de atender as Comissões Intersetoriais de Educação Permanente, Saúde Mental e Saúde da Mulher, na execução de suas atividades através das oficinas e cursos de capacitação aos conselheiros estaduais e municipais de saúde e demais participantes, cujas as ações estão programadas para ocorrer ao longo de todo o ano de 2025</t>
+  </si>
+  <si>
+    <t>0036.009331/2025-64</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA NO FORNECIMENTO DE MATERIAL GRÁFICO, com objetivo de atender aos participantes do 1º ENCONTRO ESTADUAL DE SAÚDE E MEIO AMBIENTE, programado para os dias 25 e 26 de setembro de 2025, em Porto Velho/RO, conforme Resolução N. 169/2025/SESAU-CES (ID 0057648405).</t>
+  </si>
+  <si>
+    <t>0036.011890/2025-34</t>
+  </si>
+  <si>
+    <t>Aquisição de material de consumo distribuição gratuita (folder, agenda, lanterna e camisetas) abertura de processo administrativo para aquisição de material de consumo, com objetivo de distribuição para as CIHDOTT'S de Porto Velho, Organização de Procura de Órgãos (OPO), e público em geral, no sentido de promover campanha alusiva ao Dia Nacional do Doador de Órgãos e Tecidos, bem como a conscientização sobre a importância de ser doador de órgãos nas campanhas diárias realizadas por esta Gerência de Coordenação Estadual de Transplantes - GCET/SESAU</t>
+  </si>
+  <si>
+    <t>0036.039896/2024-95</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada no fornecimento e instalação de placa luminosa de identificação no Prédio, com objetivo de atender as necessidades desta Gerência da Coordenação Estadual de Transplantes/SESAU-GCET.</t>
+  </si>
+  <si>
+    <t>0036.095236/2022-22</t>
+  </si>
+  <si>
+    <t>Registro de preços para aquisição de ventiladores pulmonar</t>
+  </si>
+  <si>
+    <t>0036.015170/2025-48</t>
+  </si>
+  <si>
+    <t>Aquisição de materiais (acabamento, básico, cabeamento estruturado, elétricos, ferramentas, hidráulicos e esgoto) necessários para realização de Manutenção Predial das Unidades Hospitalares/SESAU-RO.</t>
+  </si>
+  <si>
+    <t>0049.011596/2023-11</t>
+  </si>
+  <si>
+    <t>Aquisição de kits de acessórios pediátricos para os monitores multiparâmetros instalados na UTI NEO do HBAP, em caráter emergencial, para atender a UTI NEO do Hospital de Base Dr. Ary Pinheiro (HBAP) face a DM nº 02406/22/TCE-RO de 09/08/2023.</t>
+  </si>
+  <si>
+    <t>0036.016410/2025-21</t>
+  </si>
+  <si>
+    <t>Aquisição de Camisetas, vinculado ao processo 0036.011890/2025-34</t>
+  </si>
+  <si>
+    <t>0036.016413/2025-65</t>
+  </si>
+  <si>
+    <t>Aquisição de lanternas, vinculado ao processo 0036.011890/2025-34</t>
+  </si>
+  <si>
+    <t>0036.059400/2024-08</t>
+  </si>
+  <si>
+    <t>Aquisição de equipamentos de uso laboratorial necessários à realização de procedimentos Analíticos (exames laboratoriais), para atendimento ao Laboratório Central de Saúde Pública do Estado de Rondônia - LACEN/RO, cujo recurso é proveniente e específico do Programa: NOVO PAC - ESTRUTURAÇÃO DA VIGILÂNCIA LABORATORIAL EM SAÚDE E AMBIENTES E RESPOSTA AS EMERGÊNCIAS EM SAÚDE</t>
+  </si>
+  <si>
+    <t>0036.013084/2025-09</t>
+  </si>
+  <si>
+    <t>Aquisição de Cabo oxímetro infantil compatível com o Oxímetro de pulso da marca NONIN - 7500FO em prol de atender as necessidades do Hospital Regional de Cacoal - HRC</t>
+  </si>
+  <si>
+    <t>0036.017426/2025-51</t>
+  </si>
+  <si>
+    <t>Aquisição de Material de consumo CARGA DE GÁS GLP - P13: Gás Liquefeito de Petróleo - GLP acondicionado em botija de 13 Kg, para atender as demandas das unidades de Saúde Estaduais da Secretaria de Estado da Saúde - SESAU por um período de 06 (seis) meses</t>
+  </si>
+  <si>
+    <t>0036.016136/2025-91</t>
+  </si>
+  <si>
+    <t>Aquisição PASTA COM BOLSO - Impressão offset, 4 x 0 cores, papel tríplex fosco 350g, formato 23 x 32 cm (fechado) e 46x32cm (aberta). Acabamento em laminação bopp fosca, verniz uv na parte externa, com bolso interno sem impressão. Com logomarca do evento, do Governo do Estado de Rondônia, Secretaria de Estado da Saúde - SESAU e Conselho Estadual de Saúde. (arte a ser fornecida pela contratante).</t>
+  </si>
+  <si>
+    <t>0063.000527/2025-66</t>
+  </si>
+  <si>
+    <t>Aquisição de aparelho(s) de Monitoramento Ambulatorial da Pressão Arterial (MAPA) para atender a Policlínica Oswaldo Cruz-POC</t>
+  </si>
+  <si>
+    <t>0036.018495/2025-82</t>
+  </si>
+  <si>
+    <t>Aquisição de gêneros alimentícios (açúcar e café) para suprir as necessidades das unidades de saúde vinculadas à Secretaria de Estado da Saúde de Rondônia (SESAU-RO)</t>
+  </si>
+  <si>
+    <t>0063.000444/2025-77</t>
+  </si>
+  <si>
+    <t>Aquisição de Centrais de AR para atender ao CAPS II MADEIRA MAMORÉ</t>
+  </si>
+  <si>
+    <t>0036.049005/2024-17</t>
+  </si>
+  <si>
+    <t>Aquisição de carrinho de sedação compatível com ressonância magnética composto por Ventilador Pulmonar de Transporte RM, Bomba de Contraste para Ambiente de Ressonância Magnética, Aparelho de Anestesia para ambiente de Ressonância Magnética de 1.5T e 3T indicado para pacientes neonato, pediatrico e adultos e Monitor Multiparâmetro para ambiente de Ressonância Magnética de 1.5T e 3T em prol de atender as necessidades do setor de Diagnóstico do Hospital Regional de Cacoal (HRC)</t>
+  </si>
+  <si>
+    <t>0036.040954/2024-23</t>
+  </si>
+  <si>
+    <t>Aquisição com instalação de aparelho de RX – Panorâmico Digital, de alta resolução e baixa dose, cujo recurso é proveniente e específico do Repasse FNS, parcela única em 2024, OB008590, bloco - Estruturação da Rede de Serviços Públicos de Saúde (INVESTIMENTO) - ESTRUTURAÇÃO DA ATENÇÃO À SAÚDE BUCAL (ATENÇÃO PRIMÁRIA). Proposta nº 00733062000123004. Portaria nº 2418. Preconizados pelo ministério da Saúde.</t>
+  </si>
+  <si>
+    <t>0036.001655/2024-73</t>
+  </si>
+  <si>
+    <t>GRUPO SÓLIDOS IV</t>
+  </si>
+  <si>
+    <t>0036.001654/2024-29</t>
+  </si>
+  <si>
+    <t> GRUPO SÓLIDOS III  </t>
+  </si>
+  <si>
+    <t>0036.006830/2024-19</t>
+  </si>
+  <si>
+    <t>GRANDES VOLUMES</t>
+  </si>
+  <si>
+    <t>0036.051327/2024-18</t>
+  </si>
+  <si>
+    <t>CEAF 1B / 2025</t>
+  </si>
+  <si>
+    <t>0036.049700/2024-71</t>
+  </si>
+  <si>
+    <t>INJETÁVEIS III- FRACASSADOS</t>
+  </si>
+  <si>
+    <t>0036.050154/2024-11</t>
+  </si>
+  <si>
+    <t>INJETÁVEIS IV- FRACASSADOS</t>
+  </si>
+  <si>
+    <t>0036.048998/2024-00</t>
+  </si>
+  <si>
+    <t>DERMATOLÓGICOS / OTOLÓGICOS -DESERTOS E FRACASSADOS.</t>
+  </si>
+  <si>
+    <t>0036.052640/2024-73</t>
+  </si>
+  <si>
+    <t>INJETÁVEIS II- FRACASSADOS</t>
+  </si>
+  <si>
+    <t>0036.051154/2024-38</t>
+  </si>
+  <si>
+    <t>MEDICAMENTOS DO CEAF - GRUPO 1B - DESERTOS/FRACASSADOS</t>
+  </si>
+  <si>
+    <t>0036.003296/2025-70</t>
+  </si>
+  <si>
+    <t>CEAF GRUPO 2 -DESERTOS/FRACASSADOS</t>
+  </si>
+  <si>
+    <t>0036.056572/2024-11</t>
+  </si>
+  <si>
+    <t>INJETÁVEIS I- DESERTO/FRACASSADOS</t>
+  </si>
+  <si>
+    <t>0036.005967/2025-37</t>
+  </si>
+  <si>
+    <t>SÓLIDOS II -DESERTOS/FRACASSADOS</t>
+  </si>
+  <si>
+    <t>0036.006674/2025-77</t>
+  </si>
+  <si>
+    <t>aquisição de fórmulas, dietas enterais, suplementos e módulos adulto</t>
+  </si>
+  <si>
+    <t>0036.033324/2024-01</t>
+  </si>
+  <si>
+    <t>FORNECIMENTO DE MEDICAMENTOS CONTINUADOS JUDICIALIZADOS</t>
+  </si>
+  <si>
+    <t>0036.010756/2025-16</t>
+  </si>
+  <si>
+    <t>SÓLIDOS I (DESERTOS/FRACASSADOS)</t>
+  </si>
+  <si>
+    <t>0036.039016/2024-81</t>
+  </si>
+  <si>
+    <t>NPT BOLSA PRONTA E INSUMOS PARA MANIPULAÇÃO</t>
+  </si>
+  <si>
+    <t>0036.054172/2024-71</t>
+  </si>
+  <si>
+    <t>PRESERVAÇÃO DE ÓRGÃOS E CÓRNEAS</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA EM SERVIÇOS DE HIGIENIZAÇÃO E LIMPEZA HOSPITALAR E ASSEMELHADAS, LABORATORIAL E AMBULATORIAL - HIGIENIZAÇÃO, CONSERVAÇÃO, DESINFECÇÃO DE SUPERFÍCIES E MOBILIÁRIOS E RECOLHIMENTO INTERNO DOS RESÍDUOS DO GRUPO “D”, VISANDO À OBTENÇÃO DE ADEQUADAS CONDIÇÕES DE SALUBRIDADE E HIGIENE EM DEPENDÊNCIAS DO HOSPITAL REGIONAL DE EXTREMA - HRE, EM CARÁTER EMERGENCIAL, POR UM PERÍODO DE 1 (UM) ANO, OU ATÉ QUE SE CONCLUA O PROCESSO LICITATÓRIO.</t>
+  </si>
+  <si>
+    <t>FORNECIMENTO CONTÍNUO DE REAGENTE PARA DIAGNÓSTICO CLÍNICO, TIPO CONJUNTO COMPLETO PARA AUTOMAÇÃO, PARA ANÁLISE QUANTITATIVA DE GASOMETRIA, COM FORNECIMENTO DE EQUIPAMENTOS (GASÔMETROS) EM REGIME DE COMODATO</t>
+  </si>
+  <si>
+    <t>0036.029392/2025-48</t>
+  </si>
+  <si>
+    <t>aquisição de serviços de coffee break - SESMT</t>
+  </si>
+  <si>
+    <t>0036.017399/2025-17</t>
+  </si>
+  <si>
+    <t>medicamento classe de INJETAVEIS III</t>
+  </si>
+  <si>
+    <t>0063.001173/2025-77</t>
+  </si>
+  <si>
+    <t>Locação de clinica odontologica estruturada - POC</t>
+  </si>
+  <si>
+    <t>0036.025786/2025-27</t>
+  </si>
+  <si>
+    <t>Aquisição de medicamentos Grandes Volumes</t>
+  </si>
+  <si>
+    <t>0036.030292/2025-64</t>
+  </si>
+  <si>
+    <t>Solução de Hemodiálise</t>
+  </si>
+  <si>
+    <t>0036.029730/2025-41</t>
+  </si>
+  <si>
+    <t>Manutenção preventiva e corretiva em condicionadores de ar com fornecimento e reposição de peças, acessórios e componentes eletrônicos do Sistema de Climatização - HRSFG</t>
+  </si>
+  <si>
+    <t>0036.021034/2025-97</t>
+  </si>
+  <si>
+    <t>Prestação de Serviço de ANESTESIOLOGISTA</t>
+  </si>
+  <si>
+    <t>0036.027285/2025-85</t>
+  </si>
+  <si>
+    <t>Aquisição de bombas pressurizadoras, modelo SCALA1 3-35 (ou similar compatível com o sistema HEURO) do sistema de tratamento de água para hemodiálise da Unidade de Terapia Intensiva UTI</t>
+  </si>
+  <si>
+    <t>0036.014122/2025-32</t>
+  </si>
+  <si>
+    <t>ÁGUA MINERAL GARRAFÃO RETORNÁVEL DE 20 LITROS, ÁGUA MINERAL SEM GÁS DE 500ML E ÁGUA MINERAL COM GÁS DE 500ML, para atender as demandas das unidades do interior</t>
+  </si>
+  <si>
+    <t>0036.026848/2025-18</t>
+  </si>
+  <si>
+    <t>Aquisição de soluções parenterais estéreis (soros), especificamente Glicose nas apresentações de 250 mL e 500 ml</t>
+  </si>
+  <si>
+    <t>Adesão à Ata</t>
+  </si>
+  <si>
+    <t>0036.030151/2025-41</t>
+  </si>
+  <si>
+    <t>prestação de limpeza, conservação, higienização e desinfecção com fornecimento de materiais e equipamentos - GRS4</t>
+  </si>
+  <si>
+    <t>0036.027016/2025-19</t>
+  </si>
+  <si>
+    <t>SERVIÇOS DE EXAMES LABORATORIAIS - HRE</t>
+  </si>
+  <si>
+    <t>0036.011559/2025-14</t>
+  </si>
+  <si>
+    <t>Cami - 18 leitos de Gestação de Alto Risco-GAR na macrorregião II</t>
+  </si>
+  <si>
+    <t>0050.006133/2025-61</t>
+  </si>
+  <si>
+    <t>serviços médicos complementares especializados na área de Cirurgia Vascular/Angiologia, de forma emergencial, com a finalidade de atender a demandas do hospital João Paulo II,</t>
+  </si>
+  <si>
+    <t>0036.058954/2024-80</t>
+  </si>
+  <si>
+    <t>equip FUJINON - HB</t>
+  </si>
+  <si>
+    <t>0036.030324/2025-21</t>
+  </si>
+  <si>
+    <t>medicamentos, Soluções orais II</t>
   </si>
 </sst>
 </file>
@@ -454,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2FF0CA-3C4D-4BFF-9AA5-A0CFD76751B1}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="C267" sqref="A5:C267"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,11 +2011,2871 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="2"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>49</v>
+      </c>
+      <c r="B111" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" t="s">
+        <v>73</v>
+      </c>
+      <c r="C112" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>82</v>
+      </c>
+      <c r="B113" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>94</v>
+      </c>
+      <c r="B114" t="s">
+        <v>95</v>
+      </c>
+      <c r="C114" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117" t="s">
+        <v>131</v>
+      </c>
+      <c r="C117" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>60</v>
+      </c>
+      <c r="B118" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>202</v>
+      </c>
+      <c r="B120" t="s">
+        <v>219</v>
+      </c>
+      <c r="C120" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>70</v>
+      </c>
+      <c r="B121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C121" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>220</v>
+      </c>
+      <c r="B122" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B123" t="s">
+        <v>223</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>224</v>
+      </c>
+      <c r="B124" t="s">
+        <v>225</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" t="s">
+        <v>227</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>228</v>
+      </c>
+      <c r="B126" t="s">
+        <v>229</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>230</v>
+      </c>
+      <c r="B127" t="s">
+        <v>231</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>232</v>
+      </c>
+      <c r="B128" t="s">
+        <v>233</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>234</v>
+      </c>
+      <c r="B129" t="s">
+        <v>235</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>236</v>
+      </c>
+      <c r="B130" t="s">
+        <v>237</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>238</v>
+      </c>
+      <c r="B131" t="s">
+        <v>239</v>
+      </c>
+      <c r="C131" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>240</v>
+      </c>
+      <c r="B132" t="s">
+        <v>241</v>
+      </c>
+      <c r="C132" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>242</v>
+      </c>
+      <c r="B133" t="s">
+        <v>243</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>244</v>
+      </c>
+      <c r="B134" t="s">
+        <v>245</v>
+      </c>
+      <c r="C134" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>246</v>
+      </c>
+      <c r="B135" t="s">
+        <v>247</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>248</v>
+      </c>
+      <c r="B136" t="s">
+        <v>249</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>250</v>
+      </c>
+      <c r="B137" t="s">
+        <v>251</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>252</v>
+      </c>
+      <c r="B138" t="s">
+        <v>253</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>254</v>
+      </c>
+      <c r="B139" t="s">
+        <v>255</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>256</v>
+      </c>
+      <c r="B140" t="s">
+        <v>257</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>258</v>
+      </c>
+      <c r="B141" t="s">
+        <v>235</v>
+      </c>
+      <c r="C141" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>259</v>
+      </c>
+      <c r="B142" t="s">
+        <v>260</v>
+      </c>
+      <c r="C142" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>261</v>
+      </c>
+      <c r="B143" t="s">
+        <v>262</v>
+      </c>
+      <c r="C143" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>264</v>
+      </c>
+      <c r="B144" t="s">
+        <v>265</v>
+      </c>
+      <c r="C144" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>266</v>
+      </c>
+      <c r="B145" t="s">
+        <v>267</v>
+      </c>
+      <c r="C145" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>268</v>
+      </c>
+      <c r="B146" t="s">
+        <v>269</v>
+      </c>
+      <c r="C146" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>270</v>
+      </c>
+      <c r="B147" t="s">
+        <v>271</v>
+      </c>
+      <c r="C147" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>272</v>
+      </c>
+      <c r="B148" t="s">
+        <v>273</v>
+      </c>
+      <c r="C148" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" t="s">
+        <v>275</v>
+      </c>
+      <c r="C149" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>276</v>
+      </c>
+      <c r="B150" t="s">
+        <v>277</v>
+      </c>
+      <c r="C150" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>278</v>
+      </c>
+      <c r="B151" t="s">
+        <v>279</v>
+      </c>
+      <c r="C151" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>280</v>
+      </c>
+      <c r="B152" t="s">
+        <v>281</v>
+      </c>
+      <c r="C152" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>282</v>
+      </c>
+      <c r="B153" t="s">
+        <v>283</v>
+      </c>
+      <c r="C153" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>284</v>
+      </c>
+      <c r="B154" t="s">
+        <v>285</v>
+      </c>
+      <c r="C154" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>286</v>
+      </c>
+      <c r="B155" t="s">
+        <v>287</v>
+      </c>
+      <c r="C155" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>288</v>
+      </c>
+      <c r="B156" t="s">
+        <v>289</v>
+      </c>
+      <c r="C156" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>290</v>
+      </c>
+      <c r="B157" t="s">
+        <v>291</v>
+      </c>
+      <c r="C157" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>292</v>
+      </c>
+      <c r="B158" t="s">
+        <v>293</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>294</v>
+      </c>
+      <c r="B159" t="s">
+        <v>295</v>
+      </c>
+      <c r="C159" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>296</v>
+      </c>
+      <c r="B160" t="s">
+        <v>297</v>
+      </c>
+      <c r="C160" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>298</v>
+      </c>
+      <c r="B161" t="s">
+        <v>299</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>300</v>
+      </c>
+      <c r="B162" t="s">
+        <v>301</v>
+      </c>
+      <c r="C162" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>302</v>
+      </c>
+      <c r="B163" t="s">
+        <v>303</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>304</v>
+      </c>
+      <c r="B164" t="s">
+        <v>305</v>
+      </c>
+      <c r="C164" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>306</v>
+      </c>
+      <c r="B165" t="s">
+        <v>307</v>
+      </c>
+      <c r="C165" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>308</v>
+      </c>
+      <c r="B166" t="s">
+        <v>309</v>
+      </c>
+      <c r="C166" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>310</v>
+      </c>
+      <c r="B167" t="s">
+        <v>311</v>
+      </c>
+      <c r="C167" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>312</v>
+      </c>
+      <c r="B168" t="s">
+        <v>313</v>
+      </c>
+      <c r="C168" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>314</v>
+      </c>
+      <c r="B169" t="s">
+        <v>315</v>
+      </c>
+      <c r="C169" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>316</v>
+      </c>
+      <c r="B170" t="s">
+        <v>317</v>
+      </c>
+      <c r="C170" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>318</v>
+      </c>
+      <c r="B171" t="s">
+        <v>319</v>
+      </c>
+      <c r="C171" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>320</v>
+      </c>
+      <c r="B172" t="s">
+        <v>321</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>322</v>
+      </c>
+      <c r="B173" t="s">
+        <v>323</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>324</v>
+      </c>
+      <c r="B174" t="s">
+        <v>325</v>
+      </c>
+      <c r="C174" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>326</v>
+      </c>
+      <c r="B175" t="s">
+        <v>327</v>
+      </c>
+      <c r="C175" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>328</v>
+      </c>
+      <c r="B176" t="s">
+        <v>329</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>330</v>
+      </c>
+      <c r="B177" t="s">
+        <v>331</v>
+      </c>
+      <c r="C177" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>332</v>
+      </c>
+      <c r="B178" t="s">
+        <v>333</v>
+      </c>
+      <c r="C178" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>334</v>
+      </c>
+      <c r="B179" t="s">
+        <v>335</v>
+      </c>
+      <c r="C179" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>336</v>
+      </c>
+      <c r="B180" t="s">
+        <v>337</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>338</v>
+      </c>
+      <c r="B181" t="s">
+        <v>339</v>
+      </c>
+      <c r="C181" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>340</v>
+      </c>
+      <c r="B182" t="s">
+        <v>341</v>
+      </c>
+      <c r="C182" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>342</v>
+      </c>
+      <c r="B183" t="s">
+        <v>343</v>
+      </c>
+      <c r="C183" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>344</v>
+      </c>
+      <c r="B184" t="s">
+        <v>345</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>346</v>
+      </c>
+      <c r="B185" t="s">
+        <v>347</v>
+      </c>
+      <c r="C185" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>348</v>
+      </c>
+      <c r="B186" t="s">
+        <v>349</v>
+      </c>
+      <c r="C186" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>350</v>
+      </c>
+      <c r="B187" t="s">
+        <v>351</v>
+      </c>
+      <c r="C187" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>352</v>
+      </c>
+      <c r="B188" t="s">
+        <v>353</v>
+      </c>
+      <c r="C188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>354</v>
+      </c>
+      <c r="B189" t="s">
+        <v>355</v>
+      </c>
+      <c r="C189" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>356</v>
+      </c>
+      <c r="B190" t="s">
+        <v>357</v>
+      </c>
+      <c r="C190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>358</v>
+      </c>
+      <c r="B191" t="s">
+        <v>359</v>
+      </c>
+      <c r="C191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>360</v>
+      </c>
+      <c r="B192" t="s">
+        <v>361</v>
+      </c>
+      <c r="C192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>362</v>
+      </c>
+      <c r="B193" t="s">
+        <v>363</v>
+      </c>
+      <c r="C193" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>364</v>
+      </c>
+      <c r="B194" t="s">
+        <v>365</v>
+      </c>
+      <c r="C194" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>366</v>
+      </c>
+      <c r="B195" t="s">
+        <v>367</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>368</v>
+      </c>
+      <c r="B196" t="s">
+        <v>369</v>
+      </c>
+      <c r="C196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>370</v>
+      </c>
+      <c r="B197" t="s">
+        <v>371</v>
+      </c>
+      <c r="C197" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>372</v>
+      </c>
+      <c r="B198" t="s">
+        <v>373</v>
+      </c>
+      <c r="C198" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>374</v>
+      </c>
+      <c r="B199" t="s">
+        <v>375</v>
+      </c>
+      <c r="C199" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>376</v>
+      </c>
+      <c r="B200" t="s">
+        <v>377</v>
+      </c>
+      <c r="C200" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>378</v>
+      </c>
+      <c r="B201" t="s">
+        <v>379</v>
+      </c>
+      <c r="C201" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>380</v>
+      </c>
+      <c r="B202" t="s">
+        <v>381</v>
+      </c>
+      <c r="C202" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>382</v>
+      </c>
+      <c r="B203" t="s">
+        <v>383</v>
+      </c>
+      <c r="C203" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>384</v>
+      </c>
+      <c r="B204" t="s">
+        <v>385</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>386</v>
+      </c>
+      <c r="B205" t="s">
+        <v>387</v>
+      </c>
+      <c r="C205" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>388</v>
+      </c>
+      <c r="B206" t="s">
+        <v>389</v>
+      </c>
+      <c r="C206" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>390</v>
+      </c>
+      <c r="B207" t="s">
+        <v>389</v>
+      </c>
+      <c r="C207" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>391</v>
+      </c>
+      <c r="B208" t="s">
+        <v>392</v>
+      </c>
+      <c r="C208" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>393</v>
+      </c>
+      <c r="B209" t="s">
+        <v>394</v>
+      </c>
+      <c r="C209" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>395</v>
+      </c>
+      <c r="B210" t="s">
+        <v>396</v>
+      </c>
+      <c r="C210" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>397</v>
+      </c>
+      <c r="B211" t="s">
+        <v>398</v>
+      </c>
+      <c r="C211" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>399</v>
+      </c>
+      <c r="B212" t="s">
+        <v>400</v>
+      </c>
+      <c r="C212" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>401</v>
+      </c>
+      <c r="B213" t="s">
+        <v>402</v>
+      </c>
+      <c r="C213" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>403</v>
+      </c>
+      <c r="B214" t="s">
+        <v>404</v>
+      </c>
+      <c r="C214" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>405</v>
+      </c>
+      <c r="B215" t="s">
+        <v>406</v>
+      </c>
+      <c r="C215" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>407</v>
+      </c>
+      <c r="B216" t="s">
+        <v>408</v>
+      </c>
+      <c r="C216" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>409</v>
+      </c>
+      <c r="B217" t="s">
+        <v>410</v>
+      </c>
+      <c r="C217" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>411</v>
+      </c>
+      <c r="B218" t="s">
+        <v>412</v>
+      </c>
+      <c r="C218" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>413</v>
+      </c>
+      <c r="B219" t="s">
+        <v>414</v>
+      </c>
+      <c r="C219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>415</v>
+      </c>
+      <c r="B220" t="s">
+        <v>416</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>417</v>
+      </c>
+      <c r="B221" t="s">
+        <v>418</v>
+      </c>
+      <c r="C221" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>419</v>
+      </c>
+      <c r="B222" t="s">
+        <v>420</v>
+      </c>
+      <c r="C222" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>421</v>
+      </c>
+      <c r="B223" t="s">
+        <v>422</v>
+      </c>
+      <c r="C223" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>423</v>
+      </c>
+      <c r="B224" t="s">
+        <v>424</v>
+      </c>
+      <c r="C224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>425</v>
+      </c>
+      <c r="B225" t="s">
+        <v>426</v>
+      </c>
+      <c r="C225" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>427</v>
+      </c>
+      <c r="B226" t="s">
+        <v>428</v>
+      </c>
+      <c r="C226" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>429</v>
+      </c>
+      <c r="B227" t="s">
+        <v>430</v>
+      </c>
+      <c r="C227" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>431</v>
+      </c>
+      <c r="B228" t="s">
+        <v>432</v>
+      </c>
+      <c r="C228" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>433</v>
+      </c>
+      <c r="B229" t="s">
+        <v>434</v>
+      </c>
+      <c r="C229" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>435</v>
+      </c>
+      <c r="B230" t="s">
+        <v>436</v>
+      </c>
+      <c r="C230" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>437</v>
+      </c>
+      <c r="B231" t="s">
+        <v>438</v>
+      </c>
+      <c r="C231" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>439</v>
+      </c>
+      <c r="B232" t="s">
+        <v>440</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>441</v>
+      </c>
+      <c r="B233" t="s">
+        <v>442</v>
+      </c>
+      <c r="C233" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>443</v>
+      </c>
+      <c r="B234" t="s">
+        <v>444</v>
+      </c>
+      <c r="C234" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>445</v>
+      </c>
+      <c r="B235" t="s">
+        <v>446</v>
+      </c>
+      <c r="C235" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>447</v>
+      </c>
+      <c r="B236" t="s">
+        <v>448</v>
+      </c>
+      <c r="C236" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>449</v>
+      </c>
+      <c r="B237" t="s">
+        <v>450</v>
+      </c>
+      <c r="C237" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>451</v>
+      </c>
+      <c r="B238" t="s">
+        <v>452</v>
+      </c>
+      <c r="C238" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>453</v>
+      </c>
+      <c r="B239" t="s">
+        <v>454</v>
+      </c>
+      <c r="C239" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>455</v>
+      </c>
+      <c r="B240" t="s">
+        <v>456</v>
+      </c>
+      <c r="C240" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>457</v>
+      </c>
+      <c r="B241" t="s">
+        <v>458</v>
+      </c>
+      <c r="C241" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>459</v>
+      </c>
+      <c r="B242" t="s">
+        <v>460</v>
+      </c>
+      <c r="C242" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>461</v>
+      </c>
+      <c r="B243" t="s">
+        <v>462</v>
+      </c>
+      <c r="C243" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>463</v>
+      </c>
+      <c r="B244" t="s">
+        <v>464</v>
+      </c>
+      <c r="C244" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>465</v>
+      </c>
+      <c r="B245" t="s">
+        <v>466</v>
+      </c>
+      <c r="C245" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>467</v>
+      </c>
+      <c r="B246" t="s">
+        <v>468</v>
+      </c>
+      <c r="C246" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>469</v>
+      </c>
+      <c r="B247" t="s">
+        <v>470</v>
+      </c>
+      <c r="C247" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>471</v>
+      </c>
+      <c r="B248" t="s">
+        <v>472</v>
+      </c>
+      <c r="C248" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>473</v>
+      </c>
+      <c r="B249" t="s">
+        <v>474</v>
+      </c>
+      <c r="C249" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>178</v>
+      </c>
+      <c r="B250" t="s">
+        <v>475</v>
+      </c>
+      <c r="C250" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251" t="s">
+        <v>476</v>
+      </c>
+      <c r="C251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>477</v>
+      </c>
+      <c r="B252" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>479</v>
+      </c>
+      <c r="B253" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>481</v>
+      </c>
+      <c r="B254" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>483</v>
+      </c>
+      <c r="B255" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>485</v>
+      </c>
+      <c r="B256" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>487</v>
+      </c>
+      <c r="B257" t="s">
+        <v>488</v>
+      </c>
+      <c r="C257" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>489</v>
+      </c>
+      <c r="B258" t="s">
+        <v>490</v>
+      </c>
+      <c r="C258" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>491</v>
+      </c>
+      <c r="B259" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>493</v>
+      </c>
+      <c r="B260" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>495</v>
+      </c>
+      <c r="B261" t="s">
+        <v>496</v>
+      </c>
+      <c r="C261" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>498</v>
+      </c>
+      <c r="B262" t="s">
+        <v>499</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>500</v>
+      </c>
+      <c r="B263" t="s">
+        <v>501</v>
+      </c>
+      <c r="C263" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>502</v>
+      </c>
+      <c r="B264" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>504</v>
+      </c>
+      <c r="B265" t="s">
+        <v>505</v>
+      </c>
+      <c r="C265" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>506</v>
+      </c>
+      <c r="B266" t="s">
+        <v>507</v>
+      </c>
+      <c r="C266" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>508</v>
+      </c>
+      <c r="B267" t="s">
+        <v>509</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C249" xr:uid="{4A2FF0CA-3C4D-4BFF-9AA5-A0CFD76751B1}"/>

--- a/backend/objetos.xlsx
+++ b/backend/objetos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leozed92-my.sharepoint.com/personal/leozed_leozed92_onmicrosoft_com/Documents/Aplicativos/App GAD SESAU/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="8_{C24DD8E0-50BB-40E4-B648-E8FAFBB74FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19E53BFC-0421-4058-BB54-09E7008B3771}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{C24DD8E0-50BB-40E4-B648-E8FAFBB74FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{595341F3-CC78-4EDD-A32A-3B9CE51153A8}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11190" xr2:uid="{92D8D400-3915-4B7A-B5E9-ACA32B0E4BC3}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{92D8D400-3915-4B7A-B5E9-ACA32B0E4BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="objetos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="529">
   <si>
     <t>objeto</t>
   </si>
@@ -1570,6 +1570,63 @@
   </si>
   <si>
     <t>medicamentos, Soluções orais II</t>
+  </si>
+  <si>
+    <t>0036.024403/2025-01</t>
+  </si>
+  <si>
+    <t>medicamentos Soluções orais I</t>
+  </si>
+  <si>
+    <t>0036.033486/2025-11</t>
+  </si>
+  <si>
+    <t>Alimentação Hospitalar - HBAP, HICD, CEMETRON, CRUE, CEREL.</t>
+  </si>
+  <si>
+    <t>0036.033230/2025-12</t>
+  </si>
+  <si>
+    <t>Fornecimento de alimentação hospitalar - HRC, HEURO</t>
+  </si>
+  <si>
+    <t>0036.032746/2025-31</t>
+  </si>
+  <si>
+    <t>prestação de serviços de locação de Módulos/Centrais de Compressores de Ar Medicinal - HEPSJP-II.</t>
+  </si>
+  <si>
+    <t>0036.032361/2025-74</t>
+  </si>
+  <si>
+    <t>0036.020064/2025-86</t>
+  </si>
+  <si>
+    <t>GCET - Gerência de Coordenação Estadual de Transplantes. Bolsa Plástica estéril para acondicionamento e isolamento de órgãos</t>
+  </si>
+  <si>
+    <t>0036.023632/2025-09</t>
+  </si>
+  <si>
+    <t>Engenharia Clínica,Serviço de Gerenciamento de Equipamentos Manutenção Corretiva, Preventiva, Preditiva e Calibração dos Equipamentos com Reposição de Peças e Acessórios, Serviço de Gerenciamento de Equipamentos Manutenção Corretiva, Preventiva, Preditiva e Calibração dos Equipamentos com Reposição de Peças e Acessórios - POC</t>
+  </si>
+  <si>
+    <t>0036.027089/2025-19</t>
+  </si>
+  <si>
+    <t>serviços de manutenção preventiva e corretiva em condicionadores de ar (com fornecimento e reposição de peças, acessórios e componentes eletrônicos) para as unidades administrativa</t>
+  </si>
+  <si>
+    <t>0036.017198/2025-10</t>
+  </si>
+  <si>
+    <t>Emergencial - serviços de neurologia Cirúrgica e Neurologia Clínica</t>
+  </si>
+  <si>
+    <t>0036.016942/2024-88</t>
+  </si>
+  <si>
+    <t>Construção de um Espaço de convivência - POC</t>
   </si>
 </sst>
 </file>
@@ -1632,10 +1689,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1955,10 +2008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2FF0CA-3C4D-4BFF-9AA5-A0CFD76751B1}">
-  <dimension ref="A1:C267"/>
+  <dimension ref="A1:C277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C267"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4877,6 +4930,107 @@
         <v>509</v>
       </c>
     </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>510</v>
+      </c>
+      <c r="B268" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>512</v>
+      </c>
+      <c r="B269" t="s">
+        <v>513</v>
+      </c>
+      <c r="C269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>514</v>
+      </c>
+      <c r="B270" t="s">
+        <v>515</v>
+      </c>
+      <c r="C270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>516</v>
+      </c>
+      <c r="B271" t="s">
+        <v>517</v>
+      </c>
+      <c r="C271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>518</v>
+      </c>
+      <c r="B272" t="s">
+        <v>515</v>
+      </c>
+      <c r="C272" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>519</v>
+      </c>
+      <c r="B273" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>521</v>
+      </c>
+      <c r="B274" t="s">
+        <v>522</v>
+      </c>
+      <c r="C274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>523</v>
+      </c>
+      <c r="B275" t="s">
+        <v>524</v>
+      </c>
+      <c r="C275" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>525</v>
+      </c>
+      <c r="B276" t="s">
+        <v>526</v>
+      </c>
+      <c r="C276" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>527</v>
+      </c>
+      <c r="B277" t="s">
+        <v>528</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C249" xr:uid="{4A2FF0CA-3C4D-4BFF-9AA5-A0CFD76751B1}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
